--- a/doc/performance_face.xlsx
+++ b/doc/performance_face.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xingbo_research_project\IoMArcFace\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10D17C2-0B73-44A3-A78C-59504D3571FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D167A74B-312F-4D13-B735-8BB099AFE4D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="512 riom wo LUT" sheetId="1" r:id="rId1"/>
-    <sheet name="512 riom LUT" sheetId="2" r:id="rId2"/>
-    <sheet name="512 riom LUT-2 " sheetId="5" r:id="rId3"/>
-    <sheet name="128 riom" sheetId="4" r:id="rId4"/>
-    <sheet name="Deep IoM" sheetId="3" r:id="rId5"/>
-    <sheet name="DS-Machines" sheetId="7" r:id="rId6"/>
-    <sheet name="512 riom Hamming" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId9"/>
+    <sheet name="DS-Machines" sheetId="7" r:id="rId1"/>
+    <sheet name="512 riom wo LUT" sheetId="1" r:id="rId2"/>
+    <sheet name="512 riom LUT" sheetId="2" r:id="rId3"/>
+    <sheet name="512 riom LUT-2 " sheetId="5" r:id="rId4"/>
+    <sheet name="128 riom" sheetId="4" r:id="rId5"/>
+    <sheet name="Deep IoM" sheetId="3" r:id="rId6"/>
+    <sheet name="Deep IoM 0618" sheetId="11" r:id="rId7"/>
+    <sheet name="512 riom Hamming" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'128 riom'!$A$30:$D$148</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'512 riom Hamming'!$A$1:$A$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'512 riom LUT'!$A$2:$L$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'512 riom LUT-2 '!$B$3:$Q$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'512 riom wo LUT'!$A$2:$L$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'128 riom'!$A$30:$D$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'512 riom Hamming'!$A$1:$A$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'512 riom LUT'!$A$2:$L$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'512 riom LUT-2 '!$B$3:$Q$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'512 riom wo LUT'!$A$2:$L$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="171">
   <si>
     <t>Y.T.F</t>
   </si>
@@ -943,7 +945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,8 +1006,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1052,12 +1060,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,7 +1199,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1463,6 +1482,2139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51363D05-95D3-43CA-814A-33F96DBAFD86}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" activeCellId="3" sqref="A13:B13 A6:B6 A5:B5 A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="42"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47C9538-EDBA-49B6-B199-3A527D479C32}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3A9CEE-36E3-4823-9414-772FB20273FF}">
+  <dimension ref="E1:T36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="14" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:20">
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>128</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="55">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="M1" s="55">
+        <v>0.1072</v>
+      </c>
+      <c r="N1" s="55">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="O1">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="P1">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="R1">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="S1">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="T1">
+        <v>0.93240000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="5:20">
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>128</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="55">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="M2" s="55">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="N2" s="55">
+        <v>0.1173</v>
+      </c>
+      <c r="O2">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="Q2">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="S2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="T2">
+        <v>0.95150000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="5:20">
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>128</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="55">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="M3" s="55">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="N3" s="55">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="Q3">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="R3">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="T3">
+        <v>0.95230000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="5:20">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>128</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="55">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="M4" s="55">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="N4" s="55">
+        <v>0.1101</v>
+      </c>
+      <c r="O4">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="P4">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="Q4">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="R4">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="S4">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="T4">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="5:20">
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>128</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="55">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M5" s="55">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N5" s="55">
+        <v>0.112</v>
+      </c>
+      <c r="O5">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="P5">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="S5">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="T5">
+        <v>0.95340000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="5:20">
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="55">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="M6" s="55">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="N6" s="55">
+        <v>0.1128</v>
+      </c>
+      <c r="O6">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="Q6">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="R6">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="T6">
+        <v>0.95209999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="5:20">
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>128</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="55">
+        <v>1.54E-2</v>
+      </c>
+      <c r="M7" s="55">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="N7" s="55">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="P7">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="Q7">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="T7">
+        <v>0.95150000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20">
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>128</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="55">
+        <v>1.44E-2</v>
+      </c>
+      <c r="M8" s="55">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="N8" s="55">
+        <v>0.1162</v>
+      </c>
+      <c r="O8">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="P8">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="Q8">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="R8">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="S8">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="T8">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="5:20">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>256</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="55">
+        <v>1.83E-2</v>
+      </c>
+      <c r="M9" s="55">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="N9" s="55">
+        <v>0.1201</v>
+      </c>
+      <c r="O9">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="P9">
+        <v>0.9698</v>
+      </c>
+      <c r="Q9">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="S9">
+        <v>0.9698</v>
+      </c>
+      <c r="T9">
+        <v>0.94869999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="5:20">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>256</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="55">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="M10" s="55">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="N10" s="55">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="O10">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="P10">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="Q10">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="S10">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="T10">
+        <v>0.96160000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="5:20">
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>256</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="55">
+        <v>1.38E-2</v>
+      </c>
+      <c r="M11" s="55">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="N11" s="55">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="P11">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="Q11">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="S11">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="T11">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="5:20">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>256</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="55">
+        <v>1.34E-2</v>
+      </c>
+      <c r="M12" s="55">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="N12" s="55">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="P12">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="Q12">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="R12">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="S12">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="T12">
+        <v>0.96340000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="5:20">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>256</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="55">
+        <v>1.24E-2</v>
+      </c>
+      <c r="M13" s="55">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="N13" s="55">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="P13">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="R13">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="S13">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.96319999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="5:20">
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>256</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="55">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="M14" s="55">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="N14" s="55">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="P14">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="Q14">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="S14">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="T14">
+        <v>0.96560000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="5:20">
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="55">
+        <v>1.23E-2</v>
+      </c>
+      <c r="M15" s="55">
+        <v>6.83E-2</v>
+      </c>
+      <c r="N15" s="55">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="O15">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="P15">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="R15">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="S15">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="T15">
+        <v>0.96279999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="5:20">
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>256</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="55">
+        <v>1.11E-2</v>
+      </c>
+      <c r="M16" s="55">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="N16" s="55">
+        <v>9.69E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="P16">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="Q16">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="R16">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="S16">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="T16">
+        <v>0.96230000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>512</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="55">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M17" s="55">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="N17" s="55">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O17">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="P17">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="R17">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="S17">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="T17">
+        <v>0.96079999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20">
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>512</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="55">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="M18" s="55">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="N18" s="55">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="O18">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="R18">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="S18">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="T18">
+        <v>0.96650000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20">
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>512</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="55">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="M19" s="55">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="N19" s="55">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.999</v>
+      </c>
+      <c r="P19">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="Q19">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="R19">
+        <v>0.999</v>
+      </c>
+      <c r="S19">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="T19">
+        <v>0.96889999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20">
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>512</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="55">
+        <v>1.03E-2</v>
+      </c>
+      <c r="M20" s="55">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="N20" s="55">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="O20">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P20">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="R20">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="S20">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="T20">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20">
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>512</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="55">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="M21" s="55">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="N21" s="55">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="O21">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P21">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="Q21">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="R21">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="S21">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="T21">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20">
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>512</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="55">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="M22" s="55">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="N22" s="55">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="O22">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="Q22">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="R22">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="S22">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="T22">
+        <v>0.96909999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20">
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>512</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="55">
+        <v>1.03E-2</v>
+      </c>
+      <c r="M23" s="55">
+        <v>5.74E-2</v>
+      </c>
+      <c r="N23" s="55">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="O23">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="P23">
+        <v>0.9819</v>
+      </c>
+      <c r="Q23">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="R23">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="S23">
+        <v>0.9819</v>
+      </c>
+      <c r="T23">
+        <v>0.96789999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20">
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>512</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M24" s="55">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N24" s="55">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P24">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="Q24">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="R24">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="S24">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="T24">
+        <v>0.96919999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1024</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="55">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M25" s="55">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="N25" s="55">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="O25">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="P25">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="Q25">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="R25">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="S25">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="T25">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20">
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>1024</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="55">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="M26" s="55">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="N26" s="55">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="O26">
+        <v>0.999</v>
+      </c>
+      <c r="P26">
+        <v>0.9839</v>
+      </c>
+      <c r="Q26">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="R26">
+        <v>0.999</v>
+      </c>
+      <c r="S26">
+        <v>0.9839</v>
+      </c>
+      <c r="T26">
+        <v>0.97089999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20">
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>1024</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="55">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="M27" s="55">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="N27" s="55">
+        <v>8.43E-2</v>
+      </c>
+      <c r="O27">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P27">
+        <v>0.9829</v>
+      </c>
+      <c r="Q27">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="R27">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="S27">
+        <v>0.9829</v>
+      </c>
+      <c r="T27">
+        <v>0.97030000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20">
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>1024</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M28" s="55">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="N28" s="55">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="O28">
+        <v>0.999</v>
+      </c>
+      <c r="P28">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="Q28">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="R28">
+        <v>0.999</v>
+      </c>
+      <c r="S28">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="T28">
+        <v>0.97209999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20">
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>1024</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="55">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="M29" s="55">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="N29" s="55">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="O29">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="P29">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="Q29">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="R29">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="S29">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="T29">
+        <v>0.97070000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="5:20">
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>1024</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="55">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="M30" s="55">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="N30" s="55">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="O30">
+        <v>0.999</v>
+      </c>
+      <c r="P30">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="Q30">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="R30">
+        <v>0.999</v>
+      </c>
+      <c r="S30">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="T30">
+        <v>0.97030000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20">
+      <c r="E31">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>1024</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="55">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="M31" s="55">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="N31" s="55">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="O31">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="P31">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>0.9718</v>
+      </c>
+      <c r="R31">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="S31">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="T31">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="32" spans="5:20">
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>1024</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="55">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="M32" s="55">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="N32" s="55">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="O32">
+        <v>0.999</v>
+      </c>
+      <c r="P32">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="Q32">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="R32">
+        <v>0.999</v>
+      </c>
+      <c r="S32">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="T32">
+        <v>0.97089999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="5:20">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2048</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="55">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="M33" s="55">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N33" s="55">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="O33">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P33">
+        <v>0.9829</v>
+      </c>
+      <c r="Q33">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="R33">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="S33">
+        <v>0.9829</v>
+      </c>
+      <c r="T33">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="5:20">
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>2048</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="55">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="M34" s="55">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="N34" s="55">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="O34">
+        <v>0.999</v>
+      </c>
+      <c r="P34">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="Q34">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="R34">
+        <v>0.999</v>
+      </c>
+      <c r="S34">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="T34">
+        <v>0.97189999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="5:20">
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>2048</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="55">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="M35" s="55">
+        <v>5.45E-2</v>
+      </c>
+      <c r="N35" s="55">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="O35">
+        <v>0.999</v>
+      </c>
+      <c r="P35">
+        <v>0.9839</v>
+      </c>
+      <c r="Q35">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="R35">
+        <v>0.999</v>
+      </c>
+      <c r="S35">
+        <v>0.9839</v>
+      </c>
+      <c r="T35">
+        <v>0.97170000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="5:20">
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>2048</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="55">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="M36" s="55">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="N36" s="55">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="O36">
+        <v>0.999</v>
+      </c>
+      <c r="P36">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="Q36">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="R36">
+        <v>0.999</v>
+      </c>
+      <c r="S36">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="T36">
+        <v>0.97189999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L166"/>
   <sheetViews>
@@ -4345,7 +6497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086351DC-CA4E-4DBC-B683-0C6894F7CDAB}">
   <dimension ref="A1:L150"/>
   <sheetViews>
@@ -6893,13 +9045,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423ECC11-9AF4-4C27-8CCD-ECD395E4ACF5}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:Q91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q3"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6979,7 +9130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1">
+    <row r="4" spans="1:17">
       <c r="E4">
         <v>0.95550000000000002</v>
       </c>
@@ -7062,7 +9213,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1">
+    <row r="6" spans="1:17">
       <c r="A6" s="27"/>
       <c r="B6">
         <v>2</v>
@@ -7113,7 +9264,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1">
+    <row r="7" spans="1:17">
       <c r="A7" s="27"/>
       <c r="B7">
         <v>2</v>
@@ -7164,7 +9315,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1">
+    <row r="8" spans="1:17">
       <c r="A8" s="27"/>
       <c r="B8">
         <v>2</v>
@@ -7266,7 +9417,7 @@
         <v>0.78339999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1">
+    <row r="10" spans="1:17">
       <c r="A10" s="27"/>
       <c r="B10">
         <v>4</v>
@@ -7317,7 +9468,7 @@
         <v>0.86660000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1">
+    <row r="11" spans="1:17">
       <c r="A11" s="27"/>
       <c r="B11">
         <v>4</v>
@@ -7368,7 +9519,7 @@
         <v>0.84919999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1">
+    <row r="12" spans="1:17">
       <c r="A12" s="27"/>
       <c r="B12">
         <v>4</v>
@@ -7470,7 +9621,7 @@
         <v>0.7349</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1">
+    <row r="14" spans="1:17">
       <c r="A14" s="27"/>
       <c r="B14">
         <v>8</v>
@@ -7521,7 +9672,7 @@
         <v>0.81950000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1">
+    <row r="15" spans="1:17">
       <c r="A15" s="27"/>
       <c r="B15">
         <v>8</v>
@@ -7572,7 +9723,7 @@
         <v>0.85940000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1">
+    <row r="16" spans="1:17">
       <c r="A16" s="27"/>
       <c r="B16">
         <v>8</v>
@@ -7674,7 +9825,7 @@
         <v>0.67679999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1">
+    <row r="18" spans="1:17">
       <c r="A18" s="27"/>
       <c r="B18">
         <v>16</v>
@@ -7725,7 +9876,7 @@
         <v>0.8034</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1">
+    <row r="19" spans="1:17">
       <c r="A19" s="27"/>
       <c r="B19">
         <v>16</v>
@@ -7776,7 +9927,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1">
+    <row r="20" spans="1:17">
       <c r="A20" s="27"/>
       <c r="B20">
         <v>16</v>
@@ -7878,7 +10029,7 @@
         <v>0.89259999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1">
+    <row r="22" spans="1:17">
       <c r="A22" s="27"/>
       <c r="B22">
         <v>2</v>
@@ -7929,7 +10080,7 @@
         <v>0.89259999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1">
+    <row r="23" spans="1:17">
       <c r="A23" s="27"/>
       <c r="B23">
         <v>2</v>
@@ -7980,7 +10131,7 @@
         <v>0.89259999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1">
+    <row r="24" spans="1:17">
       <c r="A24" s="27"/>
       <c r="B24">
         <v>2</v>
@@ -8082,7 +10233,7 @@
         <v>0.84730000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1">
+    <row r="26" spans="1:17">
       <c r="A26" s="27"/>
       <c r="B26">
         <v>4</v>
@@ -8133,7 +10284,7 @@
         <v>0.91439999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1">
+    <row r="27" spans="1:17">
       <c r="A27" s="27"/>
       <c r="B27">
         <v>4</v>
@@ -8184,7 +10335,7 @@
         <v>0.90820000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1">
+    <row r="28" spans="1:17">
       <c r="A28" s="27"/>
       <c r="B28">
         <v>4</v>
@@ -8286,7 +10437,7 @@
         <v>0.80430000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1">
+    <row r="30" spans="1:17">
       <c r="A30" s="27"/>
       <c r="B30">
         <v>8</v>
@@ -8337,7 +10488,7 @@
         <v>0.87439999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1">
+    <row r="31" spans="1:17">
       <c r="A31" s="27"/>
       <c r="B31">
         <v>8</v>
@@ -8388,7 +10539,7 @@
         <v>0.91459999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1">
+    <row r="32" spans="1:17">
       <c r="A32" s="27"/>
       <c r="B32">
         <v>8</v>
@@ -8490,7 +10641,7 @@
         <v>0.74880000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" s="27"/>
       <c r="B34">
         <v>16</v>
@@ -8541,7 +10692,7 @@
         <v>0.86109999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1">
+    <row r="35" spans="1:17">
       <c r="A35" s="27"/>
       <c r="B35">
         <v>16</v>
@@ -8592,7 +10743,7 @@
         <v>0.89429999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1">
+    <row r="36" spans="1:17">
       <c r="A36" s="27"/>
       <c r="B36">
         <v>16</v>
@@ -8694,7 +10845,7 @@
         <v>0.93610000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1">
+    <row r="38" spans="1:17">
       <c r="A38" s="27"/>
       <c r="B38">
         <v>2</v>
@@ -8745,7 +10896,7 @@
         <v>0.93620000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1">
+    <row r="39" spans="1:17">
       <c r="A39" s="27"/>
       <c r="B39">
         <v>2</v>
@@ -8796,7 +10947,7 @@
         <v>0.93620000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1">
+    <row r="40" spans="1:17">
       <c r="A40" s="27"/>
       <c r="B40">
         <v>2</v>
@@ -8898,7 +11049,7 @@
         <v>0.89870000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1">
+    <row r="42" spans="1:17">
       <c r="A42" s="27"/>
       <c r="B42">
         <v>4</v>
@@ -8949,7 +11100,7 @@
         <v>0.94259999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1">
+    <row r="43" spans="1:17">
       <c r="A43" s="27"/>
       <c r="B43">
         <v>4</v>
@@ -9000,7 +11151,7 @@
         <v>0.94689999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1">
+    <row r="44" spans="1:17">
       <c r="A44" s="27"/>
       <c r="B44">
         <v>4</v>
@@ -9102,7 +11253,7 @@
         <v>0.86160000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1">
+    <row r="46" spans="1:17">
       <c r="A46" s="27"/>
       <c r="B46">
         <v>8</v>
@@ -9153,7 +11304,7 @@
         <v>0.91910000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1">
+    <row r="47" spans="1:17">
       <c r="A47" s="27"/>
       <c r="B47">
         <v>8</v>
@@ -9204,7 +11355,7 @@
         <v>0.93389999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1">
+    <row r="48" spans="1:17">
       <c r="A48" s="27"/>
       <c r="B48">
         <v>8</v>
@@ -9306,7 +11457,7 @@
         <v>0.81679999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1">
+    <row r="50" spans="1:17">
       <c r="A50" s="27"/>
       <c r="B50">
         <v>16</v>
@@ -9357,7 +11508,7 @@
         <v>0.91049999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1">
+    <row r="51" spans="1:17">
       <c r="A51" s="27"/>
       <c r="B51">
         <v>16</v>
@@ -9408,7 +11559,7 @@
         <v>0.93630000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1">
+    <row r="52" spans="1:17">
       <c r="A52" s="27"/>
       <c r="B52">
         <v>16</v>
@@ -9510,7 +11661,7 @@
         <v>0.95330000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1">
+    <row r="54" spans="1:17">
       <c r="A54" s="27"/>
       <c r="B54">
         <v>2</v>
@@ -9561,7 +11712,7 @@
         <v>0.95330000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1">
+    <row r="55" spans="1:17">
       <c r="A55" s="27"/>
       <c r="B55">
         <v>2</v>
@@ -9612,7 +11763,7 @@
         <v>0.95330000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1">
+    <row r="56" spans="1:17">
       <c r="A56" s="27"/>
       <c r="B56">
         <v>2</v>
@@ -9714,7 +11865,7 @@
         <v>0.93679999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1">
+    <row r="58" spans="1:17">
       <c r="A58" s="27"/>
       <c r="B58">
         <v>4</v>
@@ -9765,7 +11916,7 @@
         <v>0.94630000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1">
+    <row r="59" spans="1:17">
       <c r="A59" s="27"/>
       <c r="B59">
         <v>4</v>
@@ -9816,7 +11967,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1">
+    <row r="60" spans="1:17">
       <c r="A60" s="27"/>
       <c r="B60">
         <v>4</v>
@@ -9918,7 +12069,7 @@
         <v>0.90780000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1">
+    <row r="62" spans="1:17">
       <c r="A62" s="27"/>
       <c r="B62">
         <v>8</v>
@@ -9969,7 +12120,7 @@
         <v>0.95279999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1">
+    <row r="63" spans="1:17">
       <c r="A63" s="27"/>
       <c r="B63">
         <v>8</v>
@@ -10020,7 +12171,7 @@
         <v>0.95420000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1">
+    <row r="64" spans="1:17">
       <c r="A64" s="27"/>
       <c r="B64">
         <v>8</v>
@@ -10122,7 +12273,7 @@
         <v>0.87639999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1">
+    <row r="66" spans="1:17">
       <c r="A66" s="27"/>
       <c r="B66">
         <v>16</v>
@@ -10173,7 +12324,7 @@
         <v>0.94040000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1">
+    <row r="67" spans="1:17">
       <c r="A67" s="27"/>
       <c r="B67">
         <v>16</v>
@@ -10224,7 +12375,7 @@
         <v>0.95169999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1">
+    <row r="68" spans="1:17">
       <c r="A68" s="27"/>
       <c r="B68">
         <v>16</v>
@@ -10326,7 +12477,7 @@
         <v>0.96330000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" s="27"/>
       <c r="B70">
         <v>2</v>
@@ -10377,7 +12528,7 @@
         <v>0.96330000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1">
+    <row r="71" spans="1:17">
       <c r="A71" s="27"/>
       <c r="B71">
         <v>2</v>
@@ -10428,7 +12579,7 @@
         <v>0.96340000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1">
+    <row r="72" spans="1:17">
       <c r="A72" s="27"/>
       <c r="B72">
         <v>2</v>
@@ -10530,7 +12681,7 @@
         <v>0.95289999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1">
+    <row r="74" spans="1:17">
       <c r="A74" s="27"/>
       <c r="B74">
         <v>4</v>
@@ -10581,7 +12732,7 @@
         <v>0.96550000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" s="27"/>
       <c r="B75">
         <v>4</v>
@@ -10632,7 +12783,7 @@
         <v>0.96530000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1">
+    <row r="76" spans="1:17">
       <c r="A76" s="27"/>
       <c r="B76">
         <v>4</v>
@@ -10734,7 +12885,7 @@
         <v>0.93510000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1">
+    <row r="78" spans="1:17">
       <c r="A78" s="27"/>
       <c r="B78">
         <v>8</v>
@@ -10836,7 +12987,7 @@
         <v>0.93940000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1">
+    <row r="80" spans="1:17">
       <c r="A80" s="27"/>
       <c r="B80">
         <v>8</v>
@@ -10887,7 +13038,7 @@
         <v>0.96150000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1">
+    <row r="81" spans="1:17">
       <c r="A81" s="27"/>
       <c r="B81">
         <v>8</v>
@@ -10938,7 +13089,7 @@
         <v>0.9637</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1">
+    <row r="82" spans="1:17">
       <c r="A82" s="27"/>
       <c r="B82">
         <v>8</v>
@@ -11040,7 +13191,7 @@
         <v>0.91579999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1">
+    <row r="84" spans="1:17">
       <c r="A84" s="27"/>
       <c r="B84">
         <v>16</v>
@@ -11091,7 +13242,7 @@
         <v>0.95730000000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1">
+    <row r="85" spans="1:17">
       <c r="A85" s="27"/>
       <c r="B85">
         <v>16</v>
@@ -11142,7 +13293,7 @@
         <v>0.96060000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1">
+    <row r="86" spans="1:17">
       <c r="A86" s="27"/>
       <c r="B86">
         <v>16</v>
@@ -11244,7 +13395,7 @@
         <v>0.96679999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1">
+    <row r="88" spans="1:17">
       <c r="A88" s="27"/>
       <c r="B88">
         <v>2</v>
@@ -11295,7 +13446,7 @@
         <v>0.9667</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1">
+    <row r="89" spans="1:17">
       <c r="A89" s="27"/>
       <c r="B89">
         <v>2</v>
@@ -11397,7 +13548,7 @@
         <v>0.97050000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1">
+    <row r="91" spans="1:17">
       <c r="A91" s="27"/>
       <c r="B91">
         <v>2</v>
@@ -11449,13 +13600,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q91" xr:uid="{397B0173-3692-4843-A895-C57746585763}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -11469,7 +13613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D37F7-1C48-4512-B94A-7CD14E05EBFF}">
   <dimension ref="A1:J148"/>
   <sheetViews>
@@ -13798,13 +15942,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A090CCDC-0C1B-44F7-A2B0-955225D976E6}">
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L51" sqref="J51:L51"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16925,218 +19069,554 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51363D05-95D3-43CA-814A-33F96DBAFD86}">
-  <dimension ref="A1:H24"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C05117-9D59-4433-A78F-73924040633A}">
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="1:19" s="13" customFormat="1">
+      <c r="F1" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" s="13" customFormat="1" ht="30">
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" s="13" customFormat="1">
+      <c r="B3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J3" s="57">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K3" s="57">
+        <v>5.04E-2</v>
+      </c>
+      <c r="L3" s="57">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.9234</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.9849</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" s="13" customFormat="1">
+      <c r="B4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>512</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.9425</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="J4" s="57">
+        <v>1.44E-2</v>
+      </c>
+      <c r="K4" s="57">
+        <v>6.93E-2</v>
+      </c>
+      <c r="L4" s="57">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.9073</v>
+      </c>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" s="13" customFormat="1">
+      <c r="B5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>512</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="J5" s="57">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="K5" s="57">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="L5" s="57">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" s="13" customFormat="1">
+      <c r="B6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>512</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="J6" s="57">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="K6" s="57">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="L6" s="57">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" s="13" customFormat="1">
+      <c r="A7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>512</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="J7" s="57">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="K7" s="57">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="L7" s="57">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>512</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.9859</v>
+      </c>
+      <c r="J8" s="57">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="K8" s="57">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="L8" s="57">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0.9798</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" s="13" customFormat="1">
+      <c r="A9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>512</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="J9" s="57">
+        <v>1.09E-2</v>
+      </c>
+      <c r="K9" s="57">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="L9" s="57">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.9718</v>
+      </c>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="47" t="s">
+      <c r="B12" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="43" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="50"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="48" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="42"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="42"/>
+      <c r="B16" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="13">
+        <v>4</v>
+      </c>
+      <c r="E16" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="13">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="13">
+        <v>10</v>
+      </c>
+      <c r="E18" s="13">
+        <v>512</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="5">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K3:K13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J20">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3E9D5F-8B59-4D29-9111-E23FC77F2E08}">
   <dimension ref="A2:XFD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43821,9 +46301,17 @@
       <c r="B4">
         <v>256</v>
       </c>
-      <c r="C4">
-        <f>_xlfn.CEILING.MATH(LOG(A4,2))*B4</f>
-        <v>256</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" s="55">
         <v>1.6899999999999998E-2</v>
@@ -43860,9 +46348,17 @@
       <c r="B5">
         <v>256</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C63" si="0">_xlfn.CEILING.MATH(LOG(A5,2))*B5</f>
-        <v>512</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" s="55">
         <v>1.23E-2</v>
@@ -43899,9 +46395,17 @@
       <c r="B6">
         <v>256</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>512</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6" s="55">
         <v>1.3899999999999999E-2</v>
@@ -43938,9 +46442,17 @@
       <c r="B7">
         <v>256</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>768</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7" s="55">
         <v>1.1299999999999999E-2</v>
@@ -43977,9 +46489,17 @@
       <c r="B8">
         <v>256</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>768</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8" s="55">
         <v>1.2E-2</v>
@@ -44010,15 +46530,23 @@
       </c>
     </row>
     <row r="9" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384">
-      <c r="A9" s="1">
+      <c r="A9" s="56">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="56">
         <v>256</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>768</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9" s="55">
         <v>1.06E-2</v>
@@ -44055,9 +46583,17 @@
       <c r="B10">
         <v>256</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>768</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10" s="55">
         <v>1.3299999999999999E-2</v>
@@ -44094,9 +46630,17 @@
       <c r="B11">
         <v>256</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11" s="55">
         <v>1.18E-2</v>
@@ -44133,9 +46677,17 @@
       <c r="B12">
         <v>256</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12" s="55">
         <v>1.23E-2</v>
@@ -44172,9 +46724,17 @@
       <c r="B13">
         <v>256</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13" s="55">
         <v>1.15E-2</v>
@@ -44211,9 +46771,17 @@
       <c r="B14">
         <v>256</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14" s="55">
         <v>1.2E-2</v>
@@ -44250,9 +46818,17 @@
       <c r="B15">
         <v>256</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15" s="55">
         <v>1.0800000000000001E-2</v>
@@ -44289,9 +46865,17 @@
       <c r="B16">
         <v>256</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16" s="55">
         <v>1.18E-2</v>
@@ -44328,9 +46912,17 @@
       <c r="B17">
         <v>256</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17" s="55">
         <v>1.15E-2</v>
@@ -44367,9 +46959,17 @@
       <c r="B18">
         <v>256</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18" s="55">
         <v>1.0699999999999999E-2</v>
@@ -44406,9 +47006,17 @@
       <c r="B19">
         <v>512</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>512</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19" s="55">
         <v>1.32E-2</v>
@@ -44445,9 +47053,17 @@
       <c r="B20">
         <v>512</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20" s="55">
         <v>1.24E-2</v>
@@ -44484,9 +47100,17 @@
       <c r="B21">
         <v>512</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21" s="55">
         <v>1.0800000000000001E-2</v>
@@ -44523,9 +47147,17 @@
       <c r="B22">
         <v>512</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1536</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22" s="55">
         <v>1.0699999999999999E-2</v>
@@ -44562,9 +47194,17 @@
       <c r="B23">
         <v>512</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1536</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23" s="55">
         <v>0.01</v>
@@ -44601,9 +47241,17 @@
       <c r="B24">
         <v>512</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1536</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24" s="55">
         <v>1.01E-2</v>
@@ -44640,9 +47288,17 @@
       <c r="B25" s="56">
         <v>512</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1536</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" s="55">
         <v>9.5999999999999992E-3</v>
@@ -44679,9 +47335,17 @@
       <c r="B26">
         <v>512</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26" s="55">
         <v>1.0699999999999999E-2</v>
@@ -44718,9 +47382,17 @@
       <c r="B27">
         <v>512</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27" s="55">
         <v>9.7000000000000003E-3</v>
@@ -44757,9 +47429,17 @@
       <c r="B28">
         <v>512</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28" s="55">
         <v>9.4999999999999998E-3</v>
@@ -44796,9 +47476,17 @@
       <c r="B29">
         <v>512</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29" s="55">
         <v>1.04E-2</v>
@@ -44835,9 +47523,17 @@
       <c r="B30">
         <v>512</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30" s="55">
         <v>1.0699999999999999E-2</v>
@@ -44874,9 +47570,17 @@
       <c r="B31">
         <v>512</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31" s="55">
         <v>1.0500000000000001E-2</v>
@@ -44913,9 +47617,17 @@
       <c r="B32">
         <v>512</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32" s="55">
         <v>9.7999999999999997E-3</v>
@@ -44952,9 +47664,17 @@
       <c r="B33">
         <v>512</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33" s="55">
         <v>1.0500000000000001E-2</v>
@@ -44991,798 +47711,966 @@
       <c r="B34">
         <v>1024</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34" s="55">
-        <v>1.12E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="I34" s="55">
-        <v>6.2100000000000002E-2</v>
+        <v>5.96E-2</v>
       </c>
       <c r="J34" s="55">
-        <v>8.7300000000000003E-2</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="K34">
         <v>0.99880000000000002</v>
       </c>
       <c r="L34">
-        <v>0.98199999999999998</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="M34">
-        <v>0.96760000000000002</v>
+        <v>0.96740000000000004</v>
       </c>
       <c r="N34">
         <v>0.99880000000000002</v>
       </c>
       <c r="O34">
-        <v>0.98199999999999998</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="P34">
-        <v>0.96760000000000002</v>
+        <v>0.96740000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <v>1024</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35" s="55">
-        <v>9.1000000000000004E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="I35" s="55">
-        <v>5.7799999999999997E-2</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="J35" s="55">
-        <v>8.3599999999999994E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="K35">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="L35">
-        <v>0.98280000000000001</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="M35">
-        <v>0.97060000000000002</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="N35">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="O35">
-        <v>0.98280000000000001</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="P35">
-        <v>0.97060000000000002</v>
+        <v>0.96919999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>2048</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+        <v>1024</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36" s="55">
-        <v>8.5000000000000006E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="I36" s="55">
-        <v>5.57E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="J36" s="55">
-        <v>8.4400000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="K36">
-        <v>0.99909999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="L36">
-        <v>0.98299999999999998</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="M36">
-        <v>0.96909999999999996</v>
+        <v>0.9708</v>
       </c>
       <c r="N36">
-        <v>0.99909999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="O36">
-        <v>0.98299999999999998</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="P36">
-        <v>0.96909999999999996</v>
+        <v>0.9708</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="1">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2048</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>1024</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37" s="55">
-        <v>9.4999999999999998E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="I37" s="55">
-        <v>5.2699999999999997E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="J37" s="55">
-        <v>8.09E-2</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="K37">
         <v>0.999</v>
       </c>
       <c r="L37">
-        <v>0.98450000000000004</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="M37">
-        <v>0.97240000000000004</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="N37">
         <v>0.999</v>
       </c>
       <c r="O37">
-        <v>0.98450000000000004</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="P37">
-        <v>0.97240000000000004</v>
+        <v>0.97019999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>1024</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38" s="55">
-        <v>1.17E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="I38" s="55">
-        <v>5.96E-2</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="J38" s="55">
-        <v>8.7400000000000005E-2</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="K38">
-        <v>0.99880000000000002</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="L38">
-        <v>0.98180000000000001</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="M38">
-        <v>0.96740000000000004</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="N38">
-        <v>0.99880000000000002</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="O38">
-        <v>0.98180000000000001</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="P38">
-        <v>0.96740000000000004</v>
+        <v>0.97030000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>1024</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39" s="55">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I39" s="55">
-        <v>5.8400000000000001E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="J39" s="55">
-        <v>8.5500000000000007E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="K39">
-        <v>0.99890000000000001</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="L39">
-        <v>0.98219999999999996</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="M39">
-        <v>0.96919999999999995</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="N39">
-        <v>0.99890000000000001</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="O39">
-        <v>0.98219999999999996</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="P39">
-        <v>0.96919999999999995</v>
+        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40">
+      <c r="A40" s="56">
+        <v>8</v>
+      </c>
+      <c r="B40" s="56">
         <v>1024</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40" s="55">
-        <v>8.6999999999999994E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="I40" s="55">
-        <v>5.7000000000000002E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="J40" s="55">
-        <v>8.3000000000000004E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="K40">
         <v>0.999</v>
       </c>
       <c r="L40">
-        <v>0.98309999999999997</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="M40">
-        <v>0.9708</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="N40">
         <v>0.999</v>
       </c>
       <c r="O40">
-        <v>0.98309999999999997</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="P40">
-        <v>0.9708</v>
+        <v>0.97119999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>1024</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>3072</v>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41" s="55">
-        <v>8.6E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="I41" s="55">
-        <v>5.5899999999999998E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="J41" s="55">
-        <v>8.4500000000000006E-2</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="K41">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="L41">
-        <v>0.98329999999999995</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="M41">
-        <v>0.97019999999999995</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="N41">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="O41">
-        <v>0.98329999999999995</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="P41">
-        <v>0.97019999999999995</v>
+        <v>0.97060000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>1024</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>3072</v>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42" s="55">
-        <v>9.2999999999999992E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="I42" s="55">
-        <v>5.8299999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J42" s="55">
-        <v>8.1900000000000001E-2</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="K42">
-        <v>0.99890000000000001</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="L42">
-        <v>0.98250000000000004</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="M42">
-        <v>0.97030000000000005</v>
+        <v>0.97040000000000004</v>
       </c>
       <c r="N42">
-        <v>0.99890000000000001</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="O42">
-        <v>0.98250000000000004</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="P42">
-        <v>0.97030000000000005</v>
+        <v>0.97040000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>1024</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>3072</v>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43" s="55">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="I43" s="55">
-        <v>5.3900000000000003E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="J43" s="55">
-        <v>8.2400000000000001E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="K43">
-        <v>0.99880000000000002</v>
+        <v>0.999</v>
       </c>
       <c r="L43">
-        <v>0.98370000000000002</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="M43">
-        <v>0.97099999999999997</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="N43">
-        <v>0.99880000000000002</v>
+        <v>0.999</v>
       </c>
       <c r="O43">
-        <v>0.98370000000000002</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="P43">
-        <v>0.97099999999999997</v>
+        <v>0.97119999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>1024</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>3072</v>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44" s="55">
-        <v>8.8000000000000005E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I44" s="55">
-        <v>5.5899999999999998E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="J44" s="55">
-        <v>8.2299999999999998E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="K44">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="L44">
-        <v>0.98280000000000001</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="M44">
-        <v>0.97119999999999995</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="N44">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="O44">
-        <v>0.98280000000000001</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="P44">
-        <v>0.97119999999999995</v>
+        <v>0.97070000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>1024</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
       </c>
       <c r="H45" s="55">
-        <v>9.4999999999999998E-3</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="I45" s="55">
-        <v>5.7000000000000002E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="J45" s="55">
-        <v>8.3500000000000005E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="K45">
-        <v>0.99890000000000001</v>
+        <v>0.999</v>
       </c>
       <c r="L45">
-        <v>0.98340000000000005</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="M45">
-        <v>0.97060000000000002</v>
+        <v>0.97040000000000004</v>
       </c>
       <c r="N45">
-        <v>0.99890000000000001</v>
+        <v>0.999</v>
       </c>
       <c r="O45">
-        <v>0.98340000000000005</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="P45">
-        <v>0.97060000000000002</v>
+        <v>0.97040000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>1024</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
       </c>
       <c r="H46" s="55">
-        <v>9.4000000000000004E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I46" s="55">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="J46" s="55">
-        <v>8.2699999999999996E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="K46">
-        <v>0.99909999999999999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="L46">
-        <v>0.98319999999999996</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="M46">
-        <v>0.97040000000000004</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="N46">
-        <v>0.99909999999999999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="O46">
-        <v>0.98319999999999996</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="P46">
-        <v>0.97040000000000004</v>
+        <v>0.97109999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B47">
         <v>1024</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
       </c>
       <c r="H47" s="55">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="I47" s="55">
-        <v>5.4699999999999999E-2</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="J47" s="55">
-        <v>8.0500000000000002E-2</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="K47">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="L47">
-        <v>0.98429999999999995</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="M47">
-        <v>0.97119999999999995</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="N47">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="O47">
-        <v>0.98429999999999995</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="P47">
-        <v>0.97119999999999995</v>
+        <v>0.97089999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <v>1024</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48" s="55">
-        <v>8.9999999999999993E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="I48" s="55">
-        <v>5.6099999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J48" s="55">
-        <v>8.3000000000000004E-2</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="K48">
         <v>0.99890000000000001</v>
       </c>
       <c r="L48">
-        <v>0.98399999999999999</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="M48">
-        <v>0.97070000000000001</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="N48">
         <v>0.99890000000000001</v>
       </c>
       <c r="O48">
-        <v>0.98399999999999999</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="P48">
-        <v>0.97070000000000001</v>
+        <v>0.97030000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>1024</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>2048</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
       </c>
       <c r="H49" s="55">
-        <v>9.7000000000000003E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="I49" s="55">
-        <v>5.5300000000000002E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="J49" s="55">
-        <v>8.2299999999999998E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="K49">
         <v>0.999</v>
       </c>
       <c r="L49">
-        <v>0.98319999999999996</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="M49">
-        <v>0.97040000000000004</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="N49">
         <v>0.999</v>
       </c>
       <c r="O49">
-        <v>0.98319999999999996</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="P49">
-        <v>0.97040000000000004</v>
+        <v>0.97070000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>1024</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>2048</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
       </c>
       <c r="H50" s="55">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I50" s="55">
-        <v>5.4699999999999999E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="J50" s="55">
-        <v>8.14E-2</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="K50">
-        <v>0.99890000000000001</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="L50">
-        <v>0.98299999999999998</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="M50">
-        <v>0.97109999999999996</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="N50">
-        <v>0.99890000000000001</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="O50">
-        <v>0.98299999999999998</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="P50">
-        <v>0.97109999999999996</v>
+        <v>0.97160000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>1024</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>2048</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51" s="55">
-        <v>1.01E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I51" s="55">
-        <v>5.5399999999999998E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="J51" s="55">
-        <v>8.2699999999999996E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="K51">
-        <v>0.99890000000000001</v>
+        <v>0.999</v>
       </c>
       <c r="L51">
-        <v>0.98340000000000005</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="M51">
-        <v>0.97089999999999999</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="N51">
-        <v>0.99890000000000001</v>
+        <v>0.999</v>
       </c>
       <c r="O51">
-        <v>0.98340000000000005</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="P51">
-        <v>0.97089999999999999</v>
+        <v>0.97189999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>1024</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>2048</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
       </c>
       <c r="H52" s="55">
-        <v>8.8000000000000005E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="I52" s="55">
-        <v>5.8000000000000003E-2</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="J52" s="55">
-        <v>8.3699999999999997E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="K52">
-        <v>0.99890000000000001</v>
+        <v>0.999</v>
       </c>
       <c r="L52">
-        <v>0.98229999999999995</v>
+        <v>0.9839</v>
       </c>
       <c r="M52">
-        <v>0.97030000000000005</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="N52">
-        <v>0.99890000000000001</v>
+        <v>0.999</v>
       </c>
       <c r="O52">
-        <v>0.98229999999999995</v>
+        <v>0.9839</v>
       </c>
       <c r="P52">
-        <v>0.97030000000000005</v>
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>2048</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>2048</v>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53" s="55">
-        <v>9.4000000000000004E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="I53" s="55">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="J53" s="55">
-        <v>8.3000000000000004E-2</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="K53">
         <v>0.999</v>
       </c>
       <c r="L53">
-        <v>0.98340000000000005</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="M53">
-        <v>0.97070000000000001</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="N53">
         <v>0.999</v>
       </c>
       <c r="O53">
-        <v>0.98340000000000005</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="P53">
-        <v>0.97070000000000001</v>
+        <v>0.97189999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>2048</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
       </c>
       <c r="H54" s="55">
-        <v>0.01</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="I54" s="55">
-        <v>5.2299999999999999E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="J54" s="55">
-        <v>8.0799999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K54">
         <v>0.99909999999999999</v>
@@ -45791,7 +48679,7 @@
         <v>0.98419999999999996</v>
       </c>
       <c r="M54">
-        <v>0.97160000000000002</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="N54">
         <v>0.99909999999999999</v>
@@ -45800,121 +48688,145 @@
         <v>0.98419999999999996</v>
       </c>
       <c r="P54">
-        <v>0.97160000000000002</v>
+        <v>0.97189999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>2048</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
       </c>
       <c r="H55" s="55">
-        <v>8.9999999999999993E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="I55" s="55">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="J55" s="55">
-        <v>8.1799999999999998E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="K55">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="L55">
-        <v>0.98370000000000002</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="M55">
-        <v>0.97189999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="N55">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="O55">
-        <v>0.98370000000000002</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="P55">
-        <v>0.97189999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56">
-        <v>5</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="56">
+        <v>9</v>
+      </c>
+      <c r="B56" s="56">
         <v>2048</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>6144</v>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
       </c>
       <c r="H56" s="55">
-        <v>9.5999999999999992E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="I56" s="55">
-        <v>5.3699999999999998E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="J56" s="55">
-        <v>8.0299999999999996E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="K56">
-        <v>0.999</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="L56">
-        <v>0.9839</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="M56">
-        <v>0.97199999999999998</v>
+        <v>0.9718</v>
       </c>
       <c r="N56">
-        <v>0.999</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="O56">
-        <v>0.9839</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="P56">
-        <v>0.97199999999999998</v>
+        <v>0.9718</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B57">
         <v>2048</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>6144</v>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57" s="55">
-        <v>8.8000000000000005E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="I57" s="55">
-        <v>5.3900000000000003E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="J57" s="55">
-        <v>7.9299999999999995E-2</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="K57">
-        <v>0.999</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="L57">
-        <v>0.98380000000000001</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="M57">
         <v>0.97189999999999999</v>
       </c>
       <c r="N57">
-        <v>0.999</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="O57">
-        <v>0.98380000000000001</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="P57">
         <v>0.97189999999999999</v>
@@ -45922,236 +48834,284 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>2048</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>6144</v>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
       </c>
       <c r="H58" s="55">
-        <v>9.4999999999999998E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="I58" s="55">
-        <v>5.4300000000000001E-2</v>
+        <v>5.28E-2</v>
       </c>
       <c r="J58" s="55">
-        <v>0.08</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="K58">
         <v>0.99909999999999999</v>
       </c>
       <c r="L58">
-        <v>0.98419999999999996</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="M58">
-        <v>0.97189999999999999</v>
+        <v>0.97209999999999996</v>
       </c>
       <c r="N58">
         <v>0.99909999999999999</v>
       </c>
       <c r="O58">
-        <v>0.98419999999999996</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="P58">
-        <v>0.97189999999999999</v>
+        <v>0.97209999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>2048</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>6144</v>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
       </c>
       <c r="H59" s="55">
-        <v>9.4000000000000004E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="I59" s="55">
-        <v>5.4300000000000001E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="J59" s="55">
-        <v>7.9200000000000007E-2</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="K59">
-        <v>0.99890000000000001</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="L59">
-        <v>0.98419999999999996</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="M59">
-        <v>0.97199999999999998</v>
+        <v>0.97209999999999996</v>
       </c>
       <c r="N59">
-        <v>0.99890000000000001</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="O59">
-        <v>0.98419999999999996</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="P59">
-        <v>0.97199999999999998</v>
+        <v>0.97209999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>2048</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>8192</v>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
       </c>
       <c r="H60" s="55">
-        <v>8.8999999999999999E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="I60" s="55">
-        <v>5.3100000000000001E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="J60" s="55">
-        <v>7.8899999999999998E-2</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="K60">
-        <v>0.99909999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="L60">
-        <v>0.98440000000000005</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="M60">
-        <v>0.9718</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="N60">
-        <v>0.99909999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="O60">
-        <v>0.98440000000000005</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="P60">
-        <v>0.9718</v>
+        <v>0.97160000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <v>2048</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>8192</v>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
       </c>
       <c r="H61" s="55">
-        <v>8.3999999999999995E-3</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="I61" s="55">
-        <v>5.57E-2</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="J61" s="55">
-        <v>8.0399999999999999E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="K61">
-        <v>0.99909999999999999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="L61">
-        <v>0.98409999999999997</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="M61">
-        <v>0.97189999999999999</v>
+        <v>0.97170000000000001</v>
       </c>
       <c r="N61">
-        <v>0.99909999999999999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="O61">
-        <v>0.98409999999999997</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="P61">
-        <v>0.97189999999999999</v>
+        <v>0.97170000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B62">
         <v>2048</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>8192</v>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
       <c r="H62" s="55">
-        <v>9.1000000000000004E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="I62" s="55">
-        <v>5.28E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="J62" s="55">
-        <v>8.0500000000000002E-2</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="K62">
-        <v>0.99909999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="L62">
-        <v>0.98360000000000003</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="M62">
-        <v>0.97209999999999996</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="N62">
-        <v>0.99909999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="O62">
-        <v>0.98360000000000003</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="P62">
-        <v>0.97209999999999996</v>
+        <v>0.97189999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B63">
         <v>2048</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>8192</v>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
       </c>
       <c r="H63" s="55">
-        <v>8.5000000000000006E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="I63" s="55">
-        <v>5.67E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="J63" s="55">
-        <v>7.9100000000000004E-2</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="K63">
         <v>0.99909999999999999</v>
       </c>
       <c r="L63">
-        <v>0.98370000000000002</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="M63">
-        <v>0.97209999999999996</v>
+        <v>0.97170000000000001</v>
       </c>
       <c r="N63">
         <v>0.99909999999999999</v>
       </c>
       <c r="O63">
-        <v>0.98370000000000002</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="P63">
-        <v>0.97209999999999996</v>
+        <v>0.97170000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -51278,7 +54238,55 @@
     <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H63">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I58">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J63">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:I63">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60:J63">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51290,19 +54298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I63">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J63">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51317,7 +54313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB32DF3-C205-4E18-869E-46555BE5E896}">
   <dimension ref="A1:W29"/>
   <sheetViews>
@@ -52487,185 +55483,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47C9538-EDBA-49B6-B199-3A527D479C32}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/performance_face.xlsx
+++ b/doc/performance_face.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xingbo_research_project\IoMArcFace\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D167A74B-312F-4D13-B735-8BB099AFE4D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB5C75-1368-4FB7-8EE6-BB035EA202CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS-Machines" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId10"/>
     <sheet name="Sheet6" sheetId="12" r:id="rId11"/>
+    <sheet name="Euclidean" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'128 riom'!$A$30:$D$148</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="174">
   <si>
     <t>Y.T.F</t>
   </si>
@@ -825,6 +826,15 @@
     <t>fish tent new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Euclidean</t>
+  </si>
+  <si>
+    <t>LUT=0</t>
+  </si>
+  <si>
+    <t>Hamming</t>
+  </si>
 </sst>
 </file>
 
@@ -1074,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,6 +1212,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1872,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3A9CEE-36E3-4823-9414-772FB20273FF}">
   <dimension ref="E1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3614,6 +3627,1658 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492AA315-DA7C-4FC0-84D5-2E74DBCB4D50}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="D2" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="1:16" ht="30">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="55">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0.1196</v>
+      </c>
+      <c r="J4" s="55">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.93340000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="55">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="I5" s="55">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="J5" s="55">
+        <v>0.1865</v>
+      </c>
+      <c r="K5">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="M5">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="O5">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="55">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0.1613</v>
+      </c>
+      <c r="J6" s="55">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="N6">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.87649999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="55">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I7" s="55">
+        <v>0.1895</v>
+      </c>
+      <c r="J7" s="55">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="L7">
+        <v>0.8901</v>
+      </c>
+      <c r="M7">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="O7">
+        <v>0.8901</v>
+      </c>
+      <c r="P7">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="55">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="J8" s="55">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="L8">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="M8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="O8">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="P8">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="55">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="J9" s="55">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="L9">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="M9">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="O9">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="P9">
+        <v>0.84160000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="55">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="I10" s="55">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.874</v>
+      </c>
+      <c r="M10">
+        <v>0.81989999999999996</v>
+      </c>
+      <c r="N10">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.874</v>
+      </c>
+      <c r="P10">
+        <v>0.81989999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="55">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="J11" s="55">
+        <v>0.2601</v>
+      </c>
+      <c r="K11">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="L11">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.8196</v>
+      </c>
+      <c r="N11">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="O11">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="P11">
+        <v>0.8196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="55">
+        <v>1.78E-2</v>
+      </c>
+      <c r="I12" s="55">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J12" s="55">
+        <v>0.1172</v>
+      </c>
+      <c r="K12">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="M12">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="N12">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="P12">
+        <v>0.94940000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="55">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="I13" s="55">
+        <v>0.1082</v>
+      </c>
+      <c r="J13" s="55">
+        <v>0.1467</v>
+      </c>
+      <c r="K13">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="L13">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.9304</v>
+      </c>
+      <c r="N13">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="O13">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.9304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>256</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="55">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="I14" s="55">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="J14" s="55">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="M14">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="N14">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="P14">
+        <v>0.91949999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="55">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="I15" s="55">
+        <v>0.1386</v>
+      </c>
+      <c r="J15" s="55">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="L15">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="M15">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="N15">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="O15">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="P15">
+        <v>0.90610000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="55">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="I16" s="55">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="J16" s="55">
+        <v>0.17829999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="L16">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="M16">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="O16">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.90080000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="55">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="I17" s="55">
+        <v>0.1565</v>
+      </c>
+      <c r="J17" s="55">
+        <v>0.191</v>
+      </c>
+      <c r="K17">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="L17">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="M17">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="N17">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="O17">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="P17">
+        <v>0.88890000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>256</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="55">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="I18" s="55">
+        <v>0.1545</v>
+      </c>
+      <c r="J18" s="55">
+        <v>0.20330000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L18">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="M18">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="N18">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="P18">
+        <v>0.88249999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="55">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="I19" s="55">
+        <v>0.1666</v>
+      </c>
+      <c r="J19" s="55">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="L19">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="M19">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="O19">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="P19">
+        <v>0.87090000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>512</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="55">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="I20" s="55">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="J20" s="55">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="K20">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L20">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="M20">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="N20">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="O20">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="P20">
+        <v>0.96220000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>512</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="55">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="I21" s="55">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="J21" s="55">
+        <v>0.1125</v>
+      </c>
+      <c r="K21">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="L21">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="M21">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="N21">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="O21">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="P21">
+        <v>0.95550000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>512</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="55">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I22" s="55">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="J22" s="55">
+        <v>0.1166</v>
+      </c>
+      <c r="K22">
+        <v>0.998</v>
+      </c>
+      <c r="L22">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.998</v>
+      </c>
+      <c r="O22">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.94769999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>512</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="55">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="I23" s="55">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="J23" s="55">
+        <v>0.1234</v>
+      </c>
+      <c r="K23">
+        <v>0.996</v>
+      </c>
+      <c r="L23">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="M23">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="N23">
+        <v>0.996</v>
+      </c>
+      <c r="O23">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="P23">
+        <v>0.94540000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>512</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="55">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="I24" s="55">
+        <v>0.1081</v>
+      </c>
+      <c r="J24" s="55">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="L24">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="N24">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="O24">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="P24">
+        <v>0.93310000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>512</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="55">
+        <v>2.64E-2</v>
+      </c>
+      <c r="I25" s="55">
+        <v>0.1095</v>
+      </c>
+      <c r="J25" s="55">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="M25">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="N25">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="P25">
+        <v>0.92689999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>512</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="55">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="I26" s="55">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="J26" s="55">
+        <v>0.1517</v>
+      </c>
+      <c r="K26">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="L26">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="M26">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="N26">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="O26">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="P26">
+        <v>0.92090000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>512</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="55">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="I27" s="55">
+        <v>0.1205</v>
+      </c>
+      <c r="J27" s="55">
+        <v>0.16070000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="L27">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="M27">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N27">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="O27">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="P27">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1024</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="55">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I28" s="55">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="J28" s="55">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="N28">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="P28">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1024</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="55">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="I29" s="55">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="J29" s="55">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="K29">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="L29">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="M29">
+        <v>0.9607</v>
+      </c>
+      <c r="N29">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="O29">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="P29">
+        <v>0.9607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1024</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="55">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I30" s="55">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="J30" s="55">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="K30">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="L30">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.95860000000000001</v>
+      </c>
+      <c r="N30">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="O30">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="P30">
+        <v>0.95860000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>1024</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="55">
+        <v>1.44E-2</v>
+      </c>
+      <c r="I31" s="55">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="J31" s="55">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="L31">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="M31">
+        <v>0.95320000000000005</v>
+      </c>
+      <c r="N31">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="O31">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="P31">
+        <v>0.95320000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>1024</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="55">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="I32" s="55">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="J32" s="55">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="K32">
+        <v>0.998</v>
+      </c>
+      <c r="L32">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="M32">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.998</v>
+      </c>
+      <c r="O32">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="P32">
+        <v>0.95069999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>1024</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="55">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="I33" s="55">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="J33" s="55">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="L33">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="M33">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="N33">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="O33">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="P33">
+        <v>0.94779999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>1024</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="55">
+        <v>1.54E-2</v>
+      </c>
+      <c r="I34" s="55">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="J34" s="55">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="K34">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="L34">
+        <v>0.9667</v>
+      </c>
+      <c r="M34">
+        <v>0.9456</v>
+      </c>
+      <c r="N34">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="O34">
+        <v>0.9667</v>
+      </c>
+      <c r="P34">
+        <v>0.9456</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L166"/>
@@ -15947,8 +17612,8 @@
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD9"/>
+      <pane ySplit="11" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19073,8 +20738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C05117-9D59-4433-A78F-73924040633A}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19493,8 +21158,8 @@
       <c r="R11" s="58"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="48" t="s">
-        <v>108</v>
+      <c r="A12" s="59" t="s">
+        <v>113</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>102</v>
@@ -19508,8 +21173,8 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="48" t="s">
-        <v>119</v>
+      <c r="A13" s="59" t="s">
+        <v>108</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="13"/>
@@ -19521,9 +21186,6 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="48" t="s">
-        <v>122</v>
-      </c>
       <c r="B14" s="25"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13">
@@ -19534,9 +21196,6 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="48" t="s">
-        <v>113</v>
-      </c>
       <c r="B16" s="33" t="s">
         <v>90</v>
       </c>
@@ -19613,14 +21272,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3E9D5F-8B59-4D29-9111-E23FC77F2E08}">
-  <dimension ref="A2:XFD63"/>
+  <dimension ref="A1:XFD63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="2" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384">
       <c r="D2" s="54" t="s">
         <v>5</v>

--- a/doc/performance_face.xlsx
+++ b/doc/performance_face.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xingbo_research_project\IoMArcFace\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB5C75-1368-4FB7-8EE6-BB035EA202CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93E51B-3C96-4D41-99ED-F633927B88F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS-Machines" sheetId="7" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="Deep IoM" sheetId="3" r:id="rId6"/>
     <sheet name="Deep IoM 0618" sheetId="11" r:id="rId7"/>
     <sheet name="512 riom Hamming" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId10"/>
-    <sheet name="Sheet6" sheetId="12" r:id="rId11"/>
-    <sheet name="Euclidean" sheetId="13" r:id="rId12"/>
+    <sheet name="Hamming2" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId12"/>
+    <sheet name="Euclidean" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'128 riom'!$A$30:$D$148</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="174">
   <si>
     <t>Y.T.F</t>
   </si>
@@ -1499,7 +1500,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="3" sqref="A13:B13 A6:B6 A5:B5 A2:B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1701,6 +1702,1178 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB32DF3-C205-4E18-869E-46555BE5E896}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1">
+        <v>512</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1">
+        <v>8</v>
+      </c>
+      <c r="H1">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="I1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="J1">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="K1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="L1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="M1">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="N1">
+        <v>9.01E-2</v>
+      </c>
+      <c r="O1">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="P1">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="Q1">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="R1">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="S1">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="T1">
+        <v>0.96489999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2">
+        <v>512</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.9859</v>
+      </c>
+      <c r="M2">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="N2">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="O2">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="P2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.9798</v>
+      </c>
+      <c r="R2">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="T2">
+        <v>0.9798</v>
+      </c>
+      <c r="U2">
+        <v>0.96650000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3">
+        <v>512</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="M3">
+        <v>1.03E-2</v>
+      </c>
+      <c r="N3">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="O3">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="U3">
+        <v>0.96960000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>512</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="L4">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>7.17E-2</v>
+      </c>
+      <c r="N4">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="P4">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="Q4">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="S4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="T4">
+        <v>0.9627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="H5">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.9859</v>
+      </c>
+      <c r="L5">
+        <v>1.03E-2</v>
+      </c>
+      <c r="M5">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="N5">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.9385</v>
+      </c>
+      <c r="Q5">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T5">
+        <v>0.96960000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="I6">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N6">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="O6">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.9325</v>
+      </c>
+      <c r="R6">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="S6">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="T6">
+        <v>0.9788</v>
+      </c>
+      <c r="U6">
+        <v>0.9637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="I7">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="J7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="M7">
+        <v>1.21E-2</v>
+      </c>
+      <c r="N7">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="O7">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="R7">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="S7">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="J8">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.9859</v>
+      </c>
+      <c r="L8">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="M8">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="N8">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="O8">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="P8">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="R8">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="S8">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="T8">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="U8">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="V8">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="J9">
+        <v>0.94</v>
+      </c>
+      <c r="K9">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="N9">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="O9">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="P9">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="S9">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="T9">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="U9">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="V9">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="J10">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="K10">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.9859</v>
+      </c>
+      <c r="N10">
+        <v>1.24E-2</v>
+      </c>
+      <c r="O10">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="P10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.9345</v>
+      </c>
+      <c r="S10">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="T10">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="U10">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="V10">
+        <v>0.9637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="J11">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="K11">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="N11">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="O11">
+        <v>6.3E-2</v>
+      </c>
+      <c r="P11">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="S11">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="T11">
+        <v>0.999</v>
+      </c>
+      <c r="U11">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="V11">
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="J12">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="L12">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="M12">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="N12">
+        <v>1.38E-2</v>
+      </c>
+      <c r="O12">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S12">
+        <v>0.9</v>
+      </c>
+      <c r="T12">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="U12">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="V12">
+        <v>0.96040000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="J13">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="K13">
+        <v>0.9869</v>
+      </c>
+      <c r="L13">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M13">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="N13">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="O13">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="P13">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="R13">
+        <v>0.9375</v>
+      </c>
+      <c r="S13">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="V13">
+        <v>0.9708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="J14">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="K14">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="L14">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="N14">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="O14">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="P14">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="R14">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="S14">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="T14">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="U14">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="V14">
+        <v>0.96389999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="I15">
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="J15">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="K15">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="L15">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="M15">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="N15">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="O15">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="Q15">
+        <v>0.9325</v>
+      </c>
+      <c r="R15">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="S15">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="T15">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="U15">
+        <v>0.96560000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="J16">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="K16">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="M16">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="N16">
+        <v>1.09E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="P16">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="R16">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="S16">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="T16">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="U16">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="V16">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="17" spans="9:23">
+      <c r="J17">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="K17">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="L17">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="M17">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="N17">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="O17">
+        <v>0.1726</v>
+      </c>
+      <c r="P17">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="R17">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="S17">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="T17">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="U17">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="V17">
+        <v>0.85229999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="9:23">
+      <c r="K18">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="L18">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="M18">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="O18">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="P18">
+        <v>0.13070000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.1736</v>
+      </c>
+      <c r="R18">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="S18">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="T18">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="U18">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="V18">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="W18">
+        <v>0.90849999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="9:23">
+      <c r="K19">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="M19">
+        <v>0.9577</v>
+      </c>
+      <c r="N19">
+        <v>0.9365</v>
+      </c>
+      <c r="O19">
+        <v>0.2016</v>
+      </c>
+      <c r="P19">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="Q19">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="T19">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="U19">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="V19">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="W19">
+        <v>0.71889999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="9:23">
+      <c r="K20">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="L20">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="M20">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="N20">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O20">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="R20">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="S20">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="T20">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="U20">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="V20">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="W20">
+        <v>0.71579999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="9:23">
+      <c r="J21">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="K21">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="L21">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="M21">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="N21">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="O21">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="P21">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="R21">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="S21">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="T21">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="U21">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="V21">
+        <v>0.97209999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="9:23">
+      <c r="J22">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="K22">
+        <v>0.9849</v>
+      </c>
+      <c r="L22">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="M22">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="N22">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="O22">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="P22">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="R22">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="T22">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="U22">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="V22">
+        <v>0.95820000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="9:23">
+      <c r="I23">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="J23">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="K23">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="L23">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M23">
+        <v>1.23E-2</v>
+      </c>
+      <c r="N23">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="O23">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="P23">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="R23">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="S23">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="T23">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="U23">
+        <v>0.96379999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="9:23">
+      <c r="I24">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="J24">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="L24">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="M24">
+        <v>1.61E-2</v>
+      </c>
+      <c r="N24">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.1052</v>
+      </c>
+      <c r="P24">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="R24">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="S24">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="T24">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="U24">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="9:23">
+      <c r="I25">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="J25">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="O25">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="P25">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="Q25">
+        <v>0.9375</v>
+      </c>
+      <c r="R25">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="S25">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="T25">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="U25">
+        <v>0.96489999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="9:23">
+      <c r="I26">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="J26">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="K26">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="M26">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="N26">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="O26">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="P26">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="Q26">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="R26">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="S26">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="T26">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="U26">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="9:23">
+      <c r="L28" s="42"/>
+    </row>
+    <row r="29" spans="9:23">
+      <c r="L29" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47C9538-EDBA-49B6-B199-3A527D479C32}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -1881,7 +3054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3A9CEE-36E3-4823-9414-772FB20273FF}">
   <dimension ref="E1:T36"/>
   <sheetViews>
@@ -3627,7 +4800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492AA315-DA7C-4FC0-84D5-2E74DBCB4D50}">
   <dimension ref="A1:P34"/>
   <sheetViews>
@@ -17612,8 +18785,8 @@
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <pane ySplit="11" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20738,8 +21911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C05117-9D59-4433-A78F-73924040633A}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21186,6 +22359,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
+      <c r="A14" s="47" t="s">
+        <v>119</v>
+      </c>
       <c r="B14" s="25"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13">
@@ -21196,6 +22372,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
+      <c r="A16" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="B16" s="33" t="s">
         <v>90</v>
       </c>
@@ -21274,8 +22453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3E9D5F-8B59-4D29-9111-E23FC77F2E08}">
   <dimension ref="A1:XFD63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:AF43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55978,1173 +57157,3939 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB32DF3-C205-4E18-869E-46555BE5E896}">
-  <dimension ref="A1:W29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F5DF9A-F8A3-48D4-94D6-D12504759FF6}">
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="D2" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="1:16" ht="30">
+      <c r="A3" t="s">
         <v>87</v>
       </c>
-      <c r="C1">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1">
+      <c r="B4">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="55">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0.1072</v>
+      </c>
+      <c r="J4" s="55">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="L4">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.93240000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="55">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="I5" s="55">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="J5" s="55">
+        <v>0.1173</v>
+      </c>
+      <c r="K5">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="M5">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P5">
+        <v>0.95150000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="55">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I6" s="55">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="J6" s="55">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="M6">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="N6">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="P6">
+        <v>0.95230000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="55">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="I7" s="55">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J7" s="55">
+        <v>0.1101</v>
+      </c>
+      <c r="K7">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="L7">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="N7">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="O7">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="P7">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="55">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I8" s="55">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J8" s="55">
+        <v>0.112</v>
+      </c>
+      <c r="K8">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="L8">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="M8">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="O8">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="P8">
+        <v>0.95340000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="55">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="I9" s="55">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="J9" s="55">
+        <v>0.1128</v>
+      </c>
+      <c r="K9">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="M9">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="N9">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="P9">
+        <v>0.95209999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="55">
+        <v>1.54E-2</v>
+      </c>
+      <c r="I10" s="55">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="L10">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="M10">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.95150000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="55">
+        <v>1.44E-2</v>
+      </c>
+      <c r="I11" s="55">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="J11" s="55">
+        <v>0.1162</v>
+      </c>
+      <c r="K11">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="L11">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="N11">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="O11">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="P11">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="55">
+        <v>1.83E-2</v>
+      </c>
+      <c r="I12" s="55">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="J12" s="55">
+        <v>0.1201</v>
+      </c>
+      <c r="K12">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="L12">
+        <v>0.9698</v>
+      </c>
+      <c r="M12">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="O12">
+        <v>0.9698</v>
+      </c>
+      <c r="P12">
+        <v>0.94869999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="55">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I13" s="55">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="J13" s="55">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="L13">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="M13">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="O13">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="P13">
+        <v>0.96160000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>256</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="55">
+        <v>1.38E-2</v>
+      </c>
+      <c r="I14" s="55">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="J14" s="55">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="K14">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="L14">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="M14">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="N14">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="O14">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="P14">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="55">
+        <v>1.34E-2</v>
+      </c>
+      <c r="I15" s="55">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="J15" s="55">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="K15">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="L15">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="M15">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="N15">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="O15">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="P15">
+        <v>0.96340000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="55">
+        <v>1.24E-2</v>
+      </c>
+      <c r="I16" s="55">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="J16" s="55">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="K16">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="L16">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="N16">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="O16">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="P16">
+        <v>0.96319999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="55">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I17" s="55">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="J17" s="55">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="K17">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L17">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="M17">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O17">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="P17">
+        <v>0.96560000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>256</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="55">
+        <v>1.23E-2</v>
+      </c>
+      <c r="I18" s="55">
+        <v>6.83E-2</v>
+      </c>
+      <c r="J18" s="55">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="L18">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="O18">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.96279999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="55">
+        <v>1.11E-2</v>
+      </c>
+      <c r="I19" s="55">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="J19" s="55">
+        <v>9.69E-2</v>
+      </c>
+      <c r="K19">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="L19">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="M19">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="N19">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="O19">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="P19">
+        <v>0.96230000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
         <v>512</v>
       </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1">
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="55">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I20" s="55">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="J20" s="55">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K20">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="L20">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="M20">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="O20">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="P20">
+        <v>0.96079999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>512</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="55">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="I21" s="55">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="J21" s="55">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="M21">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="N21">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="P21">
+        <v>0.96650000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>512</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="55">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="I22" s="55">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="J22" s="55">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="K22">
+        <v>0.999</v>
+      </c>
+      <c r="L22">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="M22">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="N22">
+        <v>0.999</v>
+      </c>
+      <c r="O22">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="P22">
+        <v>0.96889999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="H1">
-        <v>0.94240000000000002</v>
-      </c>
-      <c r="I1">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="J1">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="K1">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="L1">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="M1">
+      <c r="B23">
+        <v>512</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="55">
+        <v>1.03E-2</v>
+      </c>
+      <c r="I23" s="55">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="J23" s="55">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="K23">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L23">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="M23">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="N23">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="O23">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="P23">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>512</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="55">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="I24" s="55">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J24" s="55">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K24">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L24">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="M24">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="N24">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="O24">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P24">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>512</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="55">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="I25" s="55">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="J25" s="55">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="K25">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="M25">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="N25">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="P25">
+        <v>0.96909999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>512</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="55">
+        <v>1.03E-2</v>
+      </c>
+      <c r="I26" s="55">
+        <v>5.74E-2</v>
+      </c>
+      <c r="J26" s="55">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="K26">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="L26">
+        <v>0.9819</v>
+      </c>
+      <c r="M26">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="N26">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.9819</v>
+      </c>
+      <c r="P26">
+        <v>0.96789999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>512</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I27" s="55">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J27" s="55">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L27">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="M27">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="N27">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="O27">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="P27">
+        <v>0.96919999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1024</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="55">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I28" s="55">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="J28" s="55">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L28">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="M28">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="N28">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O28">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="P28">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1024</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="55">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="I29" s="55">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="J29" s="55">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="K29">
+        <v>0.999</v>
+      </c>
+      <c r="L29">
+        <v>0.9839</v>
+      </c>
+      <c r="M29">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="N29">
+        <v>0.999</v>
+      </c>
+      <c r="O29">
+        <v>0.9839</v>
+      </c>
+      <c r="P29">
+        <v>0.97089999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1024</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="55">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I30" s="55">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="J30" s="55">
+        <v>8.43E-2</v>
+      </c>
+      <c r="K30">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.9829</v>
+      </c>
+      <c r="M30">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="N30">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.9829</v>
+      </c>
+      <c r="P30">
+        <v>0.97030000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>1024</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I31" s="55">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="J31" s="55">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="K31">
+        <v>0.999</v>
+      </c>
+      <c r="L31">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="M31">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="N31">
+        <v>0.999</v>
+      </c>
+      <c r="O31">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="P31">
+        <v>0.97209999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>1024</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="55">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="I32" s="55">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="J32" s="55">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="K32">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L32">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="M32">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="N32">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O32">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="P32">
+        <v>0.97070000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>1024</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="55">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="I33" s="55">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="J33" s="55">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="K33">
+        <v>0.999</v>
+      </c>
+      <c r="L33">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="M33">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="N33">
+        <v>0.999</v>
+      </c>
+      <c r="O33">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="P33">
+        <v>0.97030000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>1024</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="55">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="I34" s="55">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="J34" s="55">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="K34">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="L34">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.9718</v>
+      </c>
+      <c r="N34">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="P34">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>1024</v>
+      </c>
+      <c r="C35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="55">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="I35" s="55">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="J35" s="55">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="K35">
+        <v>0.999</v>
+      </c>
+      <c r="L35">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="M35">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="N35">
+        <v>0.999</v>
+      </c>
+      <c r="O35">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="P35">
+        <v>0.97089999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2048</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="55">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="I36" s="55">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J36" s="55">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="K36">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.9829</v>
+      </c>
+      <c r="M36">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="N36">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.9829</v>
+      </c>
+      <c r="P36">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>2048</v>
+      </c>
+      <c r="C37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="55">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="I37" s="55">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="J37" s="55">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="K37">
+        <v>0.999</v>
+      </c>
+      <c r="L37">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="M37">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="N37">
+        <v>0.999</v>
+      </c>
+      <c r="O37">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="P37">
+        <v>0.97189999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>2048</v>
+      </c>
+      <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="55">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="I38" s="55">
+        <v>5.45E-2</v>
+      </c>
+      <c r="J38" s="55">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="K38">
+        <v>0.999</v>
+      </c>
+      <c r="L38">
+        <v>0.9839</v>
+      </c>
+      <c r="M38">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="N38">
+        <v>0.999</v>
+      </c>
+      <c r="O38">
+        <v>0.9839</v>
+      </c>
+      <c r="P38">
+        <v>0.97170000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>2048</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="55">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="I39" s="55">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="J39" s="55">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="K39">
+        <v>0.999</v>
+      </c>
+      <c r="L39">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M39">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.999</v>
+      </c>
+      <c r="O39">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P39">
+        <v>0.97189999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="55">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="I40" s="55">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="J40" s="55">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="K40">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="L40">
+        <v>0.9556</v>
+      </c>
+      <c r="M40">
+        <v>0.9355</v>
+      </c>
+      <c r="N40">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="O40">
+        <v>0.9556</v>
+      </c>
+      <c r="P40">
+        <v>0.9355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="55">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="I41" s="55">
+        <v>8.77E-2</v>
+      </c>
+      <c r="J41" s="55">
+        <v>0.1143</v>
+      </c>
+      <c r="K41">
+        <v>0.998</v>
+      </c>
+      <c r="L41">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="M41">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="N41">
+        <v>0.998</v>
+      </c>
+      <c r="O41">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="P41">
+        <v>0.95030000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="55">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I42" s="55">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="J42" s="55">
+        <v>0.1075</v>
+      </c>
+      <c r="K42">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="L42">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="M42">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="N42">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="O42">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P42">
+        <v>0.95389999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="55">
+        <v>1.72E-2</v>
+      </c>
+      <c r="I43" s="55">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="J43" s="55">
+        <v>0.1104</v>
+      </c>
+      <c r="K43">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="L43">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="M43">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="N43">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="O43">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="P43">
+        <v>0.95489999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="55">
+        <v>1.78E-2</v>
+      </c>
+      <c r="I44" s="55">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="J44" s="55">
+        <v>0.1103</v>
+      </c>
+      <c r="K44">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="L44">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="M44">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="N44">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="O44">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="P44">
+        <v>0.95550000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="55">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I45" s="55">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="J45" s="55">
+        <v>0.1108</v>
+      </c>
+      <c r="K45">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="L45">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="M45">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="N45">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="O45">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="P45">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="55">
+        <v>1.46E-2</v>
+      </c>
+      <c r="I46" s="55">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="J46" s="55">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="M46">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="N46">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="O46">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="P46">
+        <v>0.95420000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="55">
+        <v>1.38E-2</v>
+      </c>
+      <c r="I47" s="55">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="J47" s="55">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="M47">
+        <v>0.95409999999999995</v>
+      </c>
+      <c r="N47">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="O47">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="P47">
+        <v>0.95409999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>256</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="55">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="I48" s="55">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="J48" s="55">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="K48">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="L48">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="M48">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="N48">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="O48">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="P48">
+        <v>0.95140000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>256</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="55">
+        <v>1.43E-2</v>
+      </c>
+      <c r="I49" s="55">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="J49" s="55">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="K49">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="L49">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="M49">
+        <v>0.96120000000000005</v>
+      </c>
+      <c r="N49">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="O49">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="P49">
+        <v>0.96120000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>256</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="55">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I50" s="55">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="J50" s="55">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="K50">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L50">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="M50">
+        <v>0.96060000000000001</v>
+      </c>
+      <c r="N50">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="O50">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="P50">
+        <v>0.96060000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>256</v>
+      </c>
+      <c r="C51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="55">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="I51" s="55">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="J51" s="55">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="K51">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="L51">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="M51">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="N51">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="O51">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="P51">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>256</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="55">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I52" s="55">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="J52" s="55">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="K52">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L52">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="M52">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="N52">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O52">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="P52">
+        <v>0.96340000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>256</v>
+      </c>
+      <c r="C53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="55">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I53" s="55">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J53" s="55">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K53">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L53">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="M53">
+        <v>0.9647</v>
+      </c>
+      <c r="N53">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O53">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="P53">
+        <v>0.9647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>256</v>
+      </c>
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="55">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="I54" s="55">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="N1">
-        <v>9.01E-2</v>
-      </c>
-      <c r="O1">
+      <c r="J54" s="55">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="K54">
         <v>0.99850000000000005</v>
       </c>
-      <c r="P1">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="Q1">
-        <v>0.96489999999999998</v>
-      </c>
-      <c r="R1">
+      <c r="L54">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="M54">
+        <v>0.9637</v>
+      </c>
+      <c r="N54">
         <v>0.99850000000000005</v>
       </c>
-      <c r="S1">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="T1">
-        <v>0.96489999999999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2">
+      <c r="O54">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="P54">
+        <v>0.9637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>256</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="55">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="I55" s="55">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="J55" s="55">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K55">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L55">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="M55">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="N55">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O55">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="P55">
+        <v>0.96240000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2">
+      <c r="B56">
         <v>512</v>
       </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2">
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="55">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="I56" s="55">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="J56" s="55">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="K56">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="L56">
+        <v>0.9758</v>
+      </c>
+      <c r="M56">
+        <v>0.9647</v>
+      </c>
+      <c r="N56">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="O56">
+        <v>0.9758</v>
+      </c>
+      <c r="P56">
+        <v>0.9647</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>512</v>
+      </c>
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="55">
+        <v>1.11E-2</v>
+      </c>
+      <c r="I57" s="55">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="J57" s="55">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K57">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L57">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="M57">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="N57">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O57">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="P57">
+        <v>0.96889999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>512</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="55">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="I58" s="55">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="J58" s="55">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L58">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="M58">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="N58">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O58">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="P58">
+        <v>0.96789999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
         <v>8</v>
       </c>
-      <c r="I2">
-        <v>0.94040000000000001</v>
-      </c>
-      <c r="J2">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="K2">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.9859</v>
-      </c>
-      <c r="M2">
+      <c r="B59">
+        <v>512</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="55">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I59" s="55">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J59" s="55">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="K59">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="M59">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="N59">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O59">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="P59">
+        <v>0.96840000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>512</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="55">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="I60" s="55">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J60" s="55">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="K60">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L60">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="M60">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="N60">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="O60">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="P60">
+        <v>0.96889999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>512</v>
+      </c>
+      <c r="C61" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="55">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I61" s="55">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="J61" s="55">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="K61">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L61">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="M61">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="N61">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O61">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="P61">
+        <v>0.96879999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>512</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="55">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I62" s="55">
+        <v>5.96E-2</v>
+      </c>
+      <c r="J62" s="55">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L62">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="M62">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="N62">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="O62">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="P62">
+        <v>0.96730000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>512</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" s="55">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="I63" s="55">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J63" s="55">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="K63">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L63">
+        <v>0.9819</v>
+      </c>
+      <c r="M63">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="N63">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="O63">
+        <v>0.9819</v>
+      </c>
+      <c r="P63">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1024</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="55">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I64" s="55">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="J64" s="55">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L64">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="M64">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="N64">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O64">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="P64">
+        <v>0.96950000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>1024</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="55">
+        <v>1.01E-2</v>
+      </c>
+      <c r="I65" s="55">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J65" s="55">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K65">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="L65">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="M65">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="N65">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="O65">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="P65">
+        <v>0.96960000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>1024</v>
+      </c>
+      <c r="C66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="55">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="I66" s="55">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="J66" s="55">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="K66">
+        <v>0.999</v>
+      </c>
+      <c r="L66">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="M66">
+        <v>0.9708</v>
+      </c>
+      <c r="N66">
+        <v>0.999</v>
+      </c>
+      <c r="O66">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="P66">
+        <v>0.9708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>1024</v>
+      </c>
+      <c r="C67" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="55">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="I67" s="55">
+        <v>5.45E-2</v>
+      </c>
+      <c r="J67" s="55">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="K67">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="M67">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="N67">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="O67">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="P67">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>1024</v>
+      </c>
+      <c r="C68" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="55">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="I68" s="55">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="J68" s="55">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K68">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="L68">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="M68">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="N68">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="O68">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="P68">
+        <v>0.96989999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>1024</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I69" s="55">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="J69" s="55">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="K69">
+        <v>0.999</v>
+      </c>
+      <c r="L69">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="M69">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="N69">
+        <v>0.999</v>
+      </c>
+      <c r="O69">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="P69">
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>1024</v>
+      </c>
+      <c r="C70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="55">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="I70" s="55">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="J70" s="55">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K70">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="L70">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="M70">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="N70">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="O70">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="P70">
+        <v>0.96970000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>16</v>
+      </c>
+      <c r="B71">
+        <v>1024</v>
+      </c>
+      <c r="C71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="55">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="I71" s="55">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="J71" s="55">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="K71">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="L71">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="M71">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="N71">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="O71">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="P71">
+        <v>0.97050000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>2048</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="55">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="I72" s="55">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J72" s="55">
+        <v>8.48E-2</v>
+      </c>
+      <c r="K72">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="L72">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="M72">
+        <v>0.9698</v>
+      </c>
+      <c r="N72">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="O72">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="P72">
+        <v>0.9698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>2048</v>
+      </c>
+      <c r="C73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="55">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="I73" s="55">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J73" s="55">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="K73">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="L73">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="M73">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="N73">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="O73">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="P73">
+        <v>0.97250000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>2048</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="55">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="I74" s="55">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="J74" s="55">
+        <v>8.14E-2</v>
+      </c>
+      <c r="K74">
+        <v>0.999</v>
+      </c>
+      <c r="L74">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M74">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="N74">
+        <v>0.999</v>
+      </c>
+      <c r="O74">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P74">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>2048</v>
+      </c>
+      <c r="C75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" s="55">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="I75" s="55">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="J75" s="55">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="K75">
+        <v>0.999</v>
+      </c>
+      <c r="L75">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="M75">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="N75">
+        <v>0.999</v>
+      </c>
+      <c r="O75">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="P75">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>2048</v>
+      </c>
+      <c r="C76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" s="55">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I76" s="55">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="J76" s="55">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="K76">
+        <v>0.999</v>
+      </c>
+      <c r="L76">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="M76">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="N76">
+        <v>0.999</v>
+      </c>
+      <c r="O76">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="P76">
+        <v>0.97150000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>2048</v>
+      </c>
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" s="55">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="I77" s="55">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="J77" s="55">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="K77">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="L77">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="M77">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="N77">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="O77">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="P77">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <v>2048</v>
+      </c>
+      <c r="C78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" s="55">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I78" s="55">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="J78" s="55">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="K78">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="L78">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="M78">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="N78">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="O78">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="P78">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>2048</v>
+      </c>
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" s="55">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N2">
-        <v>6.1100000000000002E-2</v>
-      </c>
-      <c r="O2">
-        <v>8.8099999999999998E-2</v>
-      </c>
-      <c r="P2">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="Q2">
-        <v>0.9798</v>
-      </c>
-      <c r="R2">
-        <v>0.96650000000000003</v>
-      </c>
-      <c r="S2">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="T2">
-        <v>0.9798</v>
-      </c>
-      <c r="U2">
-        <v>0.96650000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3">
-        <v>512</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="J3">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="K3">
-        <v>0.98470000000000002</v>
-      </c>
-      <c r="L3">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="M3">
-        <v>1.03E-2</v>
-      </c>
-      <c r="N3">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="O3">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="P3">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="Q3">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="R3">
-        <v>0.96960000000000002</v>
-      </c>
-      <c r="S3">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="T3">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="U3">
-        <v>0.96960000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4">
-        <v>512</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>0.94369999999999998</v>
-      </c>
-      <c r="I4">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="J4">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="K4">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="L4">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="M4">
-        <v>7.17E-2</v>
-      </c>
-      <c r="N4">
-        <v>9.7299999999999998E-2</v>
-      </c>
-      <c r="O4">
-        <v>0.98850000000000005</v>
-      </c>
-      <c r="P4">
-        <v>0.93079999999999996</v>
-      </c>
-      <c r="Q4">
-        <v>0.90710000000000002</v>
-      </c>
-      <c r="R4">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="S4">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="T4">
-        <v>0.9627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="H5">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="I5">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="J5">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="K5">
-        <v>0.9859</v>
-      </c>
-      <c r="L5">
-        <v>1.03E-2</v>
-      </c>
-      <c r="M5">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="N5">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="O5">
-        <v>0.99070000000000003</v>
-      </c>
-      <c r="P5">
-        <v>0.9385</v>
-      </c>
-      <c r="Q5">
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="R5">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="S5">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="T5">
-        <v>0.96960000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="I6">
-        <v>0.94869999999999999</v>
-      </c>
-      <c r="J6">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="K6">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="L6">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N6">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="O6">
-        <v>9.4200000000000006E-2</v>
-      </c>
-      <c r="P6">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>0.9325</v>
-      </c>
-      <c r="R6">
-        <v>0.90890000000000004</v>
-      </c>
-      <c r="S6">
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="T6">
-        <v>0.9788</v>
-      </c>
-      <c r="U6">
-        <v>0.9637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="I7">
-        <v>0.93420000000000003</v>
-      </c>
-      <c r="J7">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="K7">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="L7">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="M7">
-        <v>1.21E-2</v>
-      </c>
-      <c r="N7">
-        <v>6.7100000000000007E-2</v>
-      </c>
-      <c r="O7">
-        <v>9.1700000000000004E-2</v>
-      </c>
-      <c r="P7">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="Q7">
-        <v>0.93369999999999997</v>
-      </c>
-      <c r="R7">
-        <v>0.91069999999999995</v>
-      </c>
-      <c r="S7">
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="T7">
-        <v>0.97889999999999999</v>
-      </c>
-      <c r="U7">
-        <v>0.96289999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="J8">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.9859</v>
-      </c>
-      <c r="L8">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="M8">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="N8">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="O8">
-        <v>7.8600000000000003E-2</v>
-      </c>
-      <c r="P8">
-        <v>9.4100000000000003E-2</v>
-      </c>
-      <c r="Q8">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="R8">
-        <v>0.92679999999999996</v>
-      </c>
-      <c r="S8">
-        <v>0.90790000000000004</v>
-      </c>
-      <c r="T8">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="U8">
-        <v>0.97609999999999997</v>
-      </c>
-      <c r="V8">
-        <v>0.96289999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="J9">
-        <v>0.94</v>
-      </c>
-      <c r="K9">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="L9">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="M9">
-        <v>0.99129999999999996</v>
-      </c>
-      <c r="N9">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="O9">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="P9">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="Q9">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="R9">
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="S9">
-        <v>0.92210000000000003</v>
-      </c>
-      <c r="T9">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="U9">
-        <v>0.98119999999999996</v>
-      </c>
-      <c r="V9">
-        <v>0.97019999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="J10">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="K10">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="L10">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="M10">
-        <v>0.9859</v>
-      </c>
-      <c r="N10">
-        <v>1.24E-2</v>
-      </c>
-      <c r="O10">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="P10">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="Q10">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="R10">
-        <v>0.9345</v>
-      </c>
-      <c r="S10">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="T10">
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="U10">
-        <v>0.97760000000000002</v>
-      </c>
-      <c r="V10">
-        <v>0.9637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="J11">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="K11">
-        <v>0.98619999999999997</v>
-      </c>
-      <c r="L11">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="N11">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="O11">
-        <v>6.3E-2</v>
-      </c>
-      <c r="P11">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="Q11">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="R11">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="S11">
-        <v>0.92069999999999996</v>
-      </c>
-      <c r="T11">
+      <c r="I79" s="55">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J79" s="55">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K79">
         <v>0.999</v>
       </c>
-      <c r="U11">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="V11">
-        <v>0.97119999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="J12">
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="K12">
-        <v>0.98509999999999998</v>
-      </c>
-      <c r="L12">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="M12">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="N12">
-        <v>1.38E-2</v>
-      </c>
-      <c r="O12">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="P12">
-        <v>0.10150000000000001</v>
-      </c>
-      <c r="Q12">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="R12">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="S12">
-        <v>0.9</v>
-      </c>
-      <c r="T12">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="U12">
-        <v>0.97660000000000002</v>
-      </c>
-      <c r="V12">
-        <v>0.96040000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="J13">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="K13">
-        <v>0.9869</v>
-      </c>
-      <c r="L13">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M13">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="N13">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="O13">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="P13">
-        <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="Q13">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="R13">
-        <v>0.9375</v>
-      </c>
-      <c r="S13">
-        <v>0.92230000000000001</v>
-      </c>
-      <c r="T13">
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="U13">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="V13">
-        <v>0.9708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="J14">
-        <v>0.93120000000000003</v>
-      </c>
-      <c r="K14">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="L14">
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="M14">
-        <v>0.98440000000000005</v>
-      </c>
-      <c r="N14">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="O14">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="P14">
-        <v>9.6699999999999994E-2</v>
-      </c>
-      <c r="Q14">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="R14">
-        <v>0.92820000000000003</v>
-      </c>
-      <c r="S14">
-        <v>0.90790000000000004</v>
-      </c>
-      <c r="T14">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="U14">
-        <v>0.97819999999999996</v>
-      </c>
-      <c r="V14">
-        <v>0.96389999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="I15">
-        <v>0.94330000000000003</v>
-      </c>
-      <c r="J15">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="K15">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="L15">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="M15">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="N15">
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="O15">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="P15">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="Q15">
-        <v>0.9325</v>
-      </c>
-      <c r="R15">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="S15">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="T15">
-        <v>0.97950000000000004</v>
-      </c>
-      <c r="U15">
-        <v>0.96560000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="J16">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="K16">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="L16">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="M16">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="N16">
-        <v>1.09E-2</v>
-      </c>
-      <c r="O16">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="P16">
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="Q16">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="R16">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="S16">
-        <v>0.92490000000000006</v>
-      </c>
-      <c r="T16">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="U16">
-        <v>0.98129999999999995</v>
-      </c>
-      <c r="V16">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="17" spans="9:23">
-      <c r="J17">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="K17">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="L17">
-        <v>0.93259999999999998</v>
-      </c>
-      <c r="M17">
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="N17">
-        <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="O17">
-        <v>0.1726</v>
-      </c>
-      <c r="P17">
-        <v>0.22889999999999999</v>
-      </c>
-      <c r="Q17">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="R17">
-        <v>0.82930000000000004</v>
-      </c>
-      <c r="S17">
-        <v>0.77170000000000005</v>
-      </c>
-      <c r="T17">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="U17">
-        <v>0.91010000000000002</v>
-      </c>
-      <c r="V17">
-        <v>0.85229999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="9:23">
-      <c r="K18">
-        <v>0.89529999999999998</v>
-      </c>
-      <c r="L18">
-        <v>0.96020000000000005</v>
-      </c>
-      <c r="M18">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="O18">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="P18">
-        <v>0.13070000000000001</v>
-      </c>
-      <c r="Q18">
-        <v>0.1736</v>
-      </c>
-      <c r="R18">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="S18">
-        <v>0.87270000000000003</v>
-      </c>
-      <c r="T18">
-        <v>0.82789999999999997</v>
-      </c>
-      <c r="U18">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="V18">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="W18">
-        <v>0.90849999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="9:23">
-      <c r="K19">
-        <v>0.91020000000000001</v>
-      </c>
-      <c r="L19">
-        <v>0.91069999999999995</v>
-      </c>
-      <c r="M19">
-        <v>0.9577</v>
-      </c>
-      <c r="N19">
-        <v>0.9365</v>
-      </c>
-      <c r="O19">
-        <v>0.2016</v>
-      </c>
-      <c r="P19">
-        <v>0.35470000000000002</v>
-      </c>
-      <c r="Q19">
-        <v>0.33629999999999999</v>
-      </c>
-      <c r="R19">
-        <v>0.80220000000000002</v>
-      </c>
-      <c r="S19">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="T19">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="U19">
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="V19">
-        <v>0.71050000000000002</v>
-      </c>
-      <c r="W19">
-        <v>0.71889999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="9:23">
-      <c r="K20">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="L20">
-        <v>0.92879999999999996</v>
-      </c>
-      <c r="M20">
-        <v>0.96889999999999998</v>
-      </c>
-      <c r="N20">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O20">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="P20">
-        <v>0.35489999999999999</v>
-      </c>
-      <c r="Q20">
-        <v>0.34150000000000003</v>
-      </c>
-      <c r="R20">
-        <v>0.80130000000000001</v>
-      </c>
-      <c r="S20">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="T20">
-        <v>0.66859999999999997</v>
-      </c>
-      <c r="U20">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="V20">
-        <v>0.70450000000000002</v>
-      </c>
-      <c r="W20">
-        <v>0.71579999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="9:23">
-      <c r="J21">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="K21">
-        <v>0.98570000000000002</v>
-      </c>
-      <c r="L21">
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="M21">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="N21">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="O21">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="P21">
-        <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="Q21">
-        <v>0.99019999999999997</v>
-      </c>
-      <c r="R21">
-        <v>0.93769999999999998</v>
-      </c>
-      <c r="S21">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="T21">
-        <v>0.99929999999999997</v>
-      </c>
-      <c r="U21">
-        <v>0.98089999999999999</v>
-      </c>
-      <c r="V21">
+      <c r="L79">
+        <v>0.9839</v>
+      </c>
+      <c r="M79">
         <v>0.97209999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="9:23">
-      <c r="J22">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="K22">
-        <v>0.9849</v>
-      </c>
-      <c r="L22">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="M22">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="N22">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="O22">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="P22">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="Q22">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="R22">
-        <v>0.92220000000000002</v>
-      </c>
-      <c r="S22">
-        <v>0.89929999999999999</v>
-      </c>
-      <c r="T22">
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="U22">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="V22">
-        <v>0.95820000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="9:23">
-      <c r="I23">
-        <v>0.94189999999999996</v>
-      </c>
-      <c r="J23">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="K23">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="L23">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M23">
-        <v>1.23E-2</v>
-      </c>
-      <c r="N23">
-        <v>6.7100000000000007E-2</v>
-      </c>
-      <c r="O23">
-        <v>9.4299999999999995E-2</v>
-      </c>
-      <c r="P23">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="Q23">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="R23">
-        <v>0.90939999999999999</v>
-      </c>
-      <c r="S23">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="T23">
-        <v>0.97960000000000003</v>
-      </c>
-      <c r="U23">
-        <v>0.96379999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="9:23">
-      <c r="I24">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="J24">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="K24">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="L24">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="M24">
-        <v>1.61E-2</v>
-      </c>
-      <c r="N24">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="O24">
-        <v>0.1052</v>
-      </c>
-      <c r="P24">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="Q24">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="R24">
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="S24">
-        <v>0.99780000000000002</v>
-      </c>
-      <c r="T24">
-        <v>0.97419999999999995</v>
-      </c>
-      <c r="U24">
-        <v>0.95650000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="9:23">
-      <c r="I25">
-        <v>0.94710000000000005</v>
-      </c>
-      <c r="J25">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="K25">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="L25">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M25">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N25">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="O25">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="P25">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="Q25">
-        <v>0.9375</v>
-      </c>
-      <c r="R25">
-        <v>0.91410000000000002</v>
-      </c>
-      <c r="S25">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="T25">
-        <v>0.97960000000000003</v>
-      </c>
-      <c r="U25">
-        <v>0.96489999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="9:23">
-      <c r="I26">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="J26">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="K26">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="L26">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="M26">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="N26">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="O26">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="P26">
-        <v>0.99180000000000001</v>
-      </c>
-      <c r="Q26">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="R26">
-        <v>0.91869999999999996</v>
-      </c>
-      <c r="S26">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="T26">
-        <v>0.98180000000000001</v>
-      </c>
-      <c r="U26">
-        <v>0.97299999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="9:23">
-      <c r="L28" s="42"/>
-    </row>
-    <row r="29" spans="9:23">
-      <c r="L29" s="42"/>
+      <c r="N79">
+        <v>0.999</v>
+      </c>
+      <c r="O79">
+        <v>0.9839</v>
+      </c>
+      <c r="P79">
+        <v>0.97209999999999996</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="5">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:H79">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I79">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J79">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/performance_face.xlsx
+++ b/doc/performance_face.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xingbo_research_project\IoMArcFace\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B29C7D-5046-4D7C-B6DD-AC997A5C32CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE8229-DD2C-4C41-9822-E756E5BB97E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <sheet name="512 riom 4 dist" sheetId="13" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'128 riom'!$A$30:$D$148</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="195">
   <si>
     <t>Y.T.F</t>
   </si>
@@ -877,6 +878,37 @@
   <si>
     <t>Hamming dist based loss</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ssh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datascience@118.139.134.222</t>
+    </r>
+  </si>
+  <si>
+    <t>│·······························</t>
+  </si>
+  <si>
+    <t>dist=Euclidean</t>
+  </si>
+  <si>
+    <t>w/o LUT riom LUT + Euclidean</t>
+  </si>
+  <si>
+    <t>Euclidean dist based loss</t>
+  </si>
+  <si>
+    <t>2 hidden layer (1024,m*q)+ hard margin10 + tanh LUT loss</t>
+  </si>
 </sst>
 </file>
 
@@ -1132,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,6 +1295,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1547,7 +1580,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1700,8 +1733,8 @@
       <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="E11" t="s">
-        <v>114</v>
+      <c r="E11" s="60">
+        <v>9.1</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -1926,6 +1959,3206 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64004928-5BC4-421A-BA17-FACD158F99BD}">
+  <dimension ref="B1:V49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:V49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:22">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0.1038</v>
+      </c>
+      <c r="O1">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="P1">
+        <v>0.249</v>
+      </c>
+      <c r="Q1">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="R1">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="S1">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="T1">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="U1">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="V1">
+        <v>0.83130000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="R2">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="S2">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="U2">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="V2">
+        <v>0.85450000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.19259999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="S3">
+        <v>0.85</v>
+      </c>
+      <c r="T3">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="U3">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="V3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>8.09E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.1983</v>
+      </c>
+      <c r="P4">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.8831</v>
+      </c>
+      <c r="S4">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="U4">
+        <v>0.8831</v>
+      </c>
+      <c r="V4">
+        <v>0.85189999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.218</v>
+      </c>
+      <c r="P5">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="S5">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="V5">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="R6">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="S6">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="T6">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="U6">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="V6">
+        <v>0.83560000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.876</v>
+      </c>
+      <c r="S7">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="T7">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="U7">
+        <v>0.876</v>
+      </c>
+      <c r="V7">
+        <v>0.82530000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="O8">
+        <v>0.1565</v>
+      </c>
+      <c r="P8">
+        <v>0.1847</v>
+      </c>
+      <c r="Q8">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="R8">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="S8">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="U8">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="V8">
+        <v>0.89419999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="S9">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="T9">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="U9">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="V9">
+        <v>0.90990000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="O10">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="R10">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="S10">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="T10">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="U10">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="V10">
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="R11">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="U11">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="V11">
+        <v>0.91139999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4.36E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="P12">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="R12">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="S12">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="T12">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="U12">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="V12">
+        <v>0.89439999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.1535</v>
+      </c>
+      <c r="P13">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="S13">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="T13">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="U13">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="V13">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.1676</v>
+      </c>
+      <c r="P14">
+        <v>0.1968</v>
+      </c>
+      <c r="Q14">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="S14">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="T14">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="U14">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="V14">
+        <v>0.88429999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2.86E-2</v>
+      </c>
+      <c r="O15">
+        <v>0.1188</v>
+      </c>
+      <c r="P15">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="R15">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="S15">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="T15">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="U15">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="V15">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="P16">
+        <v>0.1351</v>
+      </c>
+      <c r="Q16">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="R16">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="S16">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="T16">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="U16">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="V16">
+        <v>0.93830000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>128</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="O17">
+        <v>0.1084</v>
+      </c>
+      <c r="P17">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="R17">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="S17">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="T17">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="U17">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="V17">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>128</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2.52E-2</v>
+      </c>
+      <c r="O18">
+        <v>0.1106</v>
+      </c>
+      <c r="P18">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="R18">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="S18">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="T18">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="U18">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="V18">
+        <v>0.93410000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2.75E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.1106</v>
+      </c>
+      <c r="P19">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="R19">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="S19">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="T19">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="U19">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="V19">
+        <v>0.92889999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>128</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2.76E-2</v>
+      </c>
+      <c r="O20">
+        <v>0.1047</v>
+      </c>
+      <c r="P20">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="R20">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="S20">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="T20">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="U20">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="V20">
+        <v>0.93030000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>128</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2.76E-2</v>
+      </c>
+      <c r="O21">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="P21">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="Q21">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="R21">
+        <v>0.9516</v>
+      </c>
+      <c r="S21">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="T21">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="U21">
+        <v>0.9516</v>
+      </c>
+      <c r="V21">
+        <v>0.92259999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>256</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="O22">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="P22">
+        <v>0.1075</v>
+      </c>
+      <c r="Q22">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="R22">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="S22">
+        <v>0.95409999999999995</v>
+      </c>
+      <c r="T22">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="U22">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="V22">
+        <v>0.95409999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>256</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="O23">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="P23">
+        <v>0.1071</v>
+      </c>
+      <c r="Q23">
+        <v>0.998</v>
+      </c>
+      <c r="R23">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="S23">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="T23">
+        <v>0.998</v>
+      </c>
+      <c r="U23">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="V23">
+        <v>0.95709999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>256</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="O24">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="P24">
+        <v>0.109</v>
+      </c>
+      <c r="Q24">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="R24">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="S24">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="T24">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="U24">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="V24">
+        <v>0.95340000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>256</v>
+      </c>
+      <c r="I25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.46E-2</v>
+      </c>
+      <c r="O25">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="P25">
+        <v>0.1079</v>
+      </c>
+      <c r="Q25">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="R25">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="S25">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="T25">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="U25">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="V25">
+        <v>0.95640000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>256</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O26">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="P26">
+        <v>0.114</v>
+      </c>
+      <c r="Q26">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="R26">
+        <v>0.9708</v>
+      </c>
+      <c r="S26">
+        <v>0.9496</v>
+      </c>
+      <c r="T26">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="U26">
+        <v>0.9708</v>
+      </c>
+      <c r="V26">
+        <v>0.9496</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>256</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="O27">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="P27">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="Q27">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="R27">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="S27">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="T27">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="U27">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="V27">
+        <v>0.94920000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>256</v>
+      </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="O28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.1135</v>
+      </c>
+      <c r="Q28">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="R28">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="S28">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="T28">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="U28">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="V28">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>512</v>
+      </c>
+      <c r="I29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1.21E-2</v>
+      </c>
+      <c r="O29">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="P29">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="Q29">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="R29">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="S29">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="T29">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="U29">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="V29">
+        <v>0.96220000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>512</v>
+      </c>
+      <c r="I30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="O30">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="P30">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="Q30">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="R30">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="S30">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="T30">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="U30">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="V30">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>512</v>
+      </c>
+      <c r="I31" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1.17E-2</v>
+      </c>
+      <c r="O31">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="P31">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="Q31">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="R31">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="S31">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="T31">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="U31">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="V31">
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>512</v>
+      </c>
+      <c r="I32" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1.21E-2</v>
+      </c>
+      <c r="O32">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="P32">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="Q32">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="R32">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="S32">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="T32">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="U32">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="V32">
+        <v>0.96340000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>512</v>
+      </c>
+      <c r="I33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="O33">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="P33">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="R33">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="S33">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="T33">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="U33">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="V33">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>512</v>
+      </c>
+      <c r="I34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="O34">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="P34">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="Q34">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="R34">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="T34">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="U34">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="V34">
+        <v>0.96009999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>512</v>
+      </c>
+      <c r="I35" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O35">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="P35">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="Q35">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="R35">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="S35">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="T35">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="U35">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="V35">
+        <v>0.96109999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1024</v>
+      </c>
+      <c r="I36" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="O36">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="P36">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="Q36">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="R36">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="S36">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="T36">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="U36">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="V36">
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>1024</v>
+      </c>
+      <c r="I37" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O37">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="P37">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="Q37">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="R37">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="S37">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="T37">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="U37">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="V37">
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>1024</v>
+      </c>
+      <c r="I38" t="s">
+        <v>178</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1.15E-2</v>
+      </c>
+      <c r="O38">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="P38">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="Q38">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="R38">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="S38">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="T38">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="U38">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="V38">
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <v>1024</v>
+      </c>
+      <c r="I39" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="O39">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="P39">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="Q39">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="R39">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="S39">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="T39">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="U39">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="V39">
+        <v>0.96779999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>1024</v>
+      </c>
+      <c r="I40" t="s">
+        <v>180</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="O40">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="P40">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="Q40">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="R40">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="S40">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="T40">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="U40">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="V40">
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>1024</v>
+      </c>
+      <c r="I41" t="s">
+        <v>181</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1.06E-2</v>
+      </c>
+      <c r="O41">
+        <v>6.13E-2</v>
+      </c>
+      <c r="P41">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="Q41">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="R41">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="S41">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="T41">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="U41">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="V41">
+        <v>0.96540000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <v>1024</v>
+      </c>
+      <c r="I42" t="s">
+        <v>183</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1.01E-2</v>
+      </c>
+      <c r="O42">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="P42">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Q42">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="R42">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="S42">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="T42">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="U42">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="V42">
+        <v>0.96579999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2048</v>
+      </c>
+      <c r="I43" t="s">
+        <v>176</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1.01E-2</v>
+      </c>
+      <c r="O43">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="P43">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="Q43">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="R43">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="S43">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="T43">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="U43">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="V43">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>2048</v>
+      </c>
+      <c r="I44" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O44">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="P44">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="Q44">
+        <v>0.999</v>
+      </c>
+      <c r="R44">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="S44">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="T44">
+        <v>0.999</v>
+      </c>
+      <c r="U44">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="V44">
+        <v>0.96960000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>2048</v>
+      </c>
+      <c r="I45" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="O45">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="P45">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="Q45">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="R45">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="S45">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="T45">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="U45">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="V45">
+        <v>0.96879999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>2048</v>
+      </c>
+      <c r="I46" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O46">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="P46">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="Q46">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="R46">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="S46">
+        <v>0.97</v>
+      </c>
+      <c r="T46">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="U46">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="V46">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>2048</v>
+      </c>
+      <c r="I47" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="O47">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="P47">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="Q47">
+        <v>0.999</v>
+      </c>
+      <c r="R47">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="S47">
+        <v>0.9698</v>
+      </c>
+      <c r="T47">
+        <v>0.999</v>
+      </c>
+      <c r="U47">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="V47">
+        <v>0.9698</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>2048</v>
+      </c>
+      <c r="I48" t="s">
+        <v>181</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="O48">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="P48">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="Q48">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="R48">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="S48">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="T48">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="U48">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="V48">
+        <v>0.96850000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>2048</v>
+      </c>
+      <c r="I49" t="s">
+        <v>183</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="O49">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="P49">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="Q49">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="R49">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="S49">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="T49">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="U49">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="V49">
+        <v>0.96789999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17388,10 +20621,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C05117-9D59-4433-A78F-73924040633A}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17920,53 +21153,101 @@
       </c>
       <c r="S13" s="14"/>
     </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>512</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="55">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K14" s="55">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="L14" s="55">
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>512</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="55">
+        <v>1.03E-2</v>
+      </c>
+      <c r="K15" s="55">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="L15" s="55">
+        <v>9.2499999999999999E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13">
-        <v>4</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
         <v>512</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="55">
+        <v>1.18E-2</v>
+      </c>
+      <c r="K16" s="55">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="L16" s="55">
+        <v>8.9800000000000005E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13">
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17">
         <v>512</v>
       </c>
       <c r="F17">
@@ -17982,43 +21263,20 @@
         <v>0</v>
       </c>
       <c r="J17" s="55">
-        <v>8.8000000000000005E-3</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="K17" s="55">
-        <v>6.0299999999999999E-2</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="L17" s="55">
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="M17">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="N17">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="O17">
-        <v>0.9234</v>
-      </c>
-      <c r="P17">
-        <v>0.99929999999999997</v>
-      </c>
-      <c r="Q17">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="R17">
-        <v>0.97330000000000005</v>
+        <v>9.4100000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13">
+      <c r="D18">
         <v>10</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18">
         <v>512</v>
       </c>
       <c r="F18">
@@ -18034,69 +21292,468 @@
         <v>0</v>
       </c>
       <c r="J18" s="55">
-        <v>9.2999999999999992E-3</v>
+        <v>1.17E-2</v>
       </c>
       <c r="K18" s="55">
-        <v>6.2899999999999998E-2</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="L18" s="55">
-        <v>8.1699999999999995E-2</v>
-      </c>
-      <c r="M18">
-        <v>0.99129999999999996</v>
-      </c>
-      <c r="N18">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="O18">
-        <v>0.92369999999999997</v>
-      </c>
-      <c r="P18">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="Q18">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="R18">
-        <v>0.97299999999999998</v>
+        <v>9.6299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>512</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="55">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K19" s="55">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="L19" s="55">
+        <v>9.9099999999999994E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="13">
-        <v>4</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
         <v>512</v>
       </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="55">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="K20" s="55">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L20" s="55">
+        <v>0.1026</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="13">
-        <v>8</v>
-      </c>
-      <c r="E21" s="13">
-        <v>512</v>
-      </c>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13">
+        <v>4</v>
+      </c>
+      <c r="E22" s="13">
+        <v>512</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="55">
+        <v>1.01E-2</v>
+      </c>
+      <c r="K22" s="55">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L22" s="55">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="M22">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="O22">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="P22">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Q22">
+        <v>0.98</v>
+      </c>
+      <c r="R22">
+        <v>0.97089999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="13">
+      <c r="B23" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13">
+        <v>8</v>
+      </c>
+      <c r="E23" s="13">
+        <v>512</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="55">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="K23" s="55">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="L23" s="55">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="O23">
+        <v>0.9234</v>
+      </c>
+      <c r="P23">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="Q23">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="R23">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13">
         <v>10</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E24" s="13">
+        <v>512</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="55">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="K24" s="55">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="L24" s="55">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="M24">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="N24">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="O24">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="P24">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="R24">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="13">
+        <v>4</v>
+      </c>
+      <c r="E26" s="13">
+        <v>512</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="55">
+        <v>1.66E-2</v>
+      </c>
+      <c r="K26" s="55">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="L26" s="55">
+        <v>0.113</v>
+      </c>
+      <c r="M26">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="N26">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="P26">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="Q26">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="R26">
+        <v>0.95340000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="13">
+        <v>8</v>
+      </c>
+      <c r="E27" s="13">
+        <v>512</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="55">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="K27" s="55">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="L27" s="55">
+        <v>0.1129</v>
+      </c>
+      <c r="M27">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="N27">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O27">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="P27">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="R27">
+        <v>0.95430000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="13">
+        <v>10</v>
+      </c>
+      <c r="E28" s="13">
+        <v>512</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="55">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="K28" s="55">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="L28" s="55">
+        <v>0.1197</v>
+      </c>
+      <c r="M28">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N28">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="O28">
+        <v>0.878</v>
+      </c>
+      <c r="P28">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q28">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="R28">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="43"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="13">
+        <v>4</v>
+      </c>
+      <c r="E32" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="13">
+        <v>8</v>
+      </c>
+      <c r="E33" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="13">
+        <v>10</v>
+      </c>
+      <c r="E34" s="13">
         <v>512</v>
       </c>
     </row>
@@ -18109,6 +21766,114 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K8">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:K13 K21:K23 K3:K4">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L13 L21:L28 L3:L4">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J13 J21:J30 J3:J4">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:J1048576 J1:J13 J21:J31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:K1048576 K1:K13 K21:K31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:L1048576 L1:L13 L21:L31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J20">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -18120,7 +21885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K8">
+  <conditionalFormatting sqref="K14:K20">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -18132,44 +21897,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L8">
+  <conditionalFormatting sqref="L14:L20">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:K17 K3:K4">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L22 L3:L4">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J24 J3:J4">
-    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18186,11 +21915,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492AA315-DA7C-4FC0-84D5-2E74DBCB4D50}">
-  <dimension ref="A1:Q170"/>
+  <dimension ref="A1:AG219"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146:K149"/>
+      <pane ySplit="4" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B199" sqref="B199:K205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25853,7 +29582,7 @@
         <v>0.97050000000000003</v>
       </c>
     </row>
-    <row r="161" spans="2:17">
+    <row r="161" spans="1:33">
       <c r="B161">
         <v>16</v>
       </c>
@@ -25903,7 +29632,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="162" spans="2:17">
+    <row r="162" spans="1:33">
       <c r="B162">
         <v>2</v>
       </c>
@@ -25953,7 +29682,7 @@
         <v>0.9708</v>
       </c>
     </row>
-    <row r="163" spans="2:17">
+    <row r="163" spans="1:33">
       <c r="B163">
         <v>4</v>
       </c>
@@ -26003,7 +29732,7 @@
         <v>0.97150000000000003</v>
       </c>
     </row>
-    <row r="164" spans="2:17">
+    <row r="164" spans="1:33">
       <c r="B164">
         <v>6</v>
       </c>
@@ -26053,7 +29782,7 @@
         <v>0.97209999999999996</v>
       </c>
     </row>
-    <row r="165" spans="2:17">
+    <row r="165" spans="1:33">
       <c r="B165">
         <v>8</v>
       </c>
@@ -26103,7 +29832,7 @@
         <v>0.97189999999999999</v>
       </c>
     </row>
-    <row r="166" spans="2:17">
+    <row r="166" spans="1:33">
       <c r="B166">
         <v>10</v>
       </c>
@@ -26153,7 +29882,7 @@
         <v>0.97170000000000001</v>
       </c>
     </row>
-    <row r="167" spans="2:17">
+    <row r="167" spans="1:33">
       <c r="B167">
         <v>12</v>
       </c>
@@ -26203,7 +29932,7 @@
         <v>0.97150000000000003</v>
       </c>
     </row>
-    <row r="168" spans="2:17">
+    <row r="168" spans="1:33">
       <c r="B168">
         <v>14</v>
       </c>
@@ -26253,7 +29982,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="169" spans="2:17">
+    <row r="169" spans="1:33">
       <c r="B169">
         <v>16</v>
       </c>
@@ -26303,10 +30032,4815 @@
         <v>0.97189999999999999</v>
       </c>
     </row>
-    <row r="170" spans="2:17">
+    <row r="170" spans="1:33">
       <c r="I170" s="55"/>
       <c r="J170" s="55"/>
       <c r="K170" s="55"/>
+    </row>
+    <row r="171" spans="1:33">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>32</v>
+      </c>
+      <c r="D171" t="s">
+        <v>176</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171" s="55">
+        <v>0.1042</v>
+      </c>
+      <c r="J171" s="55">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="K171" s="55">
+        <v>0.2404</v>
+      </c>
+      <c r="L171">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="M171">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="N171">
+        <v>0.8417</v>
+      </c>
+      <c r="O171">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="P171">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="Q171">
+        <v>0.8417</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>32</v>
+      </c>
+      <c r="T171" t="s">
+        <v>176</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0.1038</v>
+      </c>
+      <c r="Z171">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="AA171">
+        <v>0.249</v>
+      </c>
+      <c r="AB171">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="AC171">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="AD171">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="AE171">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="AF171">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="AG171">
+        <v>0.83130000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33">
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>32</v>
+      </c>
+      <c r="D172" t="s">
+        <v>177</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" s="55">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="J172" s="55">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="K172" s="55">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="L172">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="M172">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="N172">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="O172">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="P172">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="Q172">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="R172">
+        <v>4</v>
+      </c>
+      <c r="S172">
+        <v>32</v>
+      </c>
+      <c r="T172" t="s">
+        <v>177</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="Z172">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AA172">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="AB172">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="AC172">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="AD172">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="AE172">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="AF172">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="AG172">
+        <v>0.85450000000000004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33">
+      <c r="B173">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>32</v>
+      </c>
+      <c r="D173" t="s">
+        <v>178</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173" s="55">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="J173" s="55">
+        <v>0.1968</v>
+      </c>
+      <c r="K173" s="55">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="L173">
+        <v>0.9708</v>
+      </c>
+      <c r="M173">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="N173">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="O173">
+        <v>0.9708</v>
+      </c>
+      <c r="P173">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="Q173">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="R173">
+        <v>6</v>
+      </c>
+      <c r="S173">
+        <v>32</v>
+      </c>
+      <c r="T173" t="s">
+        <v>178</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="Z173">
+        <v>0.19259999999999999</v>
+      </c>
+      <c r="AA173">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="AB173">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="AC173">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="AD173">
+        <v>0.85</v>
+      </c>
+      <c r="AE173">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="AF173">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="AG173">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33">
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>32</v>
+      </c>
+      <c r="D174" t="s">
+        <v>179</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174" s="55">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="J174" s="55">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="K174" s="55">
+        <v>0.22459999999999999</v>
+      </c>
+      <c r="L174">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="M174">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="N174">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="O174">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="P174">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="Q174">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="R174">
+        <v>8</v>
+      </c>
+      <c r="S174">
+        <v>32</v>
+      </c>
+      <c r="T174" t="s">
+        <v>179</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>8.09E-2</v>
+      </c>
+      <c r="Z174">
+        <v>0.1983</v>
+      </c>
+      <c r="AA174">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="AB174">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AC174">
+        <v>0.8831</v>
+      </c>
+      <c r="AD174">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="AE174">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AF174">
+        <v>0.8831</v>
+      </c>
+      <c r="AG174">
+        <v>0.85189999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33">
+      <c r="B175">
+        <v>10</v>
+      </c>
+      <c r="C175">
+        <v>32</v>
+      </c>
+      <c r="D175" t="s">
+        <v>180</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175" s="55">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="J175" s="55">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K175" s="55">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="L175">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="M175">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="N175">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="O175">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="P175">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="Q175">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="R175">
+        <v>10</v>
+      </c>
+      <c r="S175">
+        <v>32</v>
+      </c>
+      <c r="T175" t="s">
+        <v>180</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="Z175">
+        <v>0.218</v>
+      </c>
+      <c r="AA175">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="AB175">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="AC175">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="AD175">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="AE175">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="AF175">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="AG175">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33">
+      <c r="B176">
+        <v>12</v>
+      </c>
+      <c r="C176">
+        <v>32</v>
+      </c>
+      <c r="D176" t="s">
+        <v>181</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176" s="55">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J176" s="55">
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="K176" s="55">
+        <v>0.2404</v>
+      </c>
+      <c r="L176">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="M176">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="N176">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="O176">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="P176">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="Q176">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="R176">
+        <v>12</v>
+      </c>
+      <c r="S176">
+        <v>32</v>
+      </c>
+      <c r="T176" t="s">
+        <v>181</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="Z176">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="AA176">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="AB176">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="AC176">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="AD176">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="AE176">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="AF176">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="AG176">
+        <v>0.83560000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:33">
+      <c r="B177">
+        <v>16</v>
+      </c>
+      <c r="C177">
+        <v>32</v>
+      </c>
+      <c r="D177" t="s">
+        <v>183</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177" s="55">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="J177" s="55">
+        <v>0.2225</v>
+      </c>
+      <c r="K177" s="55">
+        <v>0.2424</v>
+      </c>
+      <c r="L177">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="M177">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="N177">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="O177">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="P177">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="Q177">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="R177">
+        <v>16</v>
+      </c>
+      <c r="S177">
+        <v>32</v>
+      </c>
+      <c r="T177" t="s">
+        <v>183</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>9.06E-2</v>
+      </c>
+      <c r="Z177">
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="AA177">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="AB177">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="AC177">
+        <v>0.876</v>
+      </c>
+      <c r="AD177">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="AE177">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="AF177">
+        <v>0.876</v>
+      </c>
+      <c r="AG177">
+        <v>0.82530000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="2:33">
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>64</v>
+      </c>
+      <c r="D178" t="s">
+        <v>176</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" s="55">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="J178" s="55">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="K178" s="55">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="L178">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M178">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="N178">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="O178">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P178">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="Q178">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>64</v>
+      </c>
+      <c r="T178" t="s">
+        <v>176</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="Z178">
+        <v>0.1565</v>
+      </c>
+      <c r="AA178">
+        <v>0.1847</v>
+      </c>
+      <c r="AB178">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="AC178">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="AD178">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="AE178">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="AF178">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="AG178">
+        <v>0.89419999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="2:33">
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>64</v>
+      </c>
+      <c r="D179" t="s">
+        <v>177</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179" s="55">
+        <v>4.41E-2</v>
+      </c>
+      <c r="J179" s="55">
+        <v>0.1384</v>
+      </c>
+      <c r="K179" s="55">
+        <v>0.1676</v>
+      </c>
+      <c r="L179">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="M179">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="N179">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="O179">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="P179">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="Q179">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="R179">
+        <v>4</v>
+      </c>
+      <c r="S179">
+        <v>64</v>
+      </c>
+      <c r="T179" t="s">
+        <v>177</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="Z179">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="AA179">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="AB179">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="AC179">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="AD179">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="AE179">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="AF179">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="AG179">
+        <v>0.90990000000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="2:33">
+      <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>64</v>
+      </c>
+      <c r="D180" t="s">
+        <v>178</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180" s="55">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="J180" s="55">
+        <v>0.1489</v>
+      </c>
+      <c r="K180" s="55">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="L180">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="M180">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="N180">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="O180">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="P180">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="Q180">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="R180">
+        <v>6</v>
+      </c>
+      <c r="S180">
+        <v>64</v>
+      </c>
+      <c r="T180" t="s">
+        <v>178</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="Z180">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="AA180">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="AB180">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="AC180">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="AD180">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="AE180">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="AF180">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="AG180">
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="2:33">
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>64</v>
+      </c>
+      <c r="D181" t="s">
+        <v>179</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181" s="55">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="J181" s="55">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="K181" s="55">
+        <v>0.1694</v>
+      </c>
+      <c r="L181">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="M181">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N181">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="O181">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="P181">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="Q181">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="R181">
+        <v>8</v>
+      </c>
+      <c r="S181">
+        <v>64</v>
+      </c>
+      <c r="T181" t="s">
+        <v>179</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Z181">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="AA181">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="AB181">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="AC181">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="AD181">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="AE181">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="AF181">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="AG181">
+        <v>0.91139999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="2:33">
+      <c r="B182">
+        <v>10</v>
+      </c>
+      <c r="C182">
+        <v>64</v>
+      </c>
+      <c r="D182" t="s">
+        <v>180</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" s="55">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="J182" s="55">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="K182" s="55">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="L182">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="M182">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="N182">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="O182">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="P182">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="Q182">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="R182">
+        <v>10</v>
+      </c>
+      <c r="S182">
+        <v>64</v>
+      </c>
+      <c r="T182" t="s">
+        <v>180</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <v>0</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>4.36E-2</v>
+      </c>
+      <c r="Z182">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="AA182">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="AB182">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="AC182">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="AD182">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="AE182">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="AF182">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="AG182">
+        <v>0.89439999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="2:33">
+      <c r="B183">
+        <v>12</v>
+      </c>
+      <c r="C183">
+        <v>64</v>
+      </c>
+      <c r="D183" t="s">
+        <v>181</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183" s="55">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="J183" s="55">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="K183" s="55">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="L183">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="M183">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="N183">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="O183">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="P183">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="Q183">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="R183">
+        <v>12</v>
+      </c>
+      <c r="S183">
+        <v>64</v>
+      </c>
+      <c r="T183" t="s">
+        <v>181</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <v>0</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="Z183">
+        <v>0.1535</v>
+      </c>
+      <c r="AA183">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="AB183">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AC183">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="AD183">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="AE183">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AF183">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="AG183">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="2:33">
+      <c r="B184">
+        <v>16</v>
+      </c>
+      <c r="C184">
+        <v>64</v>
+      </c>
+      <c r="D184" t="s">
+        <v>183</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184" s="55">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="J184" s="55">
+        <v>0.1666</v>
+      </c>
+      <c r="K184" s="55">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="L184">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="M184">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="N184">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="O184">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="P184">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="Q184">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="R184">
+        <v>16</v>
+      </c>
+      <c r="S184">
+        <v>64</v>
+      </c>
+      <c r="T184" t="s">
+        <v>183</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="Z184">
+        <v>0.1676</v>
+      </c>
+      <c r="AA184">
+        <v>0.1968</v>
+      </c>
+      <c r="AB184">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AC184">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="AD184">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="AE184">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AF184">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="AG184">
+        <v>0.88429999999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="2:33">
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>128</v>
+      </c>
+      <c r="D185" t="s">
+        <v>176</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" s="55">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="J185" s="55">
+        <v>0.1205</v>
+      </c>
+      <c r="K185" s="55">
+        <v>0.1424</v>
+      </c>
+      <c r="L185">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="M185">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="N185">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="O185">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="P185">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="Q185">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>128</v>
+      </c>
+      <c r="T185" t="s">
+        <v>176</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <v>0</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>2.86E-2</v>
+      </c>
+      <c r="Z185">
+        <v>0.1188</v>
+      </c>
+      <c r="AA185">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="AB185">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="AC185">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="AD185">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AE185">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="AF185">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="AG185">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="2:33">
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>128</v>
+      </c>
+      <c r="D186" t="s">
+        <v>177</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186" s="55">
+        <v>2.58E-2</v>
+      </c>
+      <c r="J186" s="55">
+        <v>0.1024</v>
+      </c>
+      <c r="K186" s="55">
+        <v>0.1313</v>
+      </c>
+      <c r="L186">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="M186">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="N186">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="O186">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="P186">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="Q186">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="R186">
+        <v>4</v>
+      </c>
+      <c r="S186">
+        <v>128</v>
+      </c>
+      <c r="T186" t="s">
+        <v>177</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="Z186">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="AA186">
+        <v>0.1351</v>
+      </c>
+      <c r="AB186">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="AC186">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="AD186">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="AE186">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="AF186">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="AG186">
+        <v>0.93830000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="2:33">
+      <c r="B187">
+        <v>6</v>
+      </c>
+      <c r="C187">
+        <v>128</v>
+      </c>
+      <c r="D187" t="s">
+        <v>178</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187" s="55">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="J187" s="55">
+        <v>0.1061</v>
+      </c>
+      <c r="K187" s="55">
+        <v>0.1313</v>
+      </c>
+      <c r="L187">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="M187">
+        <v>0.9577</v>
+      </c>
+      <c r="N187">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="O187">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="P187">
+        <v>0.9577</v>
+      </c>
+      <c r="Q187">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="R187">
+        <v>6</v>
+      </c>
+      <c r="S187">
+        <v>128</v>
+      </c>
+      <c r="T187" t="s">
+        <v>178</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="Z187">
+        <v>0.1084</v>
+      </c>
+      <c r="AA187">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="AB187">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="AC187">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="AD187">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="AE187">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="AF187">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="AG187">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="2:33">
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>128</v>
+      </c>
+      <c r="D188" t="s">
+        <v>179</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188" s="55">
+        <v>2.01E-2</v>
+      </c>
+      <c r="J188" s="55">
+        <v>0.1004</v>
+      </c>
+      <c r="K188" s="55">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="L188">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="M188">
+        <v>0.95979999999999999</v>
+      </c>
+      <c r="N188">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="O188">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="P188">
+        <v>0.95979999999999999</v>
+      </c>
+      <c r="Q188">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="R188">
+        <v>8</v>
+      </c>
+      <c r="S188">
+        <v>128</v>
+      </c>
+      <c r="T188" t="s">
+        <v>179</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>2.52E-2</v>
+      </c>
+      <c r="Z188">
+        <v>0.1106</v>
+      </c>
+      <c r="AA188">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="AB188">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="AC188">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="AD188">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="AE188">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="AF188">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="AG188">
+        <v>0.93410000000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="2:33">
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>128</v>
+      </c>
+      <c r="D189" t="s">
+        <v>180</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189" s="55">
+        <v>2.75E-2</v>
+      </c>
+      <c r="J189" s="55">
+        <v>0.112</v>
+      </c>
+      <c r="K189" s="55">
+        <v>0.1449</v>
+      </c>
+      <c r="L189">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="M189">
+        <v>0.9546</v>
+      </c>
+      <c r="N189">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="O189">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="P189">
+        <v>0.9546</v>
+      </c>
+      <c r="Q189">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="R189">
+        <v>10</v>
+      </c>
+      <c r="S189">
+        <v>128</v>
+      </c>
+      <c r="T189" t="s">
+        <v>180</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>2.75E-2</v>
+      </c>
+      <c r="Z189">
+        <v>0.1106</v>
+      </c>
+      <c r="AA189">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AB189">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="AC189">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="AD189">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="AE189">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="AF189">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="AG189">
+        <v>0.92889999999999995</v>
+      </c>
+    </row>
+    <row r="190" spans="2:33">
+      <c r="B190">
+        <v>12</v>
+      </c>
+      <c r="C190">
+        <v>128</v>
+      </c>
+      <c r="D190" t="s">
+        <v>181</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190" s="55">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="J190" s="55">
+        <v>0.1153</v>
+      </c>
+      <c r="K190" s="55">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="L190">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="M190">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="N190">
+        <v>0.9294</v>
+      </c>
+      <c r="O190">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="P190">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="Q190">
+        <v>0.9294</v>
+      </c>
+      <c r="R190">
+        <v>12</v>
+      </c>
+      <c r="S190">
+        <v>128</v>
+      </c>
+      <c r="T190" t="s">
+        <v>181</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>2.76E-2</v>
+      </c>
+      <c r="Z190">
+        <v>0.1047</v>
+      </c>
+      <c r="AA190">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="AB190">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="AC190">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="AD190">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="AE190">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="AF190">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="AG190">
+        <v>0.93030000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="2:33">
+      <c r="B191">
+        <v>16</v>
+      </c>
+      <c r="C191">
+        <v>128</v>
+      </c>
+      <c r="D191" t="s">
+        <v>183</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" s="55">
+        <v>2.63E-2</v>
+      </c>
+      <c r="J191" s="55">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="K191" s="55">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="L191">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="M191">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="N191">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="O191">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="P191">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="Q191">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="R191">
+        <v>16</v>
+      </c>
+      <c r="S191">
+        <v>128</v>
+      </c>
+      <c r="T191" t="s">
+        <v>183</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+      <c r="V191">
+        <v>0</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>2.76E-2</v>
+      </c>
+      <c r="Z191">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="AA191">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="AB191">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="AC191">
+        <v>0.9516</v>
+      </c>
+      <c r="AD191">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="AE191">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="AF191">
+        <v>0.9516</v>
+      </c>
+      <c r="AG191">
+        <v>0.92259999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="2:33">
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>256</v>
+      </c>
+      <c r="D192" t="s">
+        <v>176</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192" s="55">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="J192" s="55">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="K192" s="55">
+        <v>0.1091</v>
+      </c>
+      <c r="L192">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="M192">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="N192">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="O192">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="P192">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="Q192">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>256</v>
+      </c>
+      <c r="T192" t="s">
+        <v>176</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="Z192">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="AA192">
+        <v>0.1075</v>
+      </c>
+      <c r="AB192">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="AC192">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="AD192">
+        <v>0.95409999999999995</v>
+      </c>
+      <c r="AE192">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="AF192">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="AG192">
+        <v>0.95409999999999995</v>
+      </c>
+    </row>
+    <row r="193" spans="2:33">
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>256</v>
+      </c>
+      <c r="D193" t="s">
+        <v>177</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" s="55">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="J193" s="55">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K193" s="55">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="L193">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="M193">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="N193">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="O193">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="P193">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="Q193">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="R193">
+        <v>4</v>
+      </c>
+      <c r="S193">
+        <v>256</v>
+      </c>
+      <c r="T193" t="s">
+        <v>177</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="Z193">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="AA193">
+        <v>0.1071</v>
+      </c>
+      <c r="AB193">
+        <v>0.998</v>
+      </c>
+      <c r="AC193">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="AD193">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="AE193">
+        <v>0.998</v>
+      </c>
+      <c r="AF193">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="AG193">
+        <v>0.95709999999999995</v>
+      </c>
+    </row>
+    <row r="194" spans="2:33">
+      <c r="B194">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>256</v>
+      </c>
+      <c r="D194" t="s">
+        <v>178</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194" s="55">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="J194" s="55">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="K194" s="55">
+        <v>0.1132</v>
+      </c>
+      <c r="L194">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="M194">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="N194">
+        <v>0.9536</v>
+      </c>
+      <c r="O194">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="P194">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="Q194">
+        <v>0.9536</v>
+      </c>
+      <c r="R194">
+        <v>6</v>
+      </c>
+      <c r="S194">
+        <v>256</v>
+      </c>
+      <c r="T194" t="s">
+        <v>178</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="Z194">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="AA194">
+        <v>0.109</v>
+      </c>
+      <c r="AB194">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="AC194">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AD194">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="AE194">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="AF194">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AG194">
+        <v>0.95340000000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="2:33">
+      <c r="B195">
+        <v>8</v>
+      </c>
+      <c r="C195">
+        <v>256</v>
+      </c>
+      <c r="D195" t="s">
+        <v>179</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195" s="55">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="J195" s="55">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="K195" s="55">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="L195">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="M195">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="N195">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="O195">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="P195">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="Q195">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="R195">
+        <v>8</v>
+      </c>
+      <c r="S195">
+        <v>256</v>
+      </c>
+      <c r="T195" t="s">
+        <v>179</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>1.46E-2</v>
+      </c>
+      <c r="Z195">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="AA195">
+        <v>0.1079</v>
+      </c>
+      <c r="AB195">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="AC195">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="AD195">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="AE195">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="AF195">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="AG195">
+        <v>0.95640000000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="2:33">
+      <c r="B196">
+        <v>10</v>
+      </c>
+      <c r="C196">
+        <v>256</v>
+      </c>
+      <c r="D196" t="s">
+        <v>180</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196" s="55">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="J196" s="55">
+        <v>8.72E-2</v>
+      </c>
+      <c r="K196" s="55">
+        <v>0.1114</v>
+      </c>
+      <c r="L196">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="M196">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="N196">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="O196">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="P196">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="Q196">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="R196">
+        <v>10</v>
+      </c>
+      <c r="S196">
+        <v>256</v>
+      </c>
+      <c r="T196" t="s">
+        <v>180</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Z196">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="AA196">
+        <v>0.114</v>
+      </c>
+      <c r="AB196">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="AC196">
+        <v>0.9708</v>
+      </c>
+      <c r="AD196">
+        <v>0.9496</v>
+      </c>
+      <c r="AE196">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="AF196">
+        <v>0.9708</v>
+      </c>
+      <c r="AG196">
+        <v>0.9496</v>
+      </c>
+    </row>
+    <row r="197" spans="2:33">
+      <c r="B197">
+        <v>12</v>
+      </c>
+      <c r="C197">
+        <v>256</v>
+      </c>
+      <c r="D197" t="s">
+        <v>181</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197" s="55">
+        <v>1.46E-2</v>
+      </c>
+      <c r="J197" s="55">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="K197" s="55">
+        <v>0.1157</v>
+      </c>
+      <c r="L197">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="M197">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="N197">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="O197">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="P197">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="Q197">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="R197">
+        <v>12</v>
+      </c>
+      <c r="S197">
+        <v>256</v>
+      </c>
+      <c r="T197" t="s">
+        <v>181</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="Z197">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="AA197">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AB197">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="AC197">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="AD197">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="AE197">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="AF197">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="AG197">
+        <v>0.94920000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="2:33">
+      <c r="B198">
+        <v>16</v>
+      </c>
+      <c r="C198">
+        <v>256</v>
+      </c>
+      <c r="D198" t="s">
+        <v>183</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198" s="55">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="J198" s="55">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="K198" s="55">
+        <v>0.11940000000000001</v>
+      </c>
+      <c r="L198">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="M198">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="N198">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="O198">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="P198">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="Q198">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="R198">
+        <v>16</v>
+      </c>
+      <c r="S198">
+        <v>256</v>
+      </c>
+      <c r="T198" t="s">
+        <v>183</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="Z198">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AA198">
+        <v>0.1135</v>
+      </c>
+      <c r="AB198">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="AC198">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="AD198">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="AE198">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="AF198">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="AG198">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="199" spans="2:33">
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>512</v>
+      </c>
+      <c r="D199" t="s">
+        <v>176</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199" s="55">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J199" s="55">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="K199" s="55">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="L199">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="M199">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="N199">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="O199">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="P199">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="Q199">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>512</v>
+      </c>
+      <c r="T199" t="s">
+        <v>176</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>1.21E-2</v>
+      </c>
+      <c r="Z199">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AA199">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="AB199">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="AC199">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="AD199">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="AE199">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="AF199">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="AG199">
+        <v>0.96220000000000006</v>
+      </c>
+    </row>
+    <row r="200" spans="2:33">
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>512</v>
+      </c>
+      <c r="D200" t="s">
+        <v>177</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" s="55">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J200" s="55">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="K200" s="55">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="L200">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="M200">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="N200">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="O200">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P200">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="Q200">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="R200">
+        <v>4</v>
+      </c>
+      <c r="S200">
+        <v>512</v>
+      </c>
+      <c r="T200" t="s">
+        <v>177</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="Z200">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="AA200">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="AB200">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="AC200">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="AD200">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="AE200">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="AF200">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="AG200">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="2:33">
+      <c r="B201">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>512</v>
+      </c>
+      <c r="D201" t="s">
+        <v>178</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201" s="55">
+        <v>1.18E-2</v>
+      </c>
+      <c r="J201" s="55">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="K201" s="55">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="L201">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="M201">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="N201">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="O201">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="P201">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="Q201">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="R201">
+        <v>6</v>
+      </c>
+      <c r="S201">
+        <v>512</v>
+      </c>
+      <c r="T201" t="s">
+        <v>178</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>1.17E-2</v>
+      </c>
+      <c r="Z201">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="AA201">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="AB201">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AC201">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="AD201">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="AE201">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AF201">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="AG201">
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="2:33">
+      <c r="B202">
+        <v>8</v>
+      </c>
+      <c r="C202">
+        <v>512</v>
+      </c>
+      <c r="D202" t="s">
+        <v>179</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202" s="55">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="J202" s="55">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="K202" s="55">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="L202">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="M202">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="N202">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="O202">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="P202">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="Q202">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="R202">
+        <v>8</v>
+      </c>
+      <c r="S202">
+        <v>512</v>
+      </c>
+      <c r="T202" t="s">
+        <v>179</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>1.21E-2</v>
+      </c>
+      <c r="Z202">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="AA202">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="AB202">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="AC202">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="AD202">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="AE202">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="AF202">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="AG202">
+        <v>0.96340000000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="2:33">
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203">
+        <v>512</v>
+      </c>
+      <c r="D203" t="s">
+        <v>180</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203" s="55">
+        <v>1.17E-2</v>
+      </c>
+      <c r="J203" s="55">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="K203" s="55">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="L203">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="M203">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="N203">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="O203">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="P203">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="Q203">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="R203">
+        <v>10</v>
+      </c>
+      <c r="S203">
+        <v>512</v>
+      </c>
+      <c r="T203" t="s">
+        <v>180</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="Z203">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AA203">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="AB203">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="AC203">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="AD203">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="AE203">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="AF203">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="AG203">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="2:33">
+      <c r="B204">
+        <v>12</v>
+      </c>
+      <c r="C204">
+        <v>512</v>
+      </c>
+      <c r="D204" t="s">
+        <v>181</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204" s="55">
+        <v>1.23E-2</v>
+      </c>
+      <c r="J204" s="55">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="K204" s="55">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="L204">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="M204">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="N204">
+        <v>0.9587</v>
+      </c>
+      <c r="O204">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P204">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="Q204">
+        <v>0.9587</v>
+      </c>
+      <c r="R204">
+        <v>12</v>
+      </c>
+      <c r="S204">
+        <v>512</v>
+      </c>
+      <c r="T204" t="s">
+        <v>181</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="Z204">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AA204">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AB204">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="AC204">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="AD204">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="AE204">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="AF204">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="AG204">
+        <v>0.96009999999999995</v>
+      </c>
+    </row>
+    <row r="205" spans="2:33">
+      <c r="B205">
+        <v>16</v>
+      </c>
+      <c r="C205">
+        <v>512</v>
+      </c>
+      <c r="D205" t="s">
+        <v>183</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205" s="55">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="J205" s="55">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="K205" s="55">
+        <v>0.1026</v>
+      </c>
+      <c r="L205">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="M205">
+        <v>0.9778</v>
+      </c>
+      <c r="N205">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="O205">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P205">
+        <v>0.9778</v>
+      </c>
+      <c r="Q205">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="R205">
+        <v>16</v>
+      </c>
+      <c r="S205">
+        <v>512</v>
+      </c>
+      <c r="T205" t="s">
+        <v>183</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Z205">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="AA205">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="AB205">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="AC205">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="AD205">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="AE205">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="AF205">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="AG205">
+        <v>0.96109999999999995</v>
+      </c>
+    </row>
+    <row r="206" spans="2:33">
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206">
+        <v>1024</v>
+      </c>
+      <c r="D206" t="s">
+        <v>176</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206" s="55">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="J206" s="55">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="K206" s="55">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="L206">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="M206">
+        <v>0.9819</v>
+      </c>
+      <c r="N206">
+        <v>0.9677</v>
+      </c>
+      <c r="O206">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="P206">
+        <v>0.9819</v>
+      </c>
+      <c r="Q206">
+        <v>0.9677</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>1024</v>
+      </c>
+      <c r="T206" t="s">
+        <v>176</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="Z206">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="AA206">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="AB206">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="AC206">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="AD206">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="AE206">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="AF206">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="AG206">
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="2:33">
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>1024</v>
+      </c>
+      <c r="D207" t="s">
+        <v>177</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207" s="55">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="J207" s="55">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="K207" s="55">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L207">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="M207">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="N207">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="O207">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P207">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="Q207">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="R207">
+        <v>4</v>
+      </c>
+      <c r="S207">
+        <v>1024</v>
+      </c>
+      <c r="T207" t="s">
+        <v>177</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Z207">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="AA207">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="AB207">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AC207">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="AD207">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="AE207">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AF207">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="AG207">
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="2:33">
+      <c r="B208">
+        <v>6</v>
+      </c>
+      <c r="C208">
+        <v>1024</v>
+      </c>
+      <c r="D208" t="s">
+        <v>178</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208" s="55">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J208" s="55">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="K208" s="55">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="L208">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="M208">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="N208">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="O208">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P208">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="Q208">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="R208">
+        <v>6</v>
+      </c>
+      <c r="S208">
+        <v>1024</v>
+      </c>
+      <c r="T208" t="s">
+        <v>178</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>1.15E-2</v>
+      </c>
+      <c r="Z208">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="AA208">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="AB208">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AC208">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="AD208">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="AE208">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AF208">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="AG208">
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="2:33">
+      <c r="B209">
+        <v>8</v>
+      </c>
+      <c r="C209">
+        <v>1024</v>
+      </c>
+      <c r="D209" t="s">
+        <v>179</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" s="55">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J209" s="55">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="K209" s="55">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="L209">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="M209">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="N209">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="O209">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P209">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="Q209">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="R209">
+        <v>8</v>
+      </c>
+      <c r="S209">
+        <v>1024</v>
+      </c>
+      <c r="T209" t="s">
+        <v>179</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="Z209">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="AA209">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="AB209">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AC209">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="AD209">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="AE209">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AF209">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="AG209">
+        <v>0.96779999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="2:33">
+      <c r="B210">
+        <v>10</v>
+      </c>
+      <c r="C210">
+        <v>1024</v>
+      </c>
+      <c r="D210" t="s">
+        <v>180</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" s="55">
+        <v>1.09E-2</v>
+      </c>
+      <c r="J210" s="55">
+        <v>5.91E-2</v>
+      </c>
+      <c r="K210" s="55">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="L210">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="M210">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="N210">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="O210">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="P210">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="Q210">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="R210">
+        <v>10</v>
+      </c>
+      <c r="S210">
+        <v>1024</v>
+      </c>
+      <c r="T210" t="s">
+        <v>180</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="Z210">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="AA210">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="AB210">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AC210">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="AD210">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="AE210">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AF210">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="AG210">
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="2:33">
+      <c r="B211">
+        <v>12</v>
+      </c>
+      <c r="C211">
+        <v>1024</v>
+      </c>
+      <c r="D211" t="s">
+        <v>181</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211" s="55">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J211" s="55">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="K211" s="55">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L211">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="M211">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N211">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="O211">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P211">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="Q211">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="R211">
+        <v>12</v>
+      </c>
+      <c r="S211">
+        <v>1024</v>
+      </c>
+      <c r="T211" t="s">
+        <v>181</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>1.06E-2</v>
+      </c>
+      <c r="Z211">
+        <v>6.13E-2</v>
+      </c>
+      <c r="AA211">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="AB211">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="AC211">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="AD211">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="AE211">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="AF211">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="AG211">
+        <v>0.96540000000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="2:33">
+      <c r="B212">
+        <v>16</v>
+      </c>
+      <c r="C212">
+        <v>1024</v>
+      </c>
+      <c r="D212" t="s">
+        <v>183</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212" s="55">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="J212" s="55">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="K212" s="55">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L212">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="M212">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="N212">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="O212">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P212">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="Q212">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="R212">
+        <v>16</v>
+      </c>
+      <c r="S212">
+        <v>1024</v>
+      </c>
+      <c r="T212" t="s">
+        <v>183</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>1.01E-2</v>
+      </c>
+      <c r="Z212">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="AA212">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AB212">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="AC212">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="AD212">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="AE212">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="AF212">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="AG212">
+        <v>0.96579999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="2:33">
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>2048</v>
+      </c>
+      <c r="D213" t="s">
+        <v>176</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213" s="55">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="J213" s="55">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="K213" s="55">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="L213">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="M213">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="N213">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="O213">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P213">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="Q213">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>2048</v>
+      </c>
+      <c r="T213" t="s">
+        <v>176</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>1.01E-2</v>
+      </c>
+      <c r="Z213">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="AA213">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AB213">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AC213">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="AD213">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="AE213">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AF213">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="AG213">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="214" spans="2:33">
+      <c r="B214">
+        <v>4</v>
+      </c>
+      <c r="C214">
+        <v>2048</v>
+      </c>
+      <c r="D214" t="s">
+        <v>177</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214" s="55">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="J214" s="55">
+        <v>5.57E-2</v>
+      </c>
+      <c r="K214" s="55">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="L214">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="M214">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="N214">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="O214">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P214">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="Q214">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="R214">
+        <v>4</v>
+      </c>
+      <c r="S214">
+        <v>2048</v>
+      </c>
+      <c r="T214" t="s">
+        <v>177</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Z214">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="AA214">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="AB214">
+        <v>0.999</v>
+      </c>
+      <c r="AC214">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="AD214">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="AE214">
+        <v>0.999</v>
+      </c>
+      <c r="AF214">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="AG214">
+        <v>0.96960000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="2:33">
+      <c r="B215">
+        <v>6</v>
+      </c>
+      <c r="C215">
+        <v>2048</v>
+      </c>
+      <c r="D215" t="s">
+        <v>178</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215" s="55">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="J215" s="55">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="K215" s="55">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="L215">
+        <v>0.999</v>
+      </c>
+      <c r="M215">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="N215">
+        <v>0.9698</v>
+      </c>
+      <c r="O215">
+        <v>0.999</v>
+      </c>
+      <c r="P215">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="Q215">
+        <v>0.9698</v>
+      </c>
+      <c r="R215">
+        <v>6</v>
+      </c>
+      <c r="S215">
+        <v>2048</v>
+      </c>
+      <c r="T215" t="s">
+        <v>178</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <v>0</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="Z215">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="AA215">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="AB215">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="AC215">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="AD215">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="AE215">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="AF215">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="AG215">
+        <v>0.96879999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="2:33">
+      <c r="B216">
+        <v>8</v>
+      </c>
+      <c r="C216">
+        <v>2048</v>
+      </c>
+      <c r="D216" t="s">
+        <v>179</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216" s="55">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="J216" s="55">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K216" s="55">
+        <v>8.43E-2</v>
+      </c>
+      <c r="L216">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="M216">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="N216">
+        <v>0.9698</v>
+      </c>
+      <c r="O216">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P216">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="Q216">
+        <v>0.9698</v>
+      </c>
+      <c r="R216">
+        <v>8</v>
+      </c>
+      <c r="S216">
+        <v>2048</v>
+      </c>
+      <c r="T216" t="s">
+        <v>179</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Z216">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="AA216">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="AB216">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AC216">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="AD216">
+        <v>0.97</v>
+      </c>
+      <c r="AE216">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="AF216">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="AG216">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="217" spans="2:33">
+      <c r="B217">
+        <v>10</v>
+      </c>
+      <c r="C217">
+        <v>2048</v>
+      </c>
+      <c r="D217" t="s">
+        <v>180</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217" s="55">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="J217" s="55">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="K217" s="55">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="L217">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="M217">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="N217">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="O217">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P217">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="Q217">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="R217">
+        <v>10</v>
+      </c>
+      <c r="S217">
+        <v>2048</v>
+      </c>
+      <c r="T217" t="s">
+        <v>180</v>
+      </c>
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="Z217">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="AA217">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="AB217">
+        <v>0.999</v>
+      </c>
+      <c r="AC217">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="AD217">
+        <v>0.9698</v>
+      </c>
+      <c r="AE217">
+        <v>0.999</v>
+      </c>
+      <c r="AF217">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="AG217">
+        <v>0.9698</v>
+      </c>
+    </row>
+    <row r="218" spans="2:33">
+      <c r="B218">
+        <v>12</v>
+      </c>
+      <c r="C218">
+        <v>2048</v>
+      </c>
+      <c r="D218" t="s">
+        <v>181</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218" s="55">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J218" s="55">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="K218" s="55">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="L218">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="M218">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N218">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="O218">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P218">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="Q218">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="R218">
+        <v>12</v>
+      </c>
+      <c r="S218">
+        <v>2048</v>
+      </c>
+      <c r="T218" t="s">
+        <v>181</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="Z218">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="AA218">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="AB218">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AC218">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="AD218">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="AE218">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AF218">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="AG218">
+        <v>0.96850000000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="2:33">
+      <c r="B219">
+        <v>16</v>
+      </c>
+      <c r="C219">
+        <v>2048</v>
+      </c>
+      <c r="D219" t="s">
+        <v>183</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219" s="55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J219" s="55">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="K219" s="55">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L219">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="M219">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="N219">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="O219">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P219">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="Q219">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="R219">
+        <v>16</v>
+      </c>
+      <c r="S219">
+        <v>2048</v>
+      </c>
+      <c r="T219" t="s">
+        <v>183</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="Z219">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="AA219">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="AB219">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AC219">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="AD219">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="AE219">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="AF219">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="AG219">
+        <v>0.96789999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -26317,6 +34851,42 @@
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I44">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J44">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K44">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:I85">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -26328,7 +34898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J44">
+  <conditionalFormatting sqref="J46:J85">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -26340,7 +34910,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K44">
+  <conditionalFormatting sqref="K46:K85">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -26352,7 +34922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I85">
+  <conditionalFormatting sqref="I88:I170">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -26364,7 +34934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:J85">
+  <conditionalFormatting sqref="J88:J170">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -26376,7 +34946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:K85">
+  <conditionalFormatting sqref="K88:K170">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -26388,7 +34958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I88:I169">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -26400,7 +34970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J88:J169">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -26412,7 +34982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:K169">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -26431,10 +35001,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB32DF3-C205-4E18-869E-46555BE5E896}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31:AB31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27179,7 +35749,7 @@
         <v>0.9718</v>
       </c>
     </row>
-    <row r="17" spans="8:28">
+    <row r="17" spans="2:28">
       <c r="J17">
         <v>0.82299999999999995</v>
       </c>
@@ -27220,7 +35790,7 @@
         <v>0.85229999999999995</v>
       </c>
     </row>
-    <row r="18" spans="8:28">
+    <row r="18" spans="2:28">
       <c r="K18">
         <v>0.89529999999999998</v>
       </c>
@@ -27261,7 +35831,7 @@
         <v>0.90849999999999997</v>
       </c>
     </row>
-    <row r="19" spans="8:28">
+    <row r="19" spans="2:28">
       <c r="K19">
         <v>0.91020000000000001</v>
       </c>
@@ -27302,7 +35872,7 @@
         <v>0.71889999999999998</v>
       </c>
     </row>
-    <row r="20" spans="8:28">
+    <row r="20" spans="2:28">
       <c r="K20">
         <v>0.91669999999999996</v>
       </c>
@@ -27343,7 +35913,7 @@
         <v>0.71579999999999999</v>
       </c>
     </row>
-    <row r="21" spans="8:28">
+    <row r="21" spans="2:28">
       <c r="J21">
         <v>0.93879999999999997</v>
       </c>
@@ -27384,7 +35954,7 @@
         <v>0.97209999999999996</v>
       </c>
     </row>
-    <row r="22" spans="8:28">
+    <row r="22" spans="2:28">
       <c r="J22">
         <v>0.94130000000000003</v>
       </c>
@@ -27425,7 +35995,7 @@
         <v>0.95820000000000005</v>
       </c>
     </row>
-    <row r="23" spans="8:28">
+    <row r="23" spans="2:28">
       <c r="I23">
         <v>0.94189999999999996</v>
       </c>
@@ -27466,7 +36036,7 @@
         <v>0.96379999999999999</v>
       </c>
     </row>
-    <row r="24" spans="8:28">
+    <row r="24" spans="2:28">
       <c r="I24">
         <v>0.93989999999999996</v>
       </c>
@@ -27507,7 +36077,7 @@
         <v>0.95650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="8:28">
+    <row r="25" spans="2:28">
       <c r="I25">
         <v>0.94710000000000005</v>
       </c>
@@ -27548,7 +36118,7 @@
         <v>0.96489999999999998</v>
       </c>
     </row>
-    <row r="26" spans="8:28">
+    <row r="26" spans="2:28">
       <c r="I26">
         <v>0.94440000000000002</v>
       </c>
@@ -27589,13 +36159,13 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="28" spans="8:28">
+    <row r="28" spans="2:28">
       <c r="L28" s="42"/>
     </row>
-    <row r="29" spans="8:28">
+    <row r="29" spans="2:28">
       <c r="L29" s="42"/>
     </row>
-    <row r="30" spans="8:28">
+    <row r="30" spans="2:28">
       <c r="H30" t="s">
         <v>86</v>
       </c>
@@ -27660,7 +36230,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="31" spans="8:28">
+    <row r="31" spans="2:28">
       <c r="H31" t="s">
         <v>86</v>
       </c>
@@ -27723,6 +36293,280 @@
       </c>
       <c r="AB31">
         <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28">
+      <c r="B32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33">
+        <v>512</v>
+      </c>
+      <c r="H33" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1.01E-2</v>
+      </c>
+      <c r="N33">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="O33">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="P33">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="R33">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="S33">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="T33">
+        <v>0.98</v>
+      </c>
+      <c r="U33">
+        <v>0.97089999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35">
+        <v>512</v>
+      </c>
+      <c r="H35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" t="s">
+        <v>191</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="O35">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="P35">
+        <v>0.1197</v>
+      </c>
+      <c r="Q35">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="R35">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="S35">
+        <v>0.878</v>
+      </c>
+      <c r="T35">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="U35">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="V35">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36">
+        <v>512</v>
+      </c>
+      <c r="H36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" t="s">
+        <v>191</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="O36">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="P36">
+        <v>0.1129</v>
+      </c>
+      <c r="Q36">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="R36">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="S36">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="T36">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="U36">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="V36">
+        <v>0.95430000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37">
+        <v>512</v>
+      </c>
+      <c r="H37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1.66E-2</v>
+      </c>
+      <c r="O37">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="P37">
+        <v>0.113</v>
+      </c>
+      <c r="Q37">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="R37">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="S37">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="T37">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="U37">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="V37">
+        <v>0.95340000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/doc/performance_face.xlsx
+++ b/doc/performance_face.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xingbo_research_project\IoMArcFace\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEC1153-ED48-46AF-87A1-E35CCDE38770}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3058FDE-62D2-4742-9D73-E26E18F6A72C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20888,7 +20888,7 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/performance_face.xlsx
+++ b/doc/performance_face.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xingbo_research_project\IoMArcFace\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C75310C-A346-4473-ACD9-4DB673213F25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9917B323-1116-4958-A3C7-D88C7E7E635A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS-Machines" sheetId="7" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="128 riom" sheetId="4" r:id="rId5"/>
     <sheet name="Deep IoM" sheetId="3" r:id="rId6"/>
     <sheet name="Deep IoM 0618" sheetId="11" r:id="rId7"/>
-    <sheet name="512 riom 4 dist" sheetId="13" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="16" r:id="rId11"/>
+    <sheet name="Deep IoM0628" sheetId="17" r:id="rId8"/>
+    <sheet name="512 riom 4 dist" sheetId="13" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'128 riom'!$A$30:$D$148</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'512 riom 4 dist'!$A$223:$Q$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'512 riom 4 dist'!$A$223:$Q$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'512 riom LUT'!$A$2:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'512 riom LUT-2 '!$B$3:$Q$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'512 riom wo LUT'!$A$2:$L$24</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="214">
   <si>
     <t>Y.T.F</t>
   </si>
@@ -914,12 +915,6 @@
     <t>dist=Hamming</t>
   </si>
   <si>
-    <t xml:space="preserve">arctriplet hard arcmargin = 0 + tanh LUT loss </t>
-  </si>
-  <si>
-    <t xml:space="preserve">batch hard + tanh LUT loss </t>
-  </si>
-  <si>
     <r>
       <t>arctriplet hard arcmargin = 0 + tanh LUT loss +</t>
     </r>
@@ -972,6 +967,30 @@
   </si>
   <si>
     <r>
+      <t>arctriplet hard arcmargin = 0 + tanh LUT loss +</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> balance loss </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ quanti</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>arctriplet hard arcmargin = 0 +</t>
     </r>
     <r>
@@ -984,6 +1003,33 @@
       </rPr>
       <t xml:space="preserve"> balance loss</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + quanti</t>
+    </r>
+  </si>
+  <si>
+    <t>arctriplet hard arcmargin = 0 + tanh LUT loss  + quanti</t>
+  </si>
+  <si>
+    <t>batch hard + tanh LUT loss  + quanti</t>
+  </si>
+  <si>
+    <t>arc cos</t>
+  </si>
+  <si>
+    <t>LUT tanh</t>
+  </si>
+  <si>
+    <t>quanti</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,6 +1453,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1898,6 +1948,3444 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB32DF3-C205-4E18-869E-46555BE5E896}">
+  <dimension ref="A1:AB80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80:V80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1">
+        <v>512</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1">
+        <v>8</v>
+      </c>
+      <c r="H1">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="I1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="J1">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="K1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="L1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="M1">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="N1">
+        <v>9.01E-2</v>
+      </c>
+      <c r="O1">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="P1">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="Q1">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="R1">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="S1">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="T1">
+        <v>0.96489999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2">
+        <v>512</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.9859</v>
+      </c>
+      <c r="M2">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="N2">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="O2">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="P2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.9798</v>
+      </c>
+      <c r="R2">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="T2">
+        <v>0.9798</v>
+      </c>
+      <c r="U2">
+        <v>0.96650000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3">
+        <v>512</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="M3">
+        <v>1.03E-2</v>
+      </c>
+      <c r="N3">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="O3">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="U3">
+        <v>0.96960000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>512</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="L4">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>7.17E-2</v>
+      </c>
+      <c r="N4">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="P4">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="Q4">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="S4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="T4">
+        <v>0.9627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="H5">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.9859</v>
+      </c>
+      <c r="L5">
+        <v>1.03E-2</v>
+      </c>
+      <c r="M5">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="N5">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.9385</v>
+      </c>
+      <c r="Q5">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T5">
+        <v>0.96960000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="I6">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N6">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="O6">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.9325</v>
+      </c>
+      <c r="R6">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="S6">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="T6">
+        <v>0.9788</v>
+      </c>
+      <c r="U6">
+        <v>0.9637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="I7">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="J7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="M7">
+        <v>1.21E-2</v>
+      </c>
+      <c r="N7">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="O7">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="R7">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="S7">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="J8">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.9859</v>
+      </c>
+      <c r="L8">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="M8">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="N8">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="O8">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="P8">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="R8">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="S8">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="T8">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="U8">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="V8">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="J9">
+        <v>0.94</v>
+      </c>
+      <c r="K9">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="N9">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="O9">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="P9">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="S9">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="T9">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="U9">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="V9">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="J10">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="K10">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.9859</v>
+      </c>
+      <c r="N10">
+        <v>1.24E-2</v>
+      </c>
+      <c r="O10">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="P10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.9345</v>
+      </c>
+      <c r="S10">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="T10">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="U10">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="V10">
+        <v>0.9637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="J11">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="K11">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="N11">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="O11">
+        <v>6.3E-2</v>
+      </c>
+      <c r="P11">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="S11">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="T11">
+        <v>0.999</v>
+      </c>
+      <c r="U11">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="V11">
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="J12">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="L12">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="M12">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="N12">
+        <v>1.38E-2</v>
+      </c>
+      <c r="O12">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S12">
+        <v>0.9</v>
+      </c>
+      <c r="T12">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="U12">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="V12">
+        <v>0.96040000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="J13">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="K13">
+        <v>0.9869</v>
+      </c>
+      <c r="L13">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M13">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="N13">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="O13">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="P13">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="R13">
+        <v>0.9375</v>
+      </c>
+      <c r="S13">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="V13">
+        <v>0.9708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="J14">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="K14">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="L14">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="N14">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="O14">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="P14">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="R14">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="S14">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="T14">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="U14">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="V14">
+        <v>0.96389999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="I15">
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="J15">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="K15">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="L15">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="M15">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="N15">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="O15">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="Q15">
+        <v>0.9325</v>
+      </c>
+      <c r="R15">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="S15">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="T15">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="U15">
+        <v>0.96560000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="J16">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="K16">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="M16">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="N16">
+        <v>1.09E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="P16">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="R16">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="S16">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="T16">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="U16">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="V16">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="J17">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="K17">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="L17">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="M17">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="N17">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="O17">
+        <v>0.1726</v>
+      </c>
+      <c r="P17">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="R17">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="S17">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="T17">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="U17">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="V17">
+        <v>0.85229999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28">
+      <c r="K18">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="L18">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="M18">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="O18">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="P18">
+        <v>0.13070000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.1736</v>
+      </c>
+      <c r="R18">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="S18">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="T18">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="U18">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="V18">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="W18">
+        <v>0.90849999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="K19">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="M19">
+        <v>0.9577</v>
+      </c>
+      <c r="N19">
+        <v>0.9365</v>
+      </c>
+      <c r="O19">
+        <v>0.2016</v>
+      </c>
+      <c r="P19">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="Q19">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="T19">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="U19">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="V19">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="W19">
+        <v>0.71889999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28">
+      <c r="K20">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="L20">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="M20">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="N20">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O20">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="R20">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="S20">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="T20">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="U20">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="V20">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="W20">
+        <v>0.71579999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28">
+      <c r="J21">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="K21">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="L21">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="M21">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="N21">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="O21">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="P21">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="R21">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="S21">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="T21">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="U21">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="V21">
+        <v>0.97209999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28">
+      <c r="J22">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="K22">
+        <v>0.9849</v>
+      </c>
+      <c r="L22">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="M22">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="N22">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="O22">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="P22">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="R22">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="T22">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="U22">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="V22">
+        <v>0.95820000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28">
+      <c r="I23">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="J23">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="K23">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="L23">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M23">
+        <v>1.23E-2</v>
+      </c>
+      <c r="N23">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="O23">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="P23">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="R23">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="S23">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="T23">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="U23">
+        <v>0.96379999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28">
+      <c r="I24">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="J24">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="L24">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="M24">
+        <v>1.61E-2</v>
+      </c>
+      <c r="N24">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.1052</v>
+      </c>
+      <c r="P24">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="R24">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="S24">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="T24">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="U24">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28">
+      <c r="I25">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="J25">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="O25">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="P25">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="Q25">
+        <v>0.9375</v>
+      </c>
+      <c r="R25">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="S25">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="T25">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="U25">
+        <v>0.96489999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28">
+      <c r="I26">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="J26">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="K26">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="M26">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="N26">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="O26">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="P26">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="Q26">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="R26">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="S26">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="T26">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="U26">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="L28" s="42"/>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" t="s">
+        <v>173</v>
+      </c>
+      <c r="N30">
+        <v>512</v>
+      </c>
+      <c r="O30" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="U30">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="V30">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="W30">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="X30">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="Y30">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="Z30">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="AA30">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="AB30">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28">
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
+      <c r="L31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" t="s">
+        <v>173</v>
+      </c>
+      <c r="N31">
+        <v>512</v>
+      </c>
+      <c r="O31" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="U31">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="V31">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="W31">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="X31">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="Y31">
+        <v>0.9234</v>
+      </c>
+      <c r="Z31">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="AA31">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="AB31">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28">
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33">
+        <v>512</v>
+      </c>
+      <c r="H33" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1.01E-2</v>
+      </c>
+      <c r="N33">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="O33">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="P33">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="R33">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="S33">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="T33">
+        <v>0.98</v>
+      </c>
+      <c r="U33">
+        <v>0.97089999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35">
+        <v>512</v>
+      </c>
+      <c r="H35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" t="s">
+        <v>190</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="O35">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="P35">
+        <v>0.1197</v>
+      </c>
+      <c r="Q35">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="R35">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="S35">
+        <v>0.878</v>
+      </c>
+      <c r="T35">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="U35">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="V35">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36">
+        <v>512</v>
+      </c>
+      <c r="H36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="O36">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="P36">
+        <v>0.1129</v>
+      </c>
+      <c r="Q36">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="R36">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="S36">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="T36">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="U36">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="V36">
+        <v>0.95430000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37">
+        <v>512</v>
+      </c>
+      <c r="H37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" t="s">
+        <v>190</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1.66E-2</v>
+      </c>
+      <c r="O37">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="P37">
+        <v>0.113</v>
+      </c>
+      <c r="Q37">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="R37">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="S37">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="T37">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="U37">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="V37">
+        <v>0.95340000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38">
+        <v>512</v>
+      </c>
+      <c r="H38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="O38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P38">
+        <v>0.1099</v>
+      </c>
+      <c r="Q38">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="R38">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="S38">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="T38">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="U38">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="V38">
+        <v>0.95620000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39">
+        <v>512</v>
+      </c>
+      <c r="H39" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O39">
+        <v>0.1072</v>
+      </c>
+      <c r="P39">
+        <v>0.1399</v>
+      </c>
+      <c r="Q39">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="R39">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="S39">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="T39">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="U39">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="V39">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40">
+        <v>512</v>
+      </c>
+      <c r="H40" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" t="s">
+        <v>190</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="O40">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P40">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="R40">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="S40">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="T40">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="U40">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="V40">
+        <v>0.95820000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41">
+        <v>512</v>
+      </c>
+      <c r="H41" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" t="s">
+        <v>190</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1.95E-2</v>
+      </c>
+      <c r="O41">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="P41">
+        <v>0.1202</v>
+      </c>
+      <c r="Q41">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="R41">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="S41">
+        <v>0.87829999999999997</v>
+      </c>
+      <c r="T41">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="U41">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="V41">
+        <v>0.95069999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42">
+        <v>512</v>
+      </c>
+      <c r="H42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I42" t="s">
+        <v>190</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="O42">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="P42">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="Q42">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="R42">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="S42">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="T42">
+        <v>0.997</v>
+      </c>
+      <c r="U42">
+        <v>0.9637</v>
+      </c>
+      <c r="V42">
+        <v>0.94530000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43">
+        <v>512</v>
+      </c>
+      <c r="H43" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="O43">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="P43">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="R43">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="S43">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="T43">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="U43">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="V43">
+        <v>0.94159999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44">
+        <v>512</v>
+      </c>
+      <c r="H44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1.46E-2</v>
+      </c>
+      <c r="O44">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="P44">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="Q44">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="R44">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="S44">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="T44">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="U44">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="V44">
+        <v>0.95489999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45">
+        <v>512</v>
+      </c>
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45" t="s">
+        <v>199</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="O45">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="P45">
+        <v>0.1108</v>
+      </c>
+      <c r="Q45">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="R45">
+        <v>0.92</v>
+      </c>
+      <c r="S45">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="T45">
+        <v>0.998</v>
+      </c>
+      <c r="U45">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="V45">
+        <v>0.95579999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>176</v>
+      </c>
+      <c r="J48" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0.1021</v>
+      </c>
+      <c r="P48">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="Q48">
+        <v>0.247</v>
+      </c>
+      <c r="R48">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="S48">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="T48">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="U48">
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="V48">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="W48">
+        <v>0.83209999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23">
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>64</v>
+      </c>
+      <c r="I50" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" t="s">
+        <v>190</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="P50">
+        <v>0.1552</v>
+      </c>
+      <c r="Q50">
+        <v>0.1885</v>
+      </c>
+      <c r="R50">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="S50">
+        <v>0.8417</v>
+      </c>
+      <c r="T50">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="U50">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="V50">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="W50">
+        <v>0.89170000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23">
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>128</v>
+      </c>
+      <c r="I52" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" t="s">
+        <v>190</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="P52">
+        <v>0.1142</v>
+      </c>
+      <c r="Q52">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="R52">
+        <v>0.9698</v>
+      </c>
+      <c r="S52">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="T52">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="U52">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="V52">
+        <v>0.9516</v>
+      </c>
+      <c r="W52">
+        <v>0.93379999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23">
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>256</v>
+      </c>
+      <c r="I54" t="s">
+        <v>176</v>
+      </c>
+      <c r="J54" t="s">
+        <v>190</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="P54">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="Q54">
+        <v>0.1079</v>
+      </c>
+      <c r="R54">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="S54">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="T54">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="U54">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="V54">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="W54">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23">
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>512</v>
+      </c>
+      <c r="I56" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" t="s">
+        <v>190</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1.26E-2</v>
+      </c>
+      <c r="P56">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Q56">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="R56">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="S56">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="T56">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="U56">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="V56">
+        <v>0.9778</v>
+      </c>
+      <c r="W56">
+        <v>0.96489999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23">
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1024</v>
+      </c>
+      <c r="I58" t="s">
+        <v>176</v>
+      </c>
+      <c r="J58" t="s">
+        <v>190</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1.09E-2</v>
+      </c>
+      <c r="P58">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="Q58">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="R58">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="S58">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="T58">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="U58">
+        <v>0.999</v>
+      </c>
+      <c r="V58">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="W58">
+        <v>0.96830000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23">
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>2048</v>
+      </c>
+      <c r="I60" t="s">
+        <v>176</v>
+      </c>
+      <c r="J60" t="s">
+        <v>190</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="P60">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="Q60">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="R60">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="S60">
+        <v>0.9415</v>
+      </c>
+      <c r="T60">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="U60">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="V60">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="W60">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23">
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>512</v>
+      </c>
+      <c r="I62" t="s">
+        <v>176</v>
+      </c>
+      <c r="J62" t="s">
+        <v>190</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1.47E-2</v>
+      </c>
+      <c r="P62">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="Q62">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="R62">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="S62">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="T62">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="U62">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="V62">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="W62">
+        <v>0.96389999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23">
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>512</v>
+      </c>
+      <c r="I64" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" t="s">
+        <v>190</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="P64">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="Q64">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="R64">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="S64">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="T64">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="U64">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="V64">
+        <v>0.9788</v>
+      </c>
+      <c r="W64">
+        <v>0.96209999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>512</v>
+      </c>
+      <c r="I66" t="s">
+        <v>178</v>
+      </c>
+      <c r="J66" t="s">
+        <v>190</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1.12E-2</v>
+      </c>
+      <c r="P66">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="Q66">
+        <v>9.69E-2</v>
+      </c>
+      <c r="R66">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="S66">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="T66">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="U66">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="V66">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="W66">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>512</v>
+      </c>
+      <c r="I68" t="s">
+        <v>179</v>
+      </c>
+      <c r="J68" t="s">
+        <v>190</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1.06E-2</v>
+      </c>
+      <c r="P68">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="Q68">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="R68">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="S68">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="T68">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="U68">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="V68">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="W68">
+        <v>0.96350000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>512</v>
+      </c>
+      <c r="I70" t="s">
+        <v>180</v>
+      </c>
+      <c r="J70" t="s">
+        <v>190</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1.03E-2</v>
+      </c>
+      <c r="P70">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="Q70">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="R70">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="S70">
+        <v>0.9355</v>
+      </c>
+      <c r="T70">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="U70">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="V70">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="W70">
+        <v>0.96340000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72">
+        <v>12</v>
+      </c>
+      <c r="H72">
+        <v>512</v>
+      </c>
+      <c r="I72" t="s">
+        <v>181</v>
+      </c>
+      <c r="J72" t="s">
+        <v>190</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1.11E-2</v>
+      </c>
+      <c r="P72">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="Q72">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="R72">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="S72">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="T72">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="U72">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="V72">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="W72">
+        <v>0.95779999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74">
+        <v>16</v>
+      </c>
+      <c r="H74">
+        <v>512</v>
+      </c>
+      <c r="I74" t="s">
+        <v>183</v>
+      </c>
+      <c r="J74" t="s">
+        <v>190</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1.26E-2</v>
+      </c>
+      <c r="P74">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="Q74">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="R74">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="S74">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="T74">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="U74">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="V74">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="W74">
+        <v>0.96060000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" t="s">
+        <v>173</v>
+      </c>
+      <c r="G75">
+        <v>512</v>
+      </c>
+      <c r="H75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I75" t="s">
+        <v>190</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="O75">
+        <v>6.93E-2</v>
+      </c>
+      <c r="P75">
+        <v>9.11E-2</v>
+      </c>
+      <c r="Q75">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="R75">
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="S75">
+        <v>0.9123</v>
+      </c>
+      <c r="T75">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="U75">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="V75">
+        <v>0.9657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" t="s">
+        <v>173</v>
+      </c>
+      <c r="G76">
+        <v>512</v>
+      </c>
+      <c r="H76" t="s">
+        <v>179</v>
+      </c>
+      <c r="I76" t="s">
+        <v>190</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O76">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="P76">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="Q76">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="R76">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="S76">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="T76">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="U76">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="V76">
+        <v>0.97030000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" t="s">
+        <v>173</v>
+      </c>
+      <c r="G77">
+        <v>512</v>
+      </c>
+      <c r="H77" t="s">
+        <v>179</v>
+      </c>
+      <c r="I77" t="s">
+        <v>190</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="O77">
+        <v>6.13E-2</v>
+      </c>
+      <c r="P77">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Q77">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="R77">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="S77">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="T77">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="U77">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="V77">
+        <v>0.96970000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" t="s">
+        <v>173</v>
+      </c>
+      <c r="G78">
+        <v>512</v>
+      </c>
+      <c r="H78" t="s">
+        <v>179</v>
+      </c>
+      <c r="I78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0.01</v>
+      </c>
+      <c r="O78">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="P78">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="Q78">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="R78">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="S78">
+        <v>0.91990000000000005</v>
+      </c>
+      <c r="T78">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="U78">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="V78">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79">
+        <v>512</v>
+      </c>
+      <c r="H79" t="s">
+        <v>174</v>
+      </c>
+      <c r="I79" t="s">
+        <v>199</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1.09E-2</v>
+      </c>
+      <c r="O79">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="P79">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q79">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="R79">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="S79">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="T79">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="U79">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="V79">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" t="s">
+        <v>173</v>
+      </c>
+      <c r="G80">
+        <v>512</v>
+      </c>
+      <c r="H80" t="s">
+        <v>179</v>
+      </c>
+      <c r="I80" t="s">
+        <v>190</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="O80">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="P80">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="Q80">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="R80">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="S80">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="T80">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="U80">
+        <v>0.98</v>
+      </c>
+      <c r="V80">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47C9538-EDBA-49B6-B199-3A527D479C32}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2078,7 +5566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64004928-5BC4-421A-BA17-FACD158F99BD}">
   <dimension ref="A1:W49"/>
   <sheetViews>
@@ -17759,8 +21247,8 @@
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <pane ySplit="11" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20885,10 +24373,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C05117-9D59-4433-A78F-73924040633A}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -21369,7 +24857,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D13" s="57">
         <v>2</v>
@@ -21708,7 +25196,7 @@
         <v>113</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="57">
@@ -21759,7 +25247,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" s="57" t="s">
         <v>187</v>
@@ -21813,7 +25301,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -21865,7 +25353,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>90</v>
@@ -21918,7 +25406,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B27" s="61" t="s">
         <v>188</v>
@@ -21971,7 +25459,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D28" s="57">
         <v>10</v>
@@ -22021,7 +25509,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="71" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
@@ -22033,7 +25521,7 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1">
       <c r="A31" s="71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B31" s="65" t="s">
         <v>193</v>
@@ -22050,7 +25538,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B32" s="61" t="s">
         <v>196</v>
@@ -22101,7 +25589,7 @@
         <v>0.94530000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:18">
       <c r="A33" s="69" t="s">
         <v>113</v>
       </c>
@@ -22151,9 +25639,9 @@
         <v>0.95620000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:18">
       <c r="A34" s="69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D34" s="57">
         <v>10</v>
@@ -22201,9 +25689,9 @@
         <v>0.95069999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="29.25">
+    <row r="36" spans="1:18" ht="29.25">
       <c r="A36" s="71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B36" s="65" t="s">
         <v>193</v>
@@ -22218,9 +25706,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:18">
       <c r="A37" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B37" s="61" t="s">
         <v>197</v>
@@ -22259,7 +25747,7 @@
         <v>0.94159999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:18">
       <c r="A38" s="69" t="s">
         <v>113</v>
       </c>
@@ -22297,9 +25785,9 @@
         <v>0.95489999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:18">
       <c r="A39" s="69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D39" s="57">
         <v>10</v>
@@ -22335,17 +25823,32 @@
         <v>0.95579999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-    </row>
-    <row r="41" spans="1:19">
+    <row r="40" spans="1:18">
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="69" t="s">
         <v>113</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D41" s="57">
         <v>8</v>
@@ -22354,39 +25857,39 @@
         <v>512</v>
       </c>
       <c r="J41" s="52">
-        <v>9.4000000000000004E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="K41" s="52">
-        <v>6.93E-2</v>
+        <v>6.13E-2</v>
       </c>
       <c r="L41" s="52">
-        <v>9.11E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="M41">
-        <v>0.99129999999999996</v>
+        <v>0.99170000000000003</v>
       </c>
       <c r="N41">
-        <v>0.92979999999999996</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="O41">
-        <v>0.9123</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="P41">
         <v>0.99909999999999999</v>
       </c>
       <c r="Q41">
-        <v>0.98009999999999997</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="R41">
-        <v>0.9657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>0.96970000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D42" s="57">
         <v>8</v>
@@ -22394,16 +25897,40 @@
       <c r="E42" s="57">
         <v>512</v>
       </c>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="J42" s="52">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K42" s="52">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="L42" s="52">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="M42">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="N42">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="O42">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="P42">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="Q42">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="R42">
+        <v>0.97030000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D43" s="57">
         <v>8</v>
@@ -22411,16 +25938,43 @@
       <c r="E43" s="57">
         <v>512</v>
       </c>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="J43" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="K43" s="52">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="L43" s="52">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="M43">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="N43">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="O43">
+        <v>0.91990000000000005</v>
+      </c>
+      <c r="P43">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="R43">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>201</v>
+        <v>209</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>172</v>
       </c>
       <c r="D44" s="57">
         <v>8</v>
@@ -22428,244 +25982,423 @@
       <c r="E44" s="57">
         <v>512</v>
       </c>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-    </row>
-    <row r="47" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="30">
-        <v>2</v>
-      </c>
-      <c r="E47" s="30">
+      <c r="J44" s="52">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="K44" s="52">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="L44" s="52">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="M44">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="N44">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="O44">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="P44">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="Q44">
+        <v>0.98</v>
+      </c>
+      <c r="R44">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="71"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="J45" s="52">
+        <v>1.09E-2</v>
+      </c>
+      <c r="K45" s="52">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="L45" s="52">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="N45">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="O45">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="P45">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="Q45">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="R45">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="76" customFormat="1">
+      <c r="B46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57">
+        <v>8</v>
+      </c>
+      <c r="E47" s="57">
         <v>512</v>
       </c>
-      <c r="F47" s="20">
-        <v>0.94069999999999998</v>
-      </c>
-      <c r="G47" s="20">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="H47" s="20">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="I47" s="20">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="J47" s="19">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="K47" s="19">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="L47" s="19">
-        <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="M47" s="20">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="N47" s="20">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="O47" s="20">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="P47" s="14"/>
-      <c r="S47" s="14"/>
-    </row>
-    <row r="48" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A48" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="13">
-        <v>2</v>
-      </c>
-      <c r="E48" s="13">
-        <v>512</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.94430000000000003</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.99070000000000003</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="J48" s="17">
-        <v>1.17E-2</v>
-      </c>
-      <c r="K48" s="17">
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="L48" s="17">
-        <v>9.0800000000000006E-2</v>
-      </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3">
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="S48" s="14"/>
-    </row>
-    <row r="49" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1">
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="14"/>
-      <c r="S49" s="14"/>
+      <c r="F47" s="61">
+        <v>0</v>
+      </c>
+      <c r="G47" s="61">
+        <v>0</v>
+      </c>
+      <c r="H47" s="61">
+        <v>0</v>
+      </c>
+      <c r="I47" s="61">
+        <v>0</v>
+      </c>
+      <c r="J47" s="62">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="K47" s="62">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="L47" s="62">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="M47" s="61">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="N47" s="61">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="O47" s="61">
+        <v>0.9234</v>
+      </c>
+      <c r="P47" s="61">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="Q47" s="61">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="R47" s="61">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="69"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
     </row>
     <row r="50" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="30">
+        <v>2</v>
+      </c>
+      <c r="E50" s="30">
+        <v>512</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="H50" s="20">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="I50" s="20">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="J50" s="19">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="K50" s="19">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="L50" s="19">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="M50" s="20">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="N50" s="20">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="O50" s="20">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="P50" s="14"/>
+      <c r="S50" s="14"/>
+    </row>
+    <row r="51" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2</v>
+      </c>
+      <c r="E51" s="13">
+        <v>512</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="J51" s="17">
+        <v>1.17E-2</v>
+      </c>
+      <c r="K51" s="17">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="L51" s="17">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="S51" s="14"/>
+    </row>
+    <row r="52" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="14"/>
+      <c r="S52" s="14"/>
+    </row>
+    <row r="53" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A53" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B53" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C53" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D53" s="25">
         <v>2</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E53" s="25">
         <v>512</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F53" s="3">
         <v>0.93920000000000003</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G53" s="3">
         <v>0.98580000000000001</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H53" s="3">
         <v>0.98660000000000003</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I53" s="3">
         <v>0.98860000000000003</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J53" s="19">
         <v>1.09E-2</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K53" s="19">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L53" s="19">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M53" s="3">
         <v>0.99050000000000005</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N53" s="3">
         <v>0.93920000000000003</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O53" s="3">
         <v>0.92490000000000006</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P53" s="3">
         <v>0.99909999999999999</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="Q53" s="3">
         <v>0.98129999999999995</v>
       </c>
-      <c r="R50" s="3">
+      <c r="R53" s="3">
         <v>0.9718</v>
       </c>
-      <c r="S50" s="14"/>
-    </row>
-    <row r="51" spans="1:19" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A51" s="25" t="s">
+      <c r="S53" s="14"/>
+    </row>
+    <row r="54" spans="1:19" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A54" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B54" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C54" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D54" s="25">
         <v>2</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E54" s="25">
         <v>512</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F54" s="3">
         <v>0.94</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G54" s="3">
         <v>0.98709999999999998</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H54" s="3">
         <v>0.98580000000000001</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I54" s="3">
         <v>0.99129999999999996</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J54" s="17">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K54" s="17">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L54" s="19">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M54" s="3">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N54" s="3">
         <v>0.93979999999999997</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O54" s="3">
         <v>0.92210000000000003</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P54" s="3">
         <v>0.99919999999999998</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q54" s="3">
         <v>0.98119999999999996</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R54" s="3">
         <v>0.97019999999999995</v>
       </c>
-      <c r="S51" s="40"/>
+      <c r="S54" s="40"/>
+    </row>
+    <row r="55" spans="1:19" s="76" customFormat="1"/>
+    <row r="56" spans="1:19">
+      <c r="A56" s="69"/>
+      <c r="B56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="69"/>
+      <c r="B57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="70"/>
+      <c r="B58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="71"/>
+      <c r="B59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="B60" s="57"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="69"/>
+      <c r="B62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="69"/>
+      <c r="B63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="70"/>
+      <c r="B64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -22677,6 +26410,78 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K8">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L8">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:K13 K22:K23 K3:K4">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L13 L22:L28 L3:L4">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J13 J22:J30 J3:J4">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J1048576 J39:J46 J1:J13 J22:J31 J49">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -22688,7 +26493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K8">
+  <conditionalFormatting sqref="K55:K1048576 K39:K46 K1:K13 K22:K31 K49">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -22700,7 +26505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L8">
+  <conditionalFormatting sqref="L55:L1048576 L39:L46 L1:L13 L22:L31 L49">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -22712,8 +26517,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:K13 K22:K23 K3:K4">
-    <cfRule type="colorScale" priority="53">
+  <conditionalFormatting sqref="J14:J20">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -22724,8 +26529,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L13 L22:L28 L3:L4">
-    <cfRule type="colorScale" priority="55">
+  <conditionalFormatting sqref="K14:K20">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -22736,8 +26541,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J13 J22:J30 J3:J4">
-    <cfRule type="colorScale" priority="57">
+  <conditionalFormatting sqref="L14:L20">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -22748,7 +26553,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:J46 J1:J13 J22:J31 J52:J1048576">
+  <conditionalFormatting sqref="K21">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -22760,31 +26589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K46 K1:K13 K22:K31 K52:K1048576">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L39:L46 L1:L13 L22:L31 L52:L1048576">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J20">
+  <conditionalFormatting sqref="J21">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -22796,7 +26601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K20">
+  <conditionalFormatting sqref="K21">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -22808,7 +26613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L20">
+  <conditionalFormatting sqref="L21">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -22820,7 +26625,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="K50">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -22832,31 +26661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="K51">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -22868,7 +26673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="L51">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -22880,7 +26685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="J51">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -22892,43 +26697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L47">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="K53">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -22940,7 +26709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
+  <conditionalFormatting sqref="L53">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -22952,7 +26721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="J53">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -22964,7 +26733,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
+  <conditionalFormatting sqref="K54">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -22976,7 +26781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
+  <conditionalFormatting sqref="L52">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -22988,7 +26793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="J52">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -23000,7 +26805,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
+  <conditionalFormatting sqref="K47:K48">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:L48">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:J48">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -23012,31 +26841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="J47:J48">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -23048,7 +26853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
+  <conditionalFormatting sqref="K47:K48">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -23060,7 +26865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="L47:L48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -23078,6 +26883,110 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38772BD1-2B5C-45F1-8337-4EB35E9FFF3B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492AA315-DA7C-4FC0-84D5-2E74DBCB4D50}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BP288"/>
@@ -43536,3102 +47445,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB32DF3-C205-4E18-869E-46555BE5E896}">
-  <dimension ref="A1:AB75"/>
-  <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75:V75"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1">
-        <v>512</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1">
-        <v>8</v>
-      </c>
-      <c r="H1">
-        <v>0.94240000000000002</v>
-      </c>
-      <c r="I1">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="J1">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="K1">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="L1">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="M1">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="N1">
-        <v>9.01E-2</v>
-      </c>
-      <c r="O1">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="P1">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="Q1">
-        <v>0.96489999999999998</v>
-      </c>
-      <c r="R1">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="S1">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="T1">
-        <v>0.96489999999999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2">
-        <v>512</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>0.94040000000000001</v>
-      </c>
-      <c r="J2">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="K2">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.9859</v>
-      </c>
-      <c r="M2">
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="N2">
-        <v>6.1100000000000002E-2</v>
-      </c>
-      <c r="O2">
-        <v>8.8099999999999998E-2</v>
-      </c>
-      <c r="P2">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="Q2">
-        <v>0.9798</v>
-      </c>
-      <c r="R2">
-        <v>0.96650000000000003</v>
-      </c>
-      <c r="S2">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="T2">
-        <v>0.9798</v>
-      </c>
-      <c r="U2">
-        <v>0.96650000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3">
-        <v>512</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="J3">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="K3">
-        <v>0.98470000000000002</v>
-      </c>
-      <c r="L3">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="M3">
-        <v>1.03E-2</v>
-      </c>
-      <c r="N3">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="O3">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="P3">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="Q3">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="R3">
-        <v>0.96960000000000002</v>
-      </c>
-      <c r="S3">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="T3">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="U3">
-        <v>0.96960000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4">
-        <v>512</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>0.94369999999999998</v>
-      </c>
-      <c r="I4">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="J4">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="K4">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="L4">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="M4">
-        <v>7.17E-2</v>
-      </c>
-      <c r="N4">
-        <v>9.7299999999999998E-2</v>
-      </c>
-      <c r="O4">
-        <v>0.98850000000000005</v>
-      </c>
-      <c r="P4">
-        <v>0.93079999999999996</v>
-      </c>
-      <c r="Q4">
-        <v>0.90710000000000002</v>
-      </c>
-      <c r="R4">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="S4">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="T4">
-        <v>0.9627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="H5">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="I5">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="J5">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="K5">
-        <v>0.9859</v>
-      </c>
-      <c r="L5">
-        <v>1.03E-2</v>
-      </c>
-      <c r="M5">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="N5">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="O5">
-        <v>0.99070000000000003</v>
-      </c>
-      <c r="P5">
-        <v>0.9385</v>
-      </c>
-      <c r="Q5">
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="R5">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="S5">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="T5">
-        <v>0.96960000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="I6">
-        <v>0.94869999999999999</v>
-      </c>
-      <c r="J6">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="K6">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="L6">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N6">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="O6">
-        <v>9.4200000000000006E-2</v>
-      </c>
-      <c r="P6">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>0.9325</v>
-      </c>
-      <c r="R6">
-        <v>0.90890000000000004</v>
-      </c>
-      <c r="S6">
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="T6">
-        <v>0.9788</v>
-      </c>
-      <c r="U6">
-        <v>0.9637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="I7">
-        <v>0.93420000000000003</v>
-      </c>
-      <c r="J7">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="K7">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="L7">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="M7">
-        <v>1.21E-2</v>
-      </c>
-      <c r="N7">
-        <v>6.7100000000000007E-2</v>
-      </c>
-      <c r="O7">
-        <v>9.1700000000000004E-2</v>
-      </c>
-      <c r="P7">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="Q7">
-        <v>0.93369999999999997</v>
-      </c>
-      <c r="R7">
-        <v>0.91069999999999995</v>
-      </c>
-      <c r="S7">
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="T7">
-        <v>0.97889999999999999</v>
-      </c>
-      <c r="U7">
-        <v>0.96289999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="J8">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.9859</v>
-      </c>
-      <c r="L8">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="M8">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="N8">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="O8">
-        <v>7.8600000000000003E-2</v>
-      </c>
-      <c r="P8">
-        <v>9.4100000000000003E-2</v>
-      </c>
-      <c r="Q8">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="R8">
-        <v>0.92679999999999996</v>
-      </c>
-      <c r="S8">
-        <v>0.90790000000000004</v>
-      </c>
-      <c r="T8">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="U8">
-        <v>0.97609999999999997</v>
-      </c>
-      <c r="V8">
-        <v>0.96289999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="J9">
-        <v>0.94</v>
-      </c>
-      <c r="K9">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="L9">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="M9">
-        <v>0.99129999999999996</v>
-      </c>
-      <c r="N9">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="O9">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="P9">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="Q9">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="R9">
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="S9">
-        <v>0.92210000000000003</v>
-      </c>
-      <c r="T9">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="U9">
-        <v>0.98119999999999996</v>
-      </c>
-      <c r="V9">
-        <v>0.97019999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="J10">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="K10">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="L10">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="M10">
-        <v>0.9859</v>
-      </c>
-      <c r="N10">
-        <v>1.24E-2</v>
-      </c>
-      <c r="O10">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="P10">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="Q10">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="R10">
-        <v>0.9345</v>
-      </c>
-      <c r="S10">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="T10">
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="U10">
-        <v>0.97760000000000002</v>
-      </c>
-      <c r="V10">
-        <v>0.9637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="J11">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="K11">
-        <v>0.98619999999999997</v>
-      </c>
-      <c r="L11">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="N11">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="O11">
-        <v>6.3E-2</v>
-      </c>
-      <c r="P11">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="Q11">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="R11">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="S11">
-        <v>0.92069999999999996</v>
-      </c>
-      <c r="T11">
-        <v>0.999</v>
-      </c>
-      <c r="U11">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="V11">
-        <v>0.97119999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="J12">
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="K12">
-        <v>0.98509999999999998</v>
-      </c>
-      <c r="L12">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="M12">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="N12">
-        <v>1.38E-2</v>
-      </c>
-      <c r="O12">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="P12">
-        <v>0.10150000000000001</v>
-      </c>
-      <c r="Q12">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="R12">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="S12">
-        <v>0.9</v>
-      </c>
-      <c r="T12">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="U12">
-        <v>0.97660000000000002</v>
-      </c>
-      <c r="V12">
-        <v>0.96040000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="J13">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="K13">
-        <v>0.9869</v>
-      </c>
-      <c r="L13">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M13">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="N13">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="O13">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="P13">
-        <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="Q13">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="R13">
-        <v>0.9375</v>
-      </c>
-      <c r="S13">
-        <v>0.92230000000000001</v>
-      </c>
-      <c r="T13">
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="U13">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="V13">
-        <v>0.9708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="J14">
-        <v>0.93120000000000003</v>
-      </c>
-      <c r="K14">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="L14">
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="M14">
-        <v>0.98440000000000005</v>
-      </c>
-      <c r="N14">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="O14">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="P14">
-        <v>9.6699999999999994E-2</v>
-      </c>
-      <c r="Q14">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="R14">
-        <v>0.92820000000000003</v>
-      </c>
-      <c r="S14">
-        <v>0.90790000000000004</v>
-      </c>
-      <c r="T14">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="U14">
-        <v>0.97819999999999996</v>
-      </c>
-      <c r="V14">
-        <v>0.96389999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="I15">
-        <v>0.94330000000000003</v>
-      </c>
-      <c r="J15">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="K15">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="L15">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="M15">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="N15">
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="O15">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="P15">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="Q15">
-        <v>0.9325</v>
-      </c>
-      <c r="R15">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="S15">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="T15">
-        <v>0.97950000000000004</v>
-      </c>
-      <c r="U15">
-        <v>0.96560000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="J16">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="K16">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="L16">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="M16">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="N16">
-        <v>1.09E-2</v>
-      </c>
-      <c r="O16">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="P16">
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="Q16">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="R16">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="S16">
-        <v>0.92490000000000006</v>
-      </c>
-      <c r="T16">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="U16">
-        <v>0.98129999999999995</v>
-      </c>
-      <c r="V16">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28">
-      <c r="J17">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="K17">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="L17">
-        <v>0.93259999999999998</v>
-      </c>
-      <c r="M17">
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="N17">
-        <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="O17">
-        <v>0.1726</v>
-      </c>
-      <c r="P17">
-        <v>0.22889999999999999</v>
-      </c>
-      <c r="Q17">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="R17">
-        <v>0.82930000000000004</v>
-      </c>
-      <c r="S17">
-        <v>0.77170000000000005</v>
-      </c>
-      <c r="T17">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="U17">
-        <v>0.91010000000000002</v>
-      </c>
-      <c r="V17">
-        <v>0.85229999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28">
-      <c r="K18">
-        <v>0.89529999999999998</v>
-      </c>
-      <c r="L18">
-        <v>0.96020000000000005</v>
-      </c>
-      <c r="M18">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="O18">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="P18">
-        <v>0.13070000000000001</v>
-      </c>
-      <c r="Q18">
-        <v>0.1736</v>
-      </c>
-      <c r="R18">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="S18">
-        <v>0.87270000000000003</v>
-      </c>
-      <c r="T18">
-        <v>0.82789999999999997</v>
-      </c>
-      <c r="U18">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="V18">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="W18">
-        <v>0.90849999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28">
-      <c r="K19">
-        <v>0.91020000000000001</v>
-      </c>
-      <c r="L19">
-        <v>0.91069999999999995</v>
-      </c>
-      <c r="M19">
-        <v>0.9577</v>
-      </c>
-      <c r="N19">
-        <v>0.9365</v>
-      </c>
-      <c r="O19">
-        <v>0.2016</v>
-      </c>
-      <c r="P19">
-        <v>0.35470000000000002</v>
-      </c>
-      <c r="Q19">
-        <v>0.33629999999999999</v>
-      </c>
-      <c r="R19">
-        <v>0.80220000000000002</v>
-      </c>
-      <c r="S19">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="T19">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="U19">
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="V19">
-        <v>0.71050000000000002</v>
-      </c>
-      <c r="W19">
-        <v>0.71889999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28">
-      <c r="K20">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="L20">
-        <v>0.92879999999999996</v>
-      </c>
-      <c r="M20">
-        <v>0.96889999999999998</v>
-      </c>
-      <c r="N20">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O20">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="P20">
-        <v>0.35489999999999999</v>
-      </c>
-      <c r="Q20">
-        <v>0.34150000000000003</v>
-      </c>
-      <c r="R20">
-        <v>0.80130000000000001</v>
-      </c>
-      <c r="S20">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="T20">
-        <v>0.66859999999999997</v>
-      </c>
-      <c r="U20">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="V20">
-        <v>0.70450000000000002</v>
-      </c>
-      <c r="W20">
-        <v>0.71579999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28">
-      <c r="J21">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="K21">
-        <v>0.98570000000000002</v>
-      </c>
-      <c r="L21">
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="M21">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="N21">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="O21">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="P21">
-        <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="Q21">
-        <v>0.99019999999999997</v>
-      </c>
-      <c r="R21">
-        <v>0.93769999999999998</v>
-      </c>
-      <c r="S21">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="T21">
-        <v>0.99929999999999997</v>
-      </c>
-      <c r="U21">
-        <v>0.98089999999999999</v>
-      </c>
-      <c r="V21">
-        <v>0.97209999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28">
-      <c r="J22">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="K22">
-        <v>0.9849</v>
-      </c>
-      <c r="L22">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="M22">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="N22">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="O22">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="P22">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="Q22">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="R22">
-        <v>0.92220000000000002</v>
-      </c>
-      <c r="S22">
-        <v>0.89929999999999999</v>
-      </c>
-      <c r="T22">
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="U22">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="V22">
-        <v>0.95820000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28">
-      <c r="I23">
-        <v>0.94189999999999996</v>
-      </c>
-      <c r="J23">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="K23">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="L23">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M23">
-        <v>1.23E-2</v>
-      </c>
-      <c r="N23">
-        <v>6.7100000000000007E-2</v>
-      </c>
-      <c r="O23">
-        <v>9.4299999999999995E-2</v>
-      </c>
-      <c r="P23">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="Q23">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="R23">
-        <v>0.90939999999999999</v>
-      </c>
-      <c r="S23">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="T23">
-        <v>0.97960000000000003</v>
-      </c>
-      <c r="U23">
-        <v>0.96379999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28">
-      <c r="I24">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="J24">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="K24">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="L24">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="M24">
-        <v>1.61E-2</v>
-      </c>
-      <c r="N24">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="O24">
-        <v>0.1052</v>
-      </c>
-      <c r="P24">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="Q24">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="R24">
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="S24">
-        <v>0.99780000000000002</v>
-      </c>
-      <c r="T24">
-        <v>0.97419999999999995</v>
-      </c>
-      <c r="U24">
-        <v>0.95650000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28">
-      <c r="I25">
-        <v>0.94710000000000005</v>
-      </c>
-      <c r="J25">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="K25">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="L25">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M25">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N25">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="O25">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="P25">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="Q25">
-        <v>0.9375</v>
-      </c>
-      <c r="R25">
-        <v>0.91410000000000002</v>
-      </c>
-      <c r="S25">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="T25">
-        <v>0.97960000000000003</v>
-      </c>
-      <c r="U25">
-        <v>0.96489999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28">
-      <c r="I26">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="J26">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="K26">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="L26">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="M26">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="N26">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="O26">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="P26">
-        <v>0.99180000000000001</v>
-      </c>
-      <c r="Q26">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="R26">
-        <v>0.91869999999999996</v>
-      </c>
-      <c r="S26">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="T26">
-        <v>0.98180000000000001</v>
-      </c>
-      <c r="U26">
-        <v>0.97299999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28">
-      <c r="L28" s="42"/>
-    </row>
-    <row r="29" spans="2:28">
-      <c r="L29" s="42"/>
-    </row>
-    <row r="30" spans="2:28">
-      <c r="H30" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30">
-        <v>10</v>
-      </c>
-      <c r="L30" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" t="s">
-        <v>173</v>
-      </c>
-      <c r="N30">
-        <v>512</v>
-      </c>
-      <c r="O30" t="s">
-        <v>174</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="U30">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="V30">
-        <v>8.1699999999999995E-2</v>
-      </c>
-      <c r="W30">
-        <v>0.99129999999999996</v>
-      </c>
-      <c r="X30">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="Y30">
-        <v>0.92369999999999997</v>
-      </c>
-      <c r="Z30">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="AA30">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="AB30">
-        <v>0.97299999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28">
-      <c r="H31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" t="s">
-        <v>173</v>
-      </c>
-      <c r="K31">
-        <v>8</v>
-      </c>
-      <c r="L31" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N31">
-        <v>512</v>
-      </c>
-      <c r="O31" t="s">
-        <v>174</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="U31">
-        <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="V31">
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="W31">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="X31">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="Y31">
-        <v>0.9234</v>
-      </c>
-      <c r="Z31">
-        <v>0.99929999999999997</v>
-      </c>
-      <c r="AA31">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="AB31">
-        <v>0.97330000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28">
-      <c r="B32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33">
-        <v>512</v>
-      </c>
-      <c r="H33" t="s">
-        <v>174</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>1.01E-2</v>
-      </c>
-      <c r="N33">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="O33">
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="P33">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="Q33">
-        <v>0.93030000000000002</v>
-      </c>
-      <c r="R33">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="S33">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="T33">
-        <v>0.98</v>
-      </c>
-      <c r="U33">
-        <v>0.97089999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35">
-        <v>512</v>
-      </c>
-      <c r="H35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="O35">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="P35">
-        <v>0.1197</v>
-      </c>
-      <c r="Q35">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="R35">
-        <v>0.91649999999999998</v>
-      </c>
-      <c r="S35">
-        <v>0.878</v>
-      </c>
-      <c r="T35">
-        <v>0.99780000000000002</v>
-      </c>
-      <c r="U35">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="V35">
-        <v>0.95309999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36">
-        <v>512</v>
-      </c>
-      <c r="H36" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" t="s">
-        <v>190</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="O36">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="P36">
-        <v>0.1129</v>
-      </c>
-      <c r="Q36">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="R36">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="S36">
-        <v>0.88990000000000002</v>
-      </c>
-      <c r="T36">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="U36">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="V36">
-        <v>0.95430000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37">
-        <v>512</v>
-      </c>
-      <c r="H37" t="s">
-        <v>177</v>
-      </c>
-      <c r="I37" t="s">
-        <v>190</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>1.66E-2</v>
-      </c>
-      <c r="O37">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="P37">
-        <v>0.113</v>
-      </c>
-      <c r="Q37">
-        <v>0.98470000000000002</v>
-      </c>
-      <c r="R37">
-        <v>0.92949999999999999</v>
-      </c>
-      <c r="S37">
-        <v>0.89070000000000005</v>
-      </c>
-      <c r="T37">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="U37">
-        <v>0.97660000000000002</v>
-      </c>
-      <c r="V37">
-        <v>0.95340000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38">
-        <v>512</v>
-      </c>
-      <c r="H38" t="s">
-        <v>174</v>
-      </c>
-      <c r="I38" t="s">
-        <v>190</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="O38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="P38">
-        <v>0.1099</v>
-      </c>
-      <c r="Q38">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="R38">
-        <v>0.92449999999999999</v>
-      </c>
-      <c r="S38">
-        <v>0.89510000000000001</v>
-      </c>
-      <c r="T38">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="U38">
-        <v>0.97389999999999999</v>
-      </c>
-      <c r="V38">
-        <v>0.95620000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39">
-        <v>512</v>
-      </c>
-      <c r="H39" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="O39">
-        <v>0.1072</v>
-      </c>
-      <c r="P39">
-        <v>0.1399</v>
-      </c>
-      <c r="Q39">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="R39">
-        <v>0.89070000000000005</v>
-      </c>
-      <c r="S39">
-        <v>0.86070000000000002</v>
-      </c>
-      <c r="T39">
-        <v>0.99580000000000002</v>
-      </c>
-      <c r="U39">
-        <v>0.95830000000000004</v>
-      </c>
-      <c r="V39">
-        <v>0.93510000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40">
-        <v>512</v>
-      </c>
-      <c r="H40" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" t="s">
-        <v>190</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="O40">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="P40">
-        <v>0.10390000000000001</v>
-      </c>
-      <c r="Q40">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="R40">
-        <v>0.92269999999999996</v>
-      </c>
-      <c r="S40">
-        <v>0.89770000000000005</v>
-      </c>
-      <c r="T40">
-        <v>0.99829999999999997</v>
-      </c>
-      <c r="U40">
-        <v>0.97570000000000001</v>
-      </c>
-      <c r="V40">
-        <v>0.95820000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41">
-        <v>512</v>
-      </c>
-      <c r="H41" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" t="s">
-        <v>190</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>1.95E-2</v>
-      </c>
-      <c r="O41">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="P41">
-        <v>0.1202</v>
-      </c>
-      <c r="Q41">
-        <v>0.98119999999999996</v>
-      </c>
-      <c r="R41">
-        <v>0.91930000000000001</v>
-      </c>
-      <c r="S41">
-        <v>0.87829999999999997</v>
-      </c>
-      <c r="T41">
-        <v>0.99790000000000001</v>
-      </c>
-      <c r="U41">
-        <v>0.97170000000000001</v>
-      </c>
-      <c r="V41">
-        <v>0.95069999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42">
-        <v>512</v>
-      </c>
-      <c r="H42" t="s">
-        <v>174</v>
-      </c>
-      <c r="I42" t="s">
-        <v>190</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="O42">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="P42">
-        <v>0.12759999999999999</v>
-      </c>
-      <c r="Q42">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="R42">
-        <v>0.90820000000000001</v>
-      </c>
-      <c r="S42">
-        <v>0.87529999999999997</v>
-      </c>
-      <c r="T42">
-        <v>0.997</v>
-      </c>
-      <c r="U42">
-        <v>0.9637</v>
-      </c>
-      <c r="V42">
-        <v>0.94530000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43">
-        <v>512</v>
-      </c>
-      <c r="H43" t="s">
-        <v>174</v>
-      </c>
-      <c r="I43" t="s">
-        <v>190</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="O43">
-        <v>9.7600000000000006E-2</v>
-      </c>
-      <c r="P43">
-        <v>0.13220000000000001</v>
-      </c>
-      <c r="Q43">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="R43">
-        <v>0.90080000000000005</v>
-      </c>
-      <c r="S43">
-        <v>0.86970000000000003</v>
-      </c>
-      <c r="T43">
-        <v>0.99680000000000002</v>
-      </c>
-      <c r="U43">
-        <v>0.96479999999999999</v>
-      </c>
-      <c r="V43">
-        <v>0.94159999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44">
-        <v>512</v>
-      </c>
-      <c r="H44" t="s">
-        <v>174</v>
-      </c>
-      <c r="I44" t="s">
-        <v>190</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>1.46E-2</v>
-      </c>
-      <c r="O44">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="P44">
-        <v>0.10879999999999999</v>
-      </c>
-      <c r="Q44">
-        <v>0.98380000000000001</v>
-      </c>
-      <c r="R44">
-        <v>0.92479999999999996</v>
-      </c>
-      <c r="S44">
-        <v>0.89659999999999995</v>
-      </c>
-      <c r="T44">
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="U44">
-        <v>0.97189999999999999</v>
-      </c>
-      <c r="V44">
-        <v>0.95489999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" t="s">
-        <v>173</v>
-      </c>
-      <c r="G45">
-        <v>512</v>
-      </c>
-      <c r="H45" t="s">
-        <v>174</v>
-      </c>
-      <c r="I45" t="s">
-        <v>199</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="O45">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="P45">
-        <v>0.1108</v>
-      </c>
-      <c r="Q45">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="R45">
-        <v>0.92</v>
-      </c>
-      <c r="S45">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="T45">
-        <v>0.998</v>
-      </c>
-      <c r="U45">
-        <v>0.97319999999999995</v>
-      </c>
-      <c r="V45">
-        <v>0.95579999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F48" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>32</v>
-      </c>
-      <c r="I48" t="s">
-        <v>176</v>
-      </c>
-      <c r="J48" t="s">
-        <v>190</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0.1021</v>
-      </c>
-      <c r="P48">
-        <v>0.22470000000000001</v>
-      </c>
-      <c r="Q48">
-        <v>0.247</v>
-      </c>
-      <c r="R48">
-        <v>0.89870000000000005</v>
-      </c>
-      <c r="S48">
-        <v>0.77380000000000004</v>
-      </c>
-      <c r="T48">
-        <v>0.75509999999999999</v>
-      </c>
-      <c r="U48">
-        <v>0.96089999999999998</v>
-      </c>
-      <c r="V48">
-        <v>0.85929999999999995</v>
-      </c>
-      <c r="W48">
-        <v>0.83209999999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23">
-      <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" t="s">
-        <v>173</v>
-      </c>
-      <c r="F50" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>64</v>
-      </c>
-      <c r="I50" t="s">
-        <v>176</v>
-      </c>
-      <c r="J50" t="s">
-        <v>190</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="P50">
-        <v>0.1552</v>
-      </c>
-      <c r="Q50">
-        <v>0.1885</v>
-      </c>
-      <c r="R50">
-        <v>0.94279999999999997</v>
-      </c>
-      <c r="S50">
-        <v>0.8417</v>
-      </c>
-      <c r="T50">
-        <v>0.80910000000000004</v>
-      </c>
-      <c r="U50">
-        <v>0.98429999999999995</v>
-      </c>
-      <c r="V50">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="W50">
-        <v>0.89170000000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23">
-      <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" t="s">
-        <v>88</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <v>128</v>
-      </c>
-      <c r="I52" t="s">
-        <v>176</v>
-      </c>
-      <c r="J52" t="s">
-        <v>190</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="P52">
-        <v>0.1142</v>
-      </c>
-      <c r="Q52">
-        <v>0.13689999999999999</v>
-      </c>
-      <c r="R52">
-        <v>0.9698</v>
-      </c>
-      <c r="S52">
-        <v>0.88729999999999998</v>
-      </c>
-      <c r="T52">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="U52">
-        <v>0.99560000000000004</v>
-      </c>
-      <c r="V52">
-        <v>0.9516</v>
-      </c>
-      <c r="W52">
-        <v>0.93379999999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23">
-      <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>173</v>
-      </c>
-      <c r="F54" t="s">
-        <v>88</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>256</v>
-      </c>
-      <c r="I54" t="s">
-        <v>176</v>
-      </c>
-      <c r="J54" t="s">
-        <v>190</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="P54">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="Q54">
-        <v>0.1079</v>
-      </c>
-      <c r="R54">
-        <v>0.98280000000000001</v>
-      </c>
-      <c r="S54">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="T54">
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="U54">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="V54">
-        <v>0.97030000000000005</v>
-      </c>
-      <c r="W54">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23">
-      <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" t="s">
-        <v>173</v>
-      </c>
-      <c r="F56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56">
-        <v>512</v>
-      </c>
-      <c r="I56" t="s">
-        <v>176</v>
-      </c>
-      <c r="J56" t="s">
-        <v>190</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>1.26E-2</v>
-      </c>
-      <c r="P56">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="Q56">
-        <v>9.2100000000000001E-2</v>
-      </c>
-      <c r="R56">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="S56">
-        <v>0.93320000000000003</v>
-      </c>
-      <c r="T56">
-        <v>0.90959999999999996</v>
-      </c>
-      <c r="U56">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="V56">
-        <v>0.9778</v>
-      </c>
-      <c r="W56">
-        <v>0.96489999999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23">
-      <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" t="s">
-        <v>173</v>
-      </c>
-      <c r="F58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <v>1024</v>
-      </c>
-      <c r="I58" t="s">
-        <v>176</v>
-      </c>
-      <c r="J58" t="s">
-        <v>190</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>1.09E-2</v>
-      </c>
-      <c r="P58">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="Q58">
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="R58">
-        <v>0.99019999999999997</v>
-      </c>
-      <c r="S58">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="T58">
-        <v>0.91759999999999997</v>
-      </c>
-      <c r="U58">
-        <v>0.999</v>
-      </c>
-      <c r="V58">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="W58">
-        <v>0.96830000000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23">
-      <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" t="s">
-        <v>173</v>
-      </c>
-      <c r="F60" t="s">
-        <v>88</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60">
-        <v>2048</v>
-      </c>
-      <c r="I60" t="s">
-        <v>176</v>
-      </c>
-      <c r="J60" t="s">
-        <v>190</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="P60">
-        <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="Q60">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="R60">
-        <v>0.98950000000000005</v>
-      </c>
-      <c r="S60">
-        <v>0.9415</v>
-      </c>
-      <c r="T60">
-        <v>0.91830000000000001</v>
-      </c>
-      <c r="U60">
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="V60">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="W60">
-        <v>0.97019999999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23">
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62">
-        <v>512</v>
-      </c>
-      <c r="I62" t="s">
-        <v>176</v>
-      </c>
-      <c r="J62" t="s">
-        <v>190</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>1.47E-2</v>
-      </c>
-      <c r="P62">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="Q62">
-        <v>9.7100000000000006E-2</v>
-      </c>
-      <c r="R62">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="S62">
-        <v>0.93330000000000002</v>
-      </c>
-      <c r="T62">
-        <v>0.90690000000000004</v>
-      </c>
-      <c r="U62">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="V62">
-        <v>0.97729999999999995</v>
-      </c>
-      <c r="W62">
-        <v>0.96389999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23">
-      <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" t="s">
-        <v>173</v>
-      </c>
-      <c r="F64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64">
-        <v>4</v>
-      </c>
-      <c r="H64">
-        <v>512</v>
-      </c>
-      <c r="I64" t="s">
-        <v>177</v>
-      </c>
-      <c r="J64" t="s">
-        <v>190</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="P64">
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="Q64">
-        <v>9.9299999999999999E-2</v>
-      </c>
-      <c r="R64">
-        <v>0.98850000000000005</v>
-      </c>
-      <c r="S64">
-        <v>0.92949999999999999</v>
-      </c>
-      <c r="T64">
-        <v>0.90269999999999995</v>
-      </c>
-      <c r="U64">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="V64">
-        <v>0.9788</v>
-      </c>
-      <c r="W64">
-        <v>0.96209999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" t="s">
-        <v>173</v>
-      </c>
-      <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66">
-        <v>6</v>
-      </c>
-      <c r="H66">
-        <v>512</v>
-      </c>
-      <c r="I66" t="s">
-        <v>178</v>
-      </c>
-      <c r="J66" t="s">
-        <v>190</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>1.12E-2</v>
-      </c>
-      <c r="P66">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="Q66">
-        <v>9.69E-2</v>
-      </c>
-      <c r="R66">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="S66">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="T66">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="U66">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="V66">
-        <v>0.97870000000000001</v>
-      </c>
-      <c r="W66">
-        <v>0.96299999999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
-      <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" t="s">
-        <v>173</v>
-      </c>
-      <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68">
-        <v>8</v>
-      </c>
-      <c r="H68">
-        <v>512</v>
-      </c>
-      <c r="I68" t="s">
-        <v>179</v>
-      </c>
-      <c r="J68" t="s">
-        <v>190</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>1.06E-2</v>
-      </c>
-      <c r="P68">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="Q68">
-        <v>9.5200000000000007E-2</v>
-      </c>
-      <c r="R68">
-        <v>0.99070000000000003</v>
-      </c>
-      <c r="S68">
-        <v>0.92969999999999997</v>
-      </c>
-      <c r="T68">
-        <v>0.90339999999999998</v>
-      </c>
-      <c r="U68">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="V68">
-        <v>0.97889999999999999</v>
-      </c>
-      <c r="W68">
-        <v>0.96350000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" t="s">
-        <v>173</v>
-      </c>
-      <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70">
-        <v>10</v>
-      </c>
-      <c r="H70">
-        <v>512</v>
-      </c>
-      <c r="I70" t="s">
-        <v>180</v>
-      </c>
-      <c r="J70" t="s">
-        <v>190</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>1.03E-2</v>
-      </c>
-      <c r="P70">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="Q70">
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="R70">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="S70">
-        <v>0.9355</v>
-      </c>
-      <c r="T70">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="U70">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="V70">
-        <v>0.97689999999999999</v>
-      </c>
-      <c r="W70">
-        <v>0.96340000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
-      <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" t="s">
-        <v>173</v>
-      </c>
-      <c r="F72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72">
-        <v>12</v>
-      </c>
-      <c r="H72">
-        <v>512</v>
-      </c>
-      <c r="I72" t="s">
-        <v>181</v>
-      </c>
-      <c r="J72" t="s">
-        <v>190</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>1.11E-2</v>
-      </c>
-      <c r="P72">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="Q72">
-        <v>0.10150000000000001</v>
-      </c>
-      <c r="R72">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="S72">
-        <v>0.93220000000000003</v>
-      </c>
-      <c r="T72">
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="U72">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="V72">
-        <v>0.97640000000000005</v>
-      </c>
-      <c r="W72">
-        <v>0.95779999999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74">
-        <v>16</v>
-      </c>
-      <c r="H74">
-        <v>512</v>
-      </c>
-      <c r="I74" t="s">
-        <v>183</v>
-      </c>
-      <c r="J74" t="s">
-        <v>190</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>1.26E-2</v>
-      </c>
-      <c r="P74">
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="Q74">
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="R74">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="S74">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="T74">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="U74">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="V74">
-        <v>0.97819999999999996</v>
-      </c>
-      <c r="W74">
-        <v>0.96060000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
-      <c r="A75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" t="s">
-        <v>173</v>
-      </c>
-      <c r="D75">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>88</v>
-      </c>
-      <c r="F75" t="s">
-        <v>173</v>
-      </c>
-      <c r="G75">
-        <v>512</v>
-      </c>
-      <c r="H75" t="s">
-        <v>174</v>
-      </c>
-      <c r="I75" t="s">
-        <v>190</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="O75">
-        <v>6.93E-2</v>
-      </c>
-      <c r="P75">
-        <v>9.11E-2</v>
-      </c>
-      <c r="Q75">
-        <v>0.99129999999999996</v>
-      </c>
-      <c r="R75">
-        <v>0.92979999999999996</v>
-      </c>
-      <c r="S75">
-        <v>0.9123</v>
-      </c>
-      <c r="T75">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="U75">
-        <v>0.98009999999999997</v>
-      </c>
-      <c r="V75">
-        <v>0.9657</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/performance_face.xlsx
+++ b/doc/performance_face.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my research\etri2020\arcface-tf2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A07AC1-F78C-4873-A3C8-829FEDEAE359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD8C9B-8344-48CD-9B18-4A68D9799F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS-Machines" sheetId="7" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="233">
   <si>
     <t>Y.T.F</t>
   </si>
@@ -1917,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51363D05-95D3-43CA-814A-33F96DBAFD86}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -2163,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB32DF3-C205-4E18-869E-46555BE5E896}">
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88:V88"/>
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6135,6 +6135,74 @@
       </c>
       <c r="V88">
         <v>0.9708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s">
+        <v>170</v>
+      </c>
+      <c r="G89">
+        <v>64</v>
+      </c>
+      <c r="H89" t="s">
+        <v>231</v>
+      </c>
+      <c r="I89" t="s">
+        <v>196</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="O89">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="P89">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q89">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="R89">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="S89">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="T89">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="U89">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="V89">
+        <v>0.94730000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -25133,7 +25201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C05117-9D59-4433-A78F-73924040633A}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
@@ -27645,7 +27713,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
